--- a/output/TICKER_RESULTS.xlsx
+++ b/output/TICKER_RESULTS.xlsx
@@ -9,10 +9,10 @@
   <sheets>
     <sheet sheetId="4" name="scoring theory" state="visible" r:id="rId4"/>
     <sheet sheetId="12" name="&lt;TICKER&gt; Results" state="visible" r:id="rId5"/>
-    <sheet sheetId="1" name="GOOGL Results" state="visible" r:id="rId6"/>
-    <sheet sheetId="2" name="AAPL Results" state="visible" r:id="rId7"/>
-    <sheet sheetId="3" name="NVDA Results" state="visible" r:id="rId8"/>
-    <sheet sheetId="5" name="TSLA Results" state="visible" r:id="rId9"/>
+    <sheet sheetId="1" name="TSLA Results" state="visible" r:id="rId6"/>
+    <sheet sheetId="2" name="NVDA Results" state="visible" r:id="rId7"/>
+    <sheet sheetId="3" name="AAPL Results" state="visible" r:id="rId8"/>
+    <sheet sheetId="5" name="GOOGL Results" state="visible" r:id="rId9"/>
     <sheet sheetId="6" name="AMZN Results" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -453,6 +453,18 @@
     <t/>
   </si>
   <si>
+    <t>2024-01-31</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
     <t>2023-09-30</t>
   </si>
   <si>
@@ -463,30 +475,17 @@
   </si>
   <si>
     <t>2020-09-30</t>
-  </si>
-  <si>
-    <t>2024-01-31</t>
-  </si>
-  <si>
-    <t>2023-01-31</t>
-  </si>
-  <si>
-    <t>2022-01-31</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -540,15 +539,10 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <color rgb="FF0E0E0E"/>
-      <sz val="20"/>
-      <name val=".SF NS"/>
-    </font>
-    <font>
-      <color rgb="FF232A31"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <scheme val="minor"/>
       <sz val="14"/>
-      <name val="Helvetica Neue"/>
+      <name val="Aptos Narrow"/>
     </font>
     <font>
       <i/>
@@ -983,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1038,22 +1032,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,7 +1054,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,21 +1065,21 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,7 +1096,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1645,9 +1635,18 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A2:V32"/>
+  <dimension ref="A1:V32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="174" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="22" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
@@ -1692,17 +1691,17 @@
       <c r="B3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>108</v>
+      <c r="C3" s="21">
+        <v>13626000000</v>
       </c>
       <c r="D3" s="21">
-        <v>2670000000</v>
+        <v>12839000000</v>
       </c>
       <c r="E3" s="21">
-        <v>1170000000</v>
+        <v>5757000000</v>
       </c>
       <c r="F3" s="22">
-        <v>728000000</v>
+        <v>4101000000</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -1726,17 +1725,17 @@
       <c r="B4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="24">
-        <v>148436000000</v>
-      </c>
-      <c r="D4" s="24">
-        <v>127049000000</v>
-      </c>
-      <c r="E4" s="24">
-        <v>110558000000</v>
-      </c>
-      <c r="F4" s="25">
-        <v>96960000000</v>
+      <c r="C4" s="21">
+        <v>45123000000</v>
+      </c>
+      <c r="D4" s="21">
+        <v>36635000000</v>
+      </c>
+      <c r="E4" s="21">
+        <v>31172000000</v>
+      </c>
+      <c r="F4" s="22">
+        <v>23378000000</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1760,17 +1759,17 @@
       <c r="B5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="26">
-        <v>29198000000</v>
-      </c>
-      <c r="D5" s="26">
-        <v>28960000000</v>
-      </c>
-      <c r="E5" s="26">
-        <v>22956000000</v>
-      </c>
-      <c r="F5" s="27">
-        <v>21175000000</v>
+      <c r="C5" s="21">
+        <v>253000000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>194000000</v>
+      </c>
+      <c r="E5" s="21">
+        <v>200000000</v>
+      </c>
+      <c r="F5" s="22">
+        <v>207000000</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -1795,16 +1794,16 @@
         <v>69</v>
       </c>
       <c r="C6" s="21">
-        <v>402392000000</v>
-      </c>
-      <c r="D6" s="26">
-        <v>365264000000</v>
+        <v>106618000000</v>
+      </c>
+      <c r="D6" s="21">
+        <v>82338000000</v>
       </c>
       <c r="E6" s="21">
-        <v>359268000000</v>
+        <v>62131000000</v>
       </c>
       <c r="F6" s="22">
-        <v>319616000000</v>
+        <v>52148000000</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -1829,16 +1828,16 @@
         <v>70</v>
       </c>
       <c r="C7" s="21">
-        <v>81814000000</v>
+        <v>28748000000</v>
       </c>
       <c r="D7" s="21">
-        <v>69300000000</v>
+        <v>26709000000</v>
       </c>
       <c r="E7" s="21">
-        <v>64254000000</v>
+        <v>19705000000</v>
       </c>
       <c r="F7" s="22">
-        <v>56834000000</v>
+        <v>14248000000</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -1863,16 +1862,16 @@
         <v>71</v>
       </c>
       <c r="C8" s="21">
-        <v>37199000000</v>
+        <v>14261000000</v>
       </c>
       <c r="D8" s="21">
-        <v>39820000000</v>
+        <v>9731000000</v>
       </c>
       <c r="E8" s="21">
-        <v>43379000000</v>
-      </c>
-      <c r="F8" s="27">
-        <v>40238000000</v>
+        <v>10843000000</v>
+      </c>
+      <c r="F8" s="22">
+        <v>14221000000</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -1897,16 +1896,16 @@
         <v>72</v>
       </c>
       <c r="C9" s="21">
-        <v>119013000000</v>
+        <v>43009000000</v>
       </c>
       <c r="D9" s="21">
-        <v>109120000000</v>
-      </c>
-      <c r="E9" s="26">
-        <v>107633000000</v>
+        <v>36440000000</v>
+      </c>
+      <c r="E9" s="21">
+        <v>30548000000</v>
       </c>
       <c r="F9" s="22">
-        <v>97072000000</v>
+        <v>28469000000</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -1930,16 +1929,16 @@
       <c r="B10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="22" t="s">
         <v>108</v>
       </c>
       <c r="G10" s="15"/>
@@ -1964,16 +1963,16 @@
       <c r="B11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="22" t="s">
         <v>108</v>
       </c>
       <c r="G11" s="15"/>
@@ -1999,16 +1998,16 @@
         <v>75</v>
       </c>
       <c r="C12" s="21">
-        <v>211247000000</v>
+        <v>27882000000</v>
       </c>
       <c r="D12" s="21">
-        <v>195563000000</v>
+        <v>12885000000</v>
       </c>
       <c r="E12" s="21">
-        <v>191484000000</v>
+        <v>329000000</v>
       </c>
       <c r="F12" s="22">
-        <v>163401000000</v>
+        <v>-5399000000</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -2033,16 +2032,16 @@
         <v>76</v>
       </c>
       <c r="C13" s="21">
-        <v>283379000000</v>
+        <v>63609000000</v>
       </c>
       <c r="D13" s="21">
-        <v>256144000000</v>
+        <v>45898000000</v>
       </c>
       <c r="E13" s="21">
-        <v>251635000000</v>
+        <v>31583000000</v>
       </c>
       <c r="F13" s="22">
-        <v>222544000000</v>
+        <v>23679000000</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -2063,13 +2062,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -2092,17 +2091,17 @@
       <c r="B15" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="26">
-        <v>45427000000</v>
-      </c>
-      <c r="D15" s="26">
-        <v>39500000000</v>
-      </c>
-      <c r="E15" s="26">
-        <v>31562000000</v>
-      </c>
-      <c r="F15" s="27">
-        <v>27573000000</v>
+      <c r="C15" s="21">
+        <v>3969000000</v>
+      </c>
+      <c r="D15" s="21">
+        <v>3075000000</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2593000000</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1491000000</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2123,13 +2122,13 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -2149,20 +2148,20 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="32">
-        <v>101746000000</v>
-      </c>
-      <c r="D17" s="32">
-        <v>91495000000</v>
-      </c>
-      <c r="E17" s="32">
-        <v>91652000000</v>
-      </c>
-      <c r="F17" s="33">
-        <v>65124000000</v>
+      <c r="C17" s="28">
+        <v>13256000000</v>
+      </c>
+      <c r="D17" s="28">
+        <v>14724000000</v>
+      </c>
+      <c r="E17" s="28">
+        <v>11497000000</v>
+      </c>
+      <c r="F17" s="29">
+        <v>5943000000</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -2181,24 +2180,25 @@
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
     </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="32" t="s">
         <v>85</v>
       </c>
       <c r="H19" s="15"/>
@@ -2219,15 +2219,15 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
         <v>86</v>
       </c>
       <c r="I20" s="15"/>
@@ -2247,30 +2247,30 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="42" t="str">
+      <c r="C21" s="38" t="str">
         <f>IF(C3&gt;D3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D21" s="42" t="str">
+      <c r="D21" s="38" t="str">
         <f>IF(D3&gt;E3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E21" s="42" t="str">
+      <c r="E21" s="38" t="str">
         <f>IF(E3&gt;F3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44">
+      <c r="F21" s="39"/>
+      <c r="G21" s="40">
         <f>(((COUNTIF(C21:E21, "Pass") * 100) + (COUNTIF(C21:E21, "Fail") * 0)) * (400/300)) / 2</f>
         <v>0</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -2287,27 +2287,27 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="42" t="str">
+      <c r="C22" s="38" t="str">
         <f>IF(C17&gt;D17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D22" s="42" t="str">
+      <c r="D22" s="38" t="str">
         <f>IF(D17&gt;E17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E22" s="42" t="str">
+      <c r="E22" s="38" t="str">
         <f>IF(E17&gt;F17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="44">
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
         <f>(((COUNTIF(C22:F22, "Pass") * 100) + (COUNTIF(C22:F22, "Fail") * 0)) * (400/300)) / 2</f>
         <v>0</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="41" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="15"/>
@@ -2327,30 +2327,30 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="42" t="str">
+      <c r="C23" s="38" t="str">
         <f>IF(C17&gt;C7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D23" s="42" t="str">
+      <c r="D23" s="38" t="str">
         <f>IF(D17&gt;D7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E23" s="42" t="str">
+      <c r="E23" s="38" t="str">
         <f>IF(E17&gt;E7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F23" s="47" t="str">
+      <c r="F23" s="43" t="str">
         <f>IF(F17&gt;F7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="40">
         <f>(COUNTIF(C23:F23, "Pass") * 100) + (COUNTIF(C23:F23, "Fail") * 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="41" t="s">
         <v>91</v>
       </c>
       <c r="I23" s="15"/>
@@ -2370,33 +2370,33 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="48" t="e">
+      <c r="C24" s="44" t="e">
         <f>C17/(C4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="48" t="e">
+      <c r="D24" s="44" t="e">
         <f>D17/(D4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="48" t="e">
+      <c r="E24" s="44" t="e">
         <f>E17/(E4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="49" t="e">
+      <c r="F24" s="45" t="e">
         <f>F17/(F4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="44" t="e">
+      <c r="G24" s="40" t="e">
         <f> (IF(C24 &gt; 0.5, 100, IF(C24 &gt;= 0.2, 50, 0))) +
   (IF(D24 &gt; 0.5, 100, IF(D24 &gt;= 0.2, 50, 0))) +
   (IF(E24 &gt; 0.5, 100, IF(E24 &gt;= 0.2, 50, 0))) +
   (IF(F24 &gt; 0.5, 100, IF(F24 &gt;= 0.2, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="41" t="s">
         <v>92</v>
       </c>
       <c r="I24" s="15"/>
@@ -2416,33 +2416,33 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="48" t="e">
+      <c r="C25" s="44" t="e">
         <f>C17/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="48" t="e">
+      <c r="D25" s="44" t="e">
         <f>D17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="48" t="e">
+      <c r="E25" s="44" t="e">
         <f>E17/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="49" t="e">
+      <c r="F25" s="45" t="e">
         <f>F17/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="44" t="e">
+      <c r="G25" s="40" t="e">
         <f> (IF(C25 &gt; 0.17, 100, IF(C25 &gt;= 0.1, 50, 0))) +
   (IF(D25 &gt; 0.17, 100, IF(D25 &gt;= 0.1, 50, 0))) +
   (IF(E25 &gt; 0.17, 100, IF(E25 &gt;= 0.1, 50, 0))) +
   (IF(F25 &gt; 0.17, 100, IF(F25 &gt;= 0.1, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="41" t="s">
         <v>93</v>
       </c>
       <c r="I25" s="15"/>
@@ -2462,33 +2462,33 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="48" t="e">
+      <c r="C26" s="44" t="e">
         <f>C8/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="48" t="e">
+      <c r="D26" s="44" t="e">
         <f>D8/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="48" t="e">
+      <c r="E26" s="44" t="e">
         <f>E8/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="49" t="e">
+      <c r="F26" s="45" t="e">
         <f>F8/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="44" t="e">
+      <c r="G26" s="40" t="e">
         <f> (IF(C26 &lt; 0.5, 100, 0)) +
   (IF(D26 &lt; 0.5, 100, 0)) +
   (IF(E26 &lt; 0.5, 100, 0)) +
   (IF(F26 &lt; 0.5, 100, 0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="41" t="s">
         <v>94</v>
       </c>
       <c r="I26" s="15"/>
@@ -2508,33 +2508,33 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="48" t="e">
+      <c r="C27" s="44" t="e">
         <f>C9/(C13+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="48" t="e">
+      <c r="D27" s="44" t="e">
         <f>D9/(D13+D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="48" t="e">
+      <c r="E27" s="44" t="e">
         <f>E9/(E13+E10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="49" t="e">
+      <c r="F27" s="45" t="e">
         <f>F9/(F13+F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="44" t="e">
+      <c r="G27" s="40" t="e">
         <f> (IF(C27 &lt; 0.8, 100, IF(C27 &lt; 1, 50, 0))) +
   (IF(D27 &lt; 0.8, 100, IF(D27 &lt; 1, 50, 0))) +
   (IF(E27 &lt; 0.8, 100, IF(E27 &lt; 1, 50, 0))) +
   (IF(F27 &lt; 0.8, 100, IF(F27 &lt; 1, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="41" t="s">
         <v>96</v>
       </c>
       <c r="I27" s="15"/>
@@ -2554,30 +2554,30 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="42" t="str">
+      <c r="C28" s="38" t="str">
         <f>IF(C11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="D28" s="50" t="str">
+      <c r="D28" s="46" t="str">
         <f>IF(D11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="E28" s="50" t="str">
+      <c r="E28" s="46" t="str">
         <f>IF(E11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="F28" s="51" t="str">
+      <c r="F28" s="47" t="str">
         <f>IF(F11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="40">
         <f>(COUNTIF(C28:F28, "Pass") * 100) + (COUNTIF(C28:F28, "Fail") * 0)</f>
         <v>400</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="41" t="s">
         <v>98</v>
       </c>
       <c r="I28" s="15"/>
@@ -2597,21 +2597,21 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="49" t="e">
+      <c r="C29" s="45" t="e">
         <f>(((C12-D12)/D12)+((D12-E12)/E12)+((E12-F12)/F12))/3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="44" t="e">
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="40" t="e">
         <f>(IF(C29 &gt;= 0.17, 100, IF(C29 &gt;= 0, 50, 0))) * (400/100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="41" t="s">
         <v>99</v>
       </c>
       <c r="I29" s="15"/>
@@ -2631,30 +2631,30 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="42" t="str">
+      <c r="C30" s="38" t="str">
         <f>IF(C10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D30" s="55" t="str">
+      <c r="D30" s="51" t="str">
         <f>IF(D10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E30" s="55" t="str">
+      <c r="E30" s="51" t="str">
         <f>IF(E10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F30" s="56" t="str">
+      <c r="F30" s="52" t="str">
         <f>IF(F10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="40">
         <f>(COUNTIF(C30:F30, "Pass") * 100) + (COUNTIF(C30:F30, "Fail") * 0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="41" t="s">
         <v>100</v>
       </c>
       <c r="I30" s="15"/>
@@ -2674,33 +2674,33 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="48" t="e">
+      <c r="C31" s="44" t="e">
         <f>C17/(C13+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="48" t="e">
+      <c r="D31" s="44" t="e">
         <f>D17/(D13+D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="48" t="e">
+      <c r="E31" s="44" t="e">
         <f>E17/(E13+E10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="49" t="e">
+      <c r="F31" s="45" t="e">
         <f>F17/(F13+F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="44" t="e">
+      <c r="G31" s="40" t="e">
         <f> (IF(C31 &gt; 0.23, 100, 0)) +
   (IF(D31 &gt; 0.23, 100, 0)) +
   (IF(E31 &gt; 0.23, 100, 0)) +
   (IF(F31 &gt; 0.23, 100, 0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="41" t="s">
         <v>102</v>
       </c>
       <c r="I31" s="15"/>
@@ -2720,21 +2720,21 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="58" t="str">
+      <c r="C32" s="54" t="str">
         <f>IF(C5&gt;F5, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61">
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57">
         <f>((COUNTIF(C32, "Pass") * 100) + (COUNTIF(C32, "Fail") * 0)) * (400/100)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="58" t="s">
         <v>103</v>
       </c>
       <c r="I32" s="15"/>
@@ -2763,10 +2763,10 @@
   <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="214" zoomScaleNormal="100">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.83203125"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125"/>
   <cols>
     <col min="1" max="1" width="2.1640625" customWidth="1"/>
     <col min="2" max="2" width="35.6640625" customWidth="1"/>
@@ -2843,7 +2843,7 @@
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="20" t="s">
         <v>66</v>
@@ -2869,15 +2869,15 @@
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -2895,15 +2895,15 @@
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -2921,13 +2921,13 @@
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
     </row>
-    <row r="6" ht="25" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="23" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="26"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
       <c r="G6" s="15"/>
@@ -2947,7 +2947,7 @@
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="23" t="s">
         <v>70</v>
@@ -2973,7 +2973,7 @@
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="23" t="s">
         <v>71</v>
@@ -2981,7 +2981,7 @@
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -2999,14 +2999,14 @@
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="26"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="22"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -3025,15 +3025,15 @@
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -3051,15 +3051,15 @@
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -3077,7 +3077,7 @@
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
     </row>
-    <row r="12" ht="25" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="23" t="s">
         <v>75</v>
@@ -3103,7 +3103,7 @@
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
     </row>
-    <row r="13" ht="25" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="23" t="s">
         <v>76</v>
@@ -3129,15 +3129,15 @@
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -3155,15 +3155,15 @@
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -3181,15 +3181,15 @@
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -3207,15 +3207,15 @@
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
     </row>
-    <row r="17" ht="19" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" ht="20" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -3259,22 +3259,22 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="32" t="s">
         <v>85</v>
       </c>
       <c r="H19" s="15"/>
@@ -3295,15 +3295,15 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
         <v>86</v>
       </c>
       <c r="I20" s="15"/>
@@ -3323,30 +3323,30 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="42" t="str">
+      <c r="C21" s="38" t="str">
         <f>IF(C3&gt;D3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D21" s="42" t="str">
+      <c r="D21" s="38" t="str">
         <f>IF(D3&gt;E3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E21" s="42" t="str">
+      <c r="E21" s="38" t="str">
         <f>IF(E3&gt;F3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44">
+      <c r="F21" s="39"/>
+      <c r="G21" s="40">
         <f>(((COUNTIF(C21:E21, "Pass") * 100) + (COUNTIF(C21:E21, "Fail") * 0)) * (400/300)) / 2</f>
         <v>0</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -3363,27 +3363,27 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="42" t="str">
+      <c r="C22" s="38" t="str">
         <f>IF(C17&gt;D17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D22" s="42" t="str">
+      <c r="D22" s="38" t="str">
         <f>IF(D17&gt;E17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E22" s="42" t="str">
+      <c r="E22" s="38" t="str">
         <f>IF(E17&gt;F17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="44">
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
         <f>(((COUNTIF(C22:F22, "Pass") * 100) + (COUNTIF(C22:F22, "Fail") * 0)) * (400/300)) / 2</f>
         <v>0</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="41" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="15"/>
@@ -3403,30 +3403,30 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="42" t="str">
+      <c r="C23" s="38" t="str">
         <f>IF(C17&gt;C7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D23" s="42" t="str">
+      <c r="D23" s="38" t="str">
         <f>IF(D17&gt;D7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E23" s="42" t="str">
+      <c r="E23" s="38" t="str">
         <f>IF(E17&gt;E7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F23" s="47" t="str">
+      <c r="F23" s="43" t="str">
         <f>IF(F17&gt;F7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="40">
         <f t="shared" ref="G23:G30" si="0">(COUNTIF(C23:F23, "Pass") * 100) + (COUNTIF(C23:F23, "Fail") * 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="41" t="s">
         <v>91</v>
       </c>
       <c r="I23" s="15"/>
@@ -3446,33 +3446,33 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="48" t="e">
+      <c r="C24" s="44" t="e">
         <f>C17/(C4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="48" t="e">
+      <c r="D24" s="44" t="e">
         <f>D17/(D4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="48" t="e">
+      <c r="E24" s="44" t="e">
         <f t="shared" ref="E24:F24" si="1">E17/(E4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="49" t="e">
+      <c r="F24" s="45" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="44" t="e">
+      <c r="G24" s="40" t="e">
         <f> (IF(C24 &gt; 0.5, 100, IF(C24 &gt;= 0.2, 50, 0))) +
   (IF(D24 &gt; 0.5, 100, IF(D24 &gt;= 0.2, 50, 0))) +
   (IF(E24 &gt; 0.5, 100, IF(E24 &gt;= 0.2, 50, 0))) +
   (IF(F24 &gt; 0.5, 100, IF(F24 &gt;= 0.2, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="41" t="s">
         <v>92</v>
       </c>
       <c r="I24" s="15"/>
@@ -3492,33 +3492,33 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="48" t="e">
+      <c r="C25" s="44" t="e">
         <f>C17/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="48" t="e">
+      <c r="D25" s="44" t="e">
         <f>D17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="48" t="e">
+      <c r="E25" s="44" t="e">
         <f>E17/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="49" t="e">
+      <c r="F25" s="45" t="e">
         <f>F17/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="44" t="e">
+      <c r="G25" s="40" t="e">
         <f> (IF(C25 &gt; 0.17, 100, IF(C25 &gt;= 0.1, 50, 0))) +
   (IF(D25 &gt; 0.17, 100, IF(D25 &gt;= 0.1, 50, 0))) +
   (IF(E25 &gt; 0.17, 100, IF(E25 &gt;= 0.1, 50, 0))) +
   (IF(F25 &gt; 0.17, 100, IF(F25 &gt;= 0.1, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="41" t="s">
         <v>93</v>
       </c>
       <c r="I25" s="15"/>
@@ -3538,33 +3538,33 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="48" t="e">
+      <c r="C26" s="44" t="e">
         <f>C8/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="48" t="e">
+      <c r="D26" s="44" t="e">
         <f>D8/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="48" t="e">
+      <c r="E26" s="44" t="e">
         <f>E8/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="49" t="e">
+      <c r="F26" s="45" t="e">
         <f>F8/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="44" t="e">
+      <c r="G26" s="40" t="e">
         <f> (IF(C26 &lt; 0.5, 100, 0)) +
   (IF(D26 &lt; 0.5, 100, 0)) +
   (IF(E26 &lt; 0.5, 100, 0)) +
   (IF(F26 &lt; 0.5, 100, 0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="41" t="s">
         <v>94</v>
       </c>
       <c r="I26" s="15"/>
@@ -3584,33 +3584,33 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="48" t="e">
+      <c r="C27" s="44" t="e">
         <f>C9/(C13+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="48" t="e">
+      <c r="D27" s="44" t="e">
         <f>D9/(D13+D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="48" t="e">
+      <c r="E27" s="44" t="e">
         <f>E9/(E13+E10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="49" t="e">
+      <c r="F27" s="45" t="e">
         <f>F9/(F13+F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="44" t="e">
+      <c r="G27" s="40" t="e">
         <f> (IF(C27 &lt; 0.8, 100, IF(C27 &lt; 1, 50, 0))) +
   (IF(D27 &lt; 0.8, 100, IF(D27 &lt; 1, 50, 0))) +
   (IF(E27 &lt; 0.8, 100, IF(E27 &lt; 1, 50, 0))) +
   (IF(F27 &lt; 0.8, 100, IF(F27 &lt; 1, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="41" t="s">
         <v>96</v>
       </c>
       <c r="I27" s="15"/>
@@ -3630,30 +3630,30 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="42" t="str">
+      <c r="C28" s="38" t="str">
         <f>IF(C11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="D28" s="50" t="str">
+      <c r="D28" s="46" t="str">
         <f>IF(D11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="E28" s="50" t="str">
+      <c r="E28" s="46" t="str">
         <f>IF(E11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="F28" s="51" t="str">
+      <c r="F28" s="47" t="str">
         <f>IF(F11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="40">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="41" t="s">
         <v>98</v>
       </c>
       <c r="I28" s="15"/>
@@ -3673,21 +3673,21 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="49" t="e">
+      <c r="C29" s="45" t="e">
         <f>(((C12-D12)/D12)+((D12-E12)/E12)+((E12-F12)/F12))/3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="44" t="e">
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="40" t="e">
         <f>(IF(C29 &gt;= 0.17, 100, IF(C29 &gt;= 0, 50, 0))) * (400/100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="41" t="s">
         <v>99</v>
       </c>
       <c r="I29" s="15"/>
@@ -3707,30 +3707,30 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="42" t="str">
+      <c r="C30" s="38" t="str">
         <f>IF(C10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D30" s="55" t="str">
+      <c r="D30" s="51" t="str">
         <f>IF(D10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E30" s="55" t="str">
+      <c r="E30" s="51" t="str">
         <f>IF(E10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F30" s="56" t="str">
+      <c r="F30" s="52" t="str">
         <f>IF(F10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="41" t="s">
         <v>100</v>
       </c>
       <c r="I30" s="15"/>
@@ -3750,33 +3750,33 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="48" t="e">
+      <c r="C31" s="44" t="e">
         <f>C17/(C13+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="48" t="e">
+      <c r="D31" s="44" t="e">
         <f>D17/(D13+D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="48" t="e">
+      <c r="E31" s="44" t="e">
         <f>E17/(E13+E10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="49" t="e">
+      <c r="F31" s="45" t="e">
         <f>F17/(F13+F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="44" t="e">
+      <c r="G31" s="40" t="e">
         <f> (IF(C31 &gt; 0.23, 100, 0)) +
   (IF(D31 &gt; 0.23, 100, 0)) +
   (IF(E31 &gt; 0.23, 100, 0)) +
   (IF(F31 &gt; 0.23, 100, 0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="41" t="s">
         <v>102</v>
       </c>
       <c r="I31" s="15"/>
@@ -3796,21 +3796,21 @@
     </row>
     <row r="32" ht="16" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="58" t="str">
+      <c r="C32" s="54" t="str">
         <f>IF(C5&gt;F5, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61">
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57">
         <f>((COUNTIF(C32, "Pass") * 100) + (COUNTIF(C32, "Fail") * 0)) * (400/100)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="58" t="s">
         <v>103</v>
       </c>
       <c r="I32" s="15"/>
@@ -4723,9 +4723,18 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A2:V32"/>
+  <dimension ref="A1:V32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="174" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="22" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
@@ -4771,16 +4780,16 @@
         <v>66</v>
       </c>
       <c r="C3" s="21">
-        <v>6331000000</v>
+        <v>5282000000</v>
       </c>
       <c r="D3" s="21">
-        <v>4946000000</v>
+        <v>5159000000</v>
       </c>
       <c r="E3" s="21">
-        <v>6580000000</v>
+        <v>2605000000</v>
       </c>
       <c r="F3" s="22">
-        <v>4061000000</v>
+        <v>1826000000</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -4804,17 +4813,17 @@
       <c r="B4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="24">
-        <v>54376000000</v>
-      </c>
-      <c r="D4" s="24">
-        <v>52534000000</v>
-      </c>
-      <c r="E4" s="24">
-        <v>49527000000</v>
-      </c>
-      <c r="F4" s="25">
-        <v>45336000000</v>
+      <c r="C4" s="21">
+        <v>5260000000</v>
+      </c>
+      <c r="D4" s="21">
+        <v>4845000000</v>
+      </c>
+      <c r="E4" s="21">
+        <v>3607000000</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2856000000</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -4838,17 +4847,17 @@
       <c r="B5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>108</v>
+      <c r="C5" s="21">
+        <v>4430000000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>4372000000</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4349000000</v>
+      </c>
+      <c r="F5" s="22">
+        <v>4193000000</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -4873,16 +4882,16 @@
         <v>69</v>
       </c>
       <c r="C6" s="21">
-        <v>352583000000</v>
-      </c>
-      <c r="D6" s="26">
-        <v>352755000000</v>
+        <v>65728000000</v>
+      </c>
+      <c r="D6" s="21">
+        <v>41182000000</v>
       </c>
       <c r="E6" s="21">
-        <v>351002000000</v>
+        <v>44187000000</v>
       </c>
       <c r="F6" s="22">
-        <v>323888000000</v>
+        <v>28791000000</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -4907,16 +4916,16 @@
         <v>70</v>
       </c>
       <c r="C7" s="21">
-        <v>145308000000</v>
+        <v>10631000000</v>
       </c>
       <c r="D7" s="21">
-        <v>153982000000</v>
+        <v>6563000000</v>
       </c>
       <c r="E7" s="21">
-        <v>125481000000</v>
+        <v>4335000000</v>
       </c>
       <c r="F7" s="22">
-        <v>105392000000</v>
+        <v>3925000000</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -4941,16 +4950,16 @@
         <v>71</v>
       </c>
       <c r="C8" s="21">
-        <v>145129000000</v>
+        <v>12119000000</v>
       </c>
       <c r="D8" s="21">
-        <v>148101000000</v>
+        <v>12518000000</v>
       </c>
       <c r="E8" s="21">
-        <v>162431000000</v>
-      </c>
-      <c r="F8" s="27">
-        <v>153157000000</v>
+        <v>13240000000</v>
+      </c>
+      <c r="F8" s="22">
+        <v>7973000000</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -4975,16 +4984,16 @@
         <v>72</v>
       </c>
       <c r="C9" s="21">
-        <v>290437000000</v>
+        <v>22750000000</v>
       </c>
       <c r="D9" s="21">
-        <v>302083000000</v>
-      </c>
-      <c r="E9" s="26">
-        <v>287912000000</v>
+        <v>19081000000</v>
+      </c>
+      <c r="E9" s="21">
+        <v>17575000000</v>
       </c>
       <c r="F9" s="22">
-        <v>258549000000</v>
+        <v>11898000000</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -5008,17 +5017,17 @@
       <c r="B10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>108</v>
+      <c r="F10" s="22">
+        <v>10756000000</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -5042,16 +5051,16 @@
       <c r="B11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="22" t="s">
         <v>108</v>
       </c>
       <c r="G11" s="15"/>
@@ -5077,16 +5086,16 @@
         <v>75</v>
       </c>
       <c r="C12" s="21">
-        <v>-214000000</v>
+        <v>29817000000</v>
       </c>
       <c r="D12" s="21">
-        <v>-3068000000</v>
+        <v>10171000000</v>
       </c>
       <c r="E12" s="21">
-        <v>5562000000</v>
+        <v>16235000000</v>
       </c>
       <c r="F12" s="22">
-        <v>14966000000</v>
+        <v>18908000000</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -5111,16 +5120,16 @@
         <v>76</v>
       </c>
       <c r="C13" s="21">
-        <v>62146000000</v>
+        <v>42978000000</v>
       </c>
       <c r="D13" s="21">
-        <v>50672000000</v>
+        <v>22101000000</v>
       </c>
       <c r="E13" s="21">
-        <v>63090000000</v>
+        <v>26612000000</v>
       </c>
       <c r="F13" s="22">
-        <v>65339000000</v>
+        <v>16893000000</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -5141,13 +5150,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -5170,17 +5179,17 @@
       <c r="B15" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="26">
-        <v>29915000000</v>
-      </c>
-      <c r="D15" s="26">
-        <v>26251000000</v>
-      </c>
-      <c r="E15" s="26">
-        <v>21914000000</v>
-      </c>
-      <c r="F15" s="27">
-        <v>18752000000</v>
+      <c r="C15" s="21">
+        <v>8675000000</v>
+      </c>
+      <c r="D15" s="21">
+        <v>7339000000</v>
+      </c>
+      <c r="E15" s="21">
+        <v>5268000000</v>
+      </c>
+      <c r="F15" s="22">
+        <v>3924000000</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -5201,13 +5210,13 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -5227,20 +5236,20 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="32">
-        <v>110543000000</v>
-      </c>
-      <c r="D17" s="32">
-        <v>122151000000</v>
-      </c>
-      <c r="E17" s="32">
-        <v>104038000000</v>
-      </c>
-      <c r="F17" s="33">
-        <v>80674000000</v>
+      <c r="C17" s="28">
+        <v>28090000000</v>
+      </c>
+      <c r="D17" s="28">
+        <v>5641000000</v>
+      </c>
+      <c r="E17" s="28">
+        <v>9108000000</v>
+      </c>
+      <c r="F17" s="29">
+        <v>5822000000</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -5259,24 +5268,25 @@
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
     </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="32" t="s">
         <v>85</v>
       </c>
       <c r="H19" s="15"/>
@@ -5297,15 +5307,15 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
         <v>86</v>
       </c>
       <c r="I20" s="15"/>
@@ -5325,30 +5335,30 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="42" t="str">
+      <c r="C21" s="38" t="str">
         <f>IF(C3&gt;D3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D21" s="42" t="str">
+      <c r="D21" s="38" t="str">
         <f>IF(D3&gt;E3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E21" s="42" t="str">
+      <c r="E21" s="38" t="str">
         <f>IF(E3&gt;F3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44">
+      <c r="F21" s="39"/>
+      <c r="G21" s="40">
         <f>(((COUNTIF(C21:E21, "Pass") * 100) + (COUNTIF(C21:E21, "Fail") * 0)) * (400/300)) / 2</f>
         <v>0</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -5365,27 +5375,27 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="42" t="str">
+      <c r="C22" s="38" t="str">
         <f>IF(C17&gt;D17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D22" s="42" t="str">
+      <c r="D22" s="38" t="str">
         <f>IF(D17&gt;E17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E22" s="42" t="str">
+      <c r="E22" s="38" t="str">
         <f>IF(E17&gt;F17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="44">
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
         <f>(((COUNTIF(C22:F22, "Pass") * 100) + (COUNTIF(C22:F22, "Fail") * 0)) * (400/300)) / 2</f>
         <v>0</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="41" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="15"/>
@@ -5405,30 +5415,30 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="42" t="str">
+      <c r="C23" s="38" t="str">
         <f>IF(C17&gt;C7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D23" s="42" t="str">
+      <c r="D23" s="38" t="str">
         <f>IF(D17&gt;D7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E23" s="42" t="str">
+      <c r="E23" s="38" t="str">
         <f>IF(E17&gt;E7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F23" s="47" t="str">
+      <c r="F23" s="43" t="str">
         <f>IF(F17&gt;F7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="40">
         <f>(COUNTIF(C23:F23, "Pass") * 100) + (COUNTIF(C23:F23, "Fail") * 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="41" t="s">
         <v>91</v>
       </c>
       <c r="I23" s="15"/>
@@ -5448,33 +5458,33 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="48" t="e">
+      <c r="C24" s="44" t="e">
         <f>C17/(C4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="48" t="e">
+      <c r="D24" s="44" t="e">
         <f>D17/(D4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="48" t="e">
+      <c r="E24" s="44" t="e">
         <f>E17/(E4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="49" t="e">
+      <c r="F24" s="45" t="e">
         <f>F17/(F4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="44" t="e">
+      <c r="G24" s="40" t="e">
         <f> (IF(C24 &gt; 0.5, 100, IF(C24 &gt;= 0.2, 50, 0))) +
   (IF(D24 &gt; 0.5, 100, IF(D24 &gt;= 0.2, 50, 0))) +
   (IF(E24 &gt; 0.5, 100, IF(E24 &gt;= 0.2, 50, 0))) +
   (IF(F24 &gt; 0.5, 100, IF(F24 &gt;= 0.2, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="41" t="s">
         <v>92</v>
       </c>
       <c r="I24" s="15"/>
@@ -5494,33 +5504,33 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="48" t="e">
+      <c r="C25" s="44" t="e">
         <f>C17/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="48" t="e">
+      <c r="D25" s="44" t="e">
         <f>D17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="48" t="e">
+      <c r="E25" s="44" t="e">
         <f>E17/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="49" t="e">
+      <c r="F25" s="45" t="e">
         <f>F17/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="44" t="e">
+      <c r="G25" s="40" t="e">
         <f> (IF(C25 &gt; 0.17, 100, IF(C25 &gt;= 0.1, 50, 0))) +
   (IF(D25 &gt; 0.17, 100, IF(D25 &gt;= 0.1, 50, 0))) +
   (IF(E25 &gt; 0.17, 100, IF(E25 &gt;= 0.1, 50, 0))) +
   (IF(F25 &gt; 0.17, 100, IF(F25 &gt;= 0.1, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="41" t="s">
         <v>93</v>
       </c>
       <c r="I25" s="15"/>
@@ -5540,33 +5550,33 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="48" t="e">
+      <c r="C26" s="44" t="e">
         <f>C8/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="48" t="e">
+      <c r="D26" s="44" t="e">
         <f>D8/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="48" t="e">
+      <c r="E26" s="44" t="e">
         <f>E8/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="49" t="e">
+      <c r="F26" s="45" t="e">
         <f>F8/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="44" t="e">
+      <c r="G26" s="40" t="e">
         <f> (IF(C26 &lt; 0.5, 100, 0)) +
   (IF(D26 &lt; 0.5, 100, 0)) +
   (IF(E26 &lt; 0.5, 100, 0)) +
   (IF(F26 &lt; 0.5, 100, 0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="41" t="s">
         <v>94</v>
       </c>
       <c r="I26" s="15"/>
@@ -5586,33 +5596,33 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="48" t="e">
+      <c r="C27" s="44" t="e">
         <f>C9/(C13+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="48" t="e">
+      <c r="D27" s="44" t="e">
         <f>D9/(D13+D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="48" t="e">
+      <c r="E27" s="44" t="e">
         <f>E9/(E13+E10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="49" t="e">
+      <c r="F27" s="45" t="e">
         <f>F9/(F13+F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="44" t="e">
+      <c r="G27" s="40" t="e">
         <f> (IF(C27 &lt; 0.8, 100, IF(C27 &lt; 1, 50, 0))) +
   (IF(D27 &lt; 0.8, 100, IF(D27 &lt; 1, 50, 0))) +
   (IF(E27 &lt; 0.8, 100, IF(E27 &lt; 1, 50, 0))) +
   (IF(F27 &lt; 0.8, 100, IF(F27 &lt; 1, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="41" t="s">
         <v>96</v>
       </c>
       <c r="I27" s="15"/>
@@ -5632,30 +5642,30 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="42" t="str">
+      <c r="C28" s="38" t="str">
         <f>IF(C11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="D28" s="50" t="str">
+      <c r="D28" s="46" t="str">
         <f>IF(D11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="E28" s="50" t="str">
+      <c r="E28" s="46" t="str">
         <f>IF(E11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="F28" s="51" t="str">
+      <c r="F28" s="47" t="str">
         <f>IF(F11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="40">
         <f>(COUNTIF(C28:F28, "Pass") * 100) + (COUNTIF(C28:F28, "Fail") * 0)</f>
         <v>400</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="41" t="s">
         <v>98</v>
       </c>
       <c r="I28" s="15"/>
@@ -5675,21 +5685,21 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="49" t="e">
+      <c r="C29" s="45" t="e">
         <f>(((C12-D12)/D12)+((D12-E12)/E12)+((E12-F12)/F12))/3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="44" t="e">
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="40" t="e">
         <f>(IF(C29 &gt;= 0.17, 100, IF(C29 &gt;= 0, 50, 0))) * (400/100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="41" t="s">
         <v>99</v>
       </c>
       <c r="I29" s="15"/>
@@ -5709,30 +5719,30 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="42" t="str">
+      <c r="C30" s="38" t="str">
         <f>IF(C10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D30" s="55" t="str">
+      <c r="D30" s="51" t="str">
         <f>IF(D10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E30" s="55" t="str">
+      <c r="E30" s="51" t="str">
         <f>IF(E10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F30" s="56" t="str">
+      <c r="F30" s="52" t="str">
         <f>IF(F10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="40">
         <f>(COUNTIF(C30:F30, "Pass") * 100) + (COUNTIF(C30:F30, "Fail") * 0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="41" t="s">
         <v>100</v>
       </c>
       <c r="I30" s="15"/>
@@ -5752,33 +5762,33 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="48" t="e">
+      <c r="C31" s="44" t="e">
         <f>C17/(C13+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="48" t="e">
+      <c r="D31" s="44" t="e">
         <f>D17/(D13+D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="48" t="e">
+      <c r="E31" s="44" t="e">
         <f>E17/(E13+E10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="49" t="e">
+      <c r="F31" s="45" t="e">
         <f>F17/(F13+F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="44" t="e">
+      <c r="G31" s="40" t="e">
         <f> (IF(C31 &gt; 0.23, 100, 0)) +
   (IF(D31 &gt; 0.23, 100, 0)) +
   (IF(E31 &gt; 0.23, 100, 0)) +
   (IF(F31 &gt; 0.23, 100, 0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="41" t="s">
         <v>102</v>
       </c>
       <c r="I31" s="15"/>
@@ -5798,21 +5808,21 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="58" t="str">
+      <c r="C32" s="54" t="str">
         <f>IF(C5&gt;F5, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61">
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57">
         <f>((COUNTIF(C32, "Pass") * 100) + (COUNTIF(C32, "Fail") * 0)) * (400/100)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="58" t="s">
         <v>103</v>
       </c>
       <c r="I32" s="15"/>
@@ -5841,9 +5851,18 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A2:V32"/>
+  <dimension ref="A1:V32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="174" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="22" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
@@ -5889,16 +5908,16 @@
         <v>66</v>
       </c>
       <c r="C3" s="21">
-        <v>5282000000</v>
+        <v>6331000000</v>
       </c>
       <c r="D3" s="21">
-        <v>5159000000</v>
+        <v>4946000000</v>
       </c>
       <c r="E3" s="21">
-        <v>2605000000</v>
+        <v>6580000000</v>
       </c>
       <c r="F3" s="22">
-        <v>1826000000</v>
+        <v>4061000000</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -5922,17 +5941,17 @@
       <c r="B4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="24">
-        <v>5260000000</v>
-      </c>
-      <c r="D4" s="24">
-        <v>4845000000</v>
-      </c>
-      <c r="E4" s="24">
-        <v>3607000000</v>
-      </c>
-      <c r="F4" s="25">
-        <v>2856000000</v>
+      <c r="C4" s="21">
+        <v>54376000000</v>
+      </c>
+      <c r="D4" s="21">
+        <v>52534000000</v>
+      </c>
+      <c r="E4" s="21">
+        <v>49527000000</v>
+      </c>
+      <c r="F4" s="22">
+        <v>45336000000</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -5956,17 +5975,17 @@
       <c r="B5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="26">
-        <v>4430000000</v>
-      </c>
-      <c r="D5" s="26">
-        <v>4372000000</v>
-      </c>
-      <c r="E5" s="26">
-        <v>4349000000</v>
-      </c>
-      <c r="F5" s="27">
-        <v>4193000000</v>
+      <c r="C5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -5991,16 +6010,16 @@
         <v>69</v>
       </c>
       <c r="C6" s="21">
-        <v>65728000000</v>
-      </c>
-      <c r="D6" s="26">
-        <v>41182000000</v>
+        <v>352583000000</v>
+      </c>
+      <c r="D6" s="21">
+        <v>352755000000</v>
       </c>
       <c r="E6" s="21">
-        <v>44187000000</v>
+        <v>351002000000</v>
       </c>
       <c r="F6" s="22">
-        <v>28791000000</v>
+        <v>323888000000</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -6025,16 +6044,16 @@
         <v>70</v>
       </c>
       <c r="C7" s="21">
-        <v>10631000000</v>
+        <v>145308000000</v>
       </c>
       <c r="D7" s="21">
-        <v>6563000000</v>
+        <v>153982000000</v>
       </c>
       <c r="E7" s="21">
-        <v>4335000000</v>
+        <v>125481000000</v>
       </c>
       <c r="F7" s="22">
-        <v>3925000000</v>
+        <v>105392000000</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -6059,16 +6078,16 @@
         <v>71</v>
       </c>
       <c r="C8" s="21">
-        <v>12119000000</v>
+        <v>145129000000</v>
       </c>
       <c r="D8" s="21">
-        <v>12518000000</v>
+        <v>148101000000</v>
       </c>
       <c r="E8" s="21">
-        <v>13240000000</v>
-      </c>
-      <c r="F8" s="27">
-        <v>7973000000</v>
+        <v>162431000000</v>
+      </c>
+      <c r="F8" s="22">
+        <v>153157000000</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -6093,16 +6112,16 @@
         <v>72</v>
       </c>
       <c r="C9" s="21">
-        <v>22750000000</v>
+        <v>290437000000</v>
       </c>
       <c r="D9" s="21">
-        <v>19081000000</v>
-      </c>
-      <c r="E9" s="26">
-        <v>17575000000</v>
+        <v>302083000000</v>
+      </c>
+      <c r="E9" s="21">
+        <v>287912000000</v>
       </c>
       <c r="F9" s="22">
-        <v>11898000000</v>
+        <v>258549000000</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -6126,17 +6145,17 @@
       <c r="B10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="27">
-        <v>10756000000</v>
+      <c r="F10" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -6160,16 +6179,16 @@
       <c r="B11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="22" t="s">
         <v>108</v>
       </c>
       <c r="G11" s="15"/>
@@ -6195,16 +6214,16 @@
         <v>75</v>
       </c>
       <c r="C12" s="21">
-        <v>29817000000</v>
+        <v>-214000000</v>
       </c>
       <c r="D12" s="21">
-        <v>10171000000</v>
+        <v>-3068000000</v>
       </c>
       <c r="E12" s="21">
-        <v>16235000000</v>
+        <v>5562000000</v>
       </c>
       <c r="F12" s="22">
-        <v>18908000000</v>
+        <v>14966000000</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -6229,16 +6248,16 @@
         <v>76</v>
       </c>
       <c r="C13" s="21">
-        <v>42978000000</v>
+        <v>62146000000</v>
       </c>
       <c r="D13" s="21">
-        <v>22101000000</v>
+        <v>50672000000</v>
       </c>
       <c r="E13" s="21">
-        <v>26612000000</v>
+        <v>63090000000</v>
       </c>
       <c r="F13" s="22">
-        <v>16893000000</v>
+        <v>65339000000</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -6259,13 +6278,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -6288,17 +6307,17 @@
       <c r="B15" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="26">
-        <v>8675000000</v>
-      </c>
-      <c r="D15" s="26">
-        <v>7339000000</v>
-      </c>
-      <c r="E15" s="26">
-        <v>5268000000</v>
-      </c>
-      <c r="F15" s="27">
-        <v>3924000000</v>
+      <c r="C15" s="21">
+        <v>29915000000</v>
+      </c>
+      <c r="D15" s="21">
+        <v>26251000000</v>
+      </c>
+      <c r="E15" s="21">
+        <v>21914000000</v>
+      </c>
+      <c r="F15" s="22">
+        <v>18752000000</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -6319,13 +6338,13 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -6345,20 +6364,20 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="32">
-        <v>28090000000</v>
-      </c>
-      <c r="D17" s="32">
-        <v>5641000000</v>
-      </c>
-      <c r="E17" s="32">
-        <v>9108000000</v>
-      </c>
-      <c r="F17" s="33">
-        <v>5822000000</v>
+      <c r="C17" s="28">
+        <v>110543000000</v>
+      </c>
+      <c r="D17" s="28">
+        <v>122151000000</v>
+      </c>
+      <c r="E17" s="28">
+        <v>104038000000</v>
+      </c>
+      <c r="F17" s="29">
+        <v>80674000000</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -6377,24 +6396,25 @@
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
     </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="32" t="s">
         <v>85</v>
       </c>
       <c r="H19" s="15"/>
@@ -6415,15 +6435,15 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
         <v>86</v>
       </c>
       <c r="I20" s="15"/>
@@ -6443,30 +6463,30 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="42" t="str">
+      <c r="C21" s="38" t="str">
         <f>IF(C3&gt;D3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D21" s="42" t="str">
+      <c r="D21" s="38" t="str">
         <f>IF(D3&gt;E3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E21" s="42" t="str">
+      <c r="E21" s="38" t="str">
         <f>IF(E3&gt;F3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44">
+      <c r="F21" s="39"/>
+      <c r="G21" s="40">
         <f>(((COUNTIF(C21:E21, "Pass") * 100) + (COUNTIF(C21:E21, "Fail") * 0)) * (400/300)) / 2</f>
         <v>0</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -6483,27 +6503,27 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="42" t="str">
+      <c r="C22" s="38" t="str">
         <f>IF(C17&gt;D17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D22" s="42" t="str">
+      <c r="D22" s="38" t="str">
         <f>IF(D17&gt;E17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E22" s="42" t="str">
+      <c r="E22" s="38" t="str">
         <f>IF(E17&gt;F17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="44">
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
         <f>(((COUNTIF(C22:F22, "Pass") * 100) + (COUNTIF(C22:F22, "Fail") * 0)) * (400/300)) / 2</f>
         <v>0</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="41" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="15"/>
@@ -6523,30 +6543,30 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="42" t="str">
+      <c r="C23" s="38" t="str">
         <f>IF(C17&gt;C7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D23" s="42" t="str">
+      <c r="D23" s="38" t="str">
         <f>IF(D17&gt;D7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E23" s="42" t="str">
+      <c r="E23" s="38" t="str">
         <f>IF(E17&gt;E7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F23" s="47" t="str">
+      <c r="F23" s="43" t="str">
         <f>IF(F17&gt;F7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="40">
         <f>(COUNTIF(C23:F23, "Pass") * 100) + (COUNTIF(C23:F23, "Fail") * 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="41" t="s">
         <v>91</v>
       </c>
       <c r="I23" s="15"/>
@@ -6566,33 +6586,33 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="48" t="e">
+      <c r="C24" s="44" t="e">
         <f>C17/(C4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="48" t="e">
+      <c r="D24" s="44" t="e">
         <f>D17/(D4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="48" t="e">
+      <c r="E24" s="44" t="e">
         <f>E17/(E4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="49" t="e">
+      <c r="F24" s="45" t="e">
         <f>F17/(F4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="44" t="e">
+      <c r="G24" s="40" t="e">
         <f> (IF(C24 &gt; 0.5, 100, IF(C24 &gt;= 0.2, 50, 0))) +
   (IF(D24 &gt; 0.5, 100, IF(D24 &gt;= 0.2, 50, 0))) +
   (IF(E24 &gt; 0.5, 100, IF(E24 &gt;= 0.2, 50, 0))) +
   (IF(F24 &gt; 0.5, 100, IF(F24 &gt;= 0.2, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="41" t="s">
         <v>92</v>
       </c>
       <c r="I24" s="15"/>
@@ -6612,33 +6632,33 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="48" t="e">
+      <c r="C25" s="44" t="e">
         <f>C17/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="48" t="e">
+      <c r="D25" s="44" t="e">
         <f>D17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="48" t="e">
+      <c r="E25" s="44" t="e">
         <f>E17/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="49" t="e">
+      <c r="F25" s="45" t="e">
         <f>F17/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="44" t="e">
+      <c r="G25" s="40" t="e">
         <f> (IF(C25 &gt; 0.17, 100, IF(C25 &gt;= 0.1, 50, 0))) +
   (IF(D25 &gt; 0.17, 100, IF(D25 &gt;= 0.1, 50, 0))) +
   (IF(E25 &gt; 0.17, 100, IF(E25 &gt;= 0.1, 50, 0))) +
   (IF(F25 &gt; 0.17, 100, IF(F25 &gt;= 0.1, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="41" t="s">
         <v>93</v>
       </c>
       <c r="I25" s="15"/>
@@ -6658,33 +6678,33 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="48" t="e">
+      <c r="C26" s="44" t="e">
         <f>C8/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="48" t="e">
+      <c r="D26" s="44" t="e">
         <f>D8/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="48" t="e">
+      <c r="E26" s="44" t="e">
         <f>E8/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="49" t="e">
+      <c r="F26" s="45" t="e">
         <f>F8/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="44" t="e">
+      <c r="G26" s="40" t="e">
         <f> (IF(C26 &lt; 0.5, 100, 0)) +
   (IF(D26 &lt; 0.5, 100, 0)) +
   (IF(E26 &lt; 0.5, 100, 0)) +
   (IF(F26 &lt; 0.5, 100, 0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="41" t="s">
         <v>94</v>
       </c>
       <c r="I26" s="15"/>
@@ -6704,33 +6724,33 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="48" t="e">
+      <c r="C27" s="44" t="e">
         <f>C9/(C13+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="48" t="e">
+      <c r="D27" s="44" t="e">
         <f>D9/(D13+D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="48" t="e">
+      <c r="E27" s="44" t="e">
         <f>E9/(E13+E10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="49" t="e">
+      <c r="F27" s="45" t="e">
         <f>F9/(F13+F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="44" t="e">
+      <c r="G27" s="40" t="e">
         <f> (IF(C27 &lt; 0.8, 100, IF(C27 &lt; 1, 50, 0))) +
   (IF(D27 &lt; 0.8, 100, IF(D27 &lt; 1, 50, 0))) +
   (IF(E27 &lt; 0.8, 100, IF(E27 &lt; 1, 50, 0))) +
   (IF(F27 &lt; 0.8, 100, IF(F27 &lt; 1, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="41" t="s">
         <v>96</v>
       </c>
       <c r="I27" s="15"/>
@@ -6750,30 +6770,30 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="42" t="str">
+      <c r="C28" s="38" t="str">
         <f>IF(C11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="D28" s="50" t="str">
+      <c r="D28" s="46" t="str">
         <f>IF(D11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="E28" s="50" t="str">
+      <c r="E28" s="46" t="str">
         <f>IF(E11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="F28" s="51" t="str">
+      <c r="F28" s="47" t="str">
         <f>IF(F11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="40">
         <f>(COUNTIF(C28:F28, "Pass") * 100) + (COUNTIF(C28:F28, "Fail") * 0)</f>
         <v>400</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="41" t="s">
         <v>98</v>
       </c>
       <c r="I28" s="15"/>
@@ -6793,21 +6813,21 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="49" t="e">
+      <c r="C29" s="45" t="e">
         <f>(((C12-D12)/D12)+((D12-E12)/E12)+((E12-F12)/F12))/3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="44" t="e">
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="40" t="e">
         <f>(IF(C29 &gt;= 0.17, 100, IF(C29 &gt;= 0, 50, 0))) * (400/100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="41" t="s">
         <v>99</v>
       </c>
       <c r="I29" s="15"/>
@@ -6827,30 +6847,30 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="42" t="str">
+      <c r="C30" s="38" t="str">
         <f>IF(C10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D30" s="55" t="str">
+      <c r="D30" s="51" t="str">
         <f>IF(D10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E30" s="55" t="str">
+      <c r="E30" s="51" t="str">
         <f>IF(E10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F30" s="56" t="str">
+      <c r="F30" s="52" t="str">
         <f>IF(F10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="40">
         <f>(COUNTIF(C30:F30, "Pass") * 100) + (COUNTIF(C30:F30, "Fail") * 0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="41" t="s">
         <v>100</v>
       </c>
       <c r="I30" s="15"/>
@@ -6870,33 +6890,33 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="48" t="e">
+      <c r="C31" s="44" t="e">
         <f>C17/(C13+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="48" t="e">
+      <c r="D31" s="44" t="e">
         <f>D17/(D13+D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="48" t="e">
+      <c r="E31" s="44" t="e">
         <f>E17/(E13+E10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="49" t="e">
+      <c r="F31" s="45" t="e">
         <f>F17/(F13+F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="44" t="e">
+      <c r="G31" s="40" t="e">
         <f> (IF(C31 &gt; 0.23, 100, 0)) +
   (IF(D31 &gt; 0.23, 100, 0)) +
   (IF(E31 &gt; 0.23, 100, 0)) +
   (IF(F31 &gt; 0.23, 100, 0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="41" t="s">
         <v>102</v>
       </c>
       <c r="I31" s="15"/>
@@ -6916,21 +6936,21 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="58" t="str">
+      <c r="C32" s="54" t="str">
         <f>IF(C5&gt;F5, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61">
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57">
         <f>((COUNTIF(C32, "Pass") * 100) + (COUNTIF(C32, "Fail") * 0)) * (400/100)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="58" t="s">
         <v>103</v>
       </c>
       <c r="I32" s="15"/>
@@ -6962,7 +6982,7 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.83203125"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125"/>
   <cols>
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
@@ -7513,9 +7533,18 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A2:V32"/>
+  <dimension ref="A1:V32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="174" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="22" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
@@ -7560,17 +7589,17 @@
       <c r="B3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="21">
-        <v>13626000000</v>
+      <c r="C3" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="D3" s="21">
-        <v>12839000000</v>
+        <v>2670000000</v>
       </c>
       <c r="E3" s="21">
-        <v>5757000000</v>
+        <v>1170000000</v>
       </c>
       <c r="F3" s="22">
-        <v>4101000000</v>
+        <v>728000000</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -7594,17 +7623,17 @@
       <c r="B4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="24">
-        <v>45123000000</v>
-      </c>
-      <c r="D4" s="24">
-        <v>36635000000</v>
-      </c>
-      <c r="E4" s="24">
-        <v>31172000000</v>
-      </c>
-      <c r="F4" s="25">
-        <v>23378000000</v>
+      <c r="C4" s="21">
+        <v>148436000000</v>
+      </c>
+      <c r="D4" s="21">
+        <v>127049000000</v>
+      </c>
+      <c r="E4" s="21">
+        <v>110558000000</v>
+      </c>
+      <c r="F4" s="22">
+        <v>96960000000</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -7628,17 +7657,17 @@
       <c r="B5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="26">
-        <v>253000000</v>
-      </c>
-      <c r="D5" s="26">
-        <v>194000000</v>
-      </c>
-      <c r="E5" s="26">
-        <v>200000000</v>
-      </c>
-      <c r="F5" s="27">
-        <v>207000000</v>
+      <c r="C5" s="21">
+        <v>29198000000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>28960000000</v>
+      </c>
+      <c r="E5" s="21">
+        <v>22956000000</v>
+      </c>
+      <c r="F5" s="22">
+        <v>21175000000</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -7663,16 +7692,16 @@
         <v>69</v>
       </c>
       <c r="C6" s="21">
-        <v>106618000000</v>
-      </c>
-      <c r="D6" s="26">
-        <v>82338000000</v>
+        <v>402392000000</v>
+      </c>
+      <c r="D6" s="21">
+        <v>365264000000</v>
       </c>
       <c r="E6" s="21">
-        <v>62131000000</v>
+        <v>359268000000</v>
       </c>
       <c r="F6" s="22">
-        <v>52148000000</v>
+        <v>319616000000</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -7697,16 +7726,16 @@
         <v>70</v>
       </c>
       <c r="C7" s="21">
-        <v>28748000000</v>
+        <v>81814000000</v>
       </c>
       <c r="D7" s="21">
-        <v>26709000000</v>
+        <v>69300000000</v>
       </c>
       <c r="E7" s="21">
-        <v>19705000000</v>
+        <v>64254000000</v>
       </c>
       <c r="F7" s="22">
-        <v>14248000000</v>
+        <v>56834000000</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -7731,16 +7760,16 @@
         <v>71</v>
       </c>
       <c r="C8" s="21">
-        <v>14261000000</v>
+        <v>37199000000</v>
       </c>
       <c r="D8" s="21">
-        <v>9731000000</v>
+        <v>39820000000</v>
       </c>
       <c r="E8" s="21">
-        <v>10843000000</v>
-      </c>
-      <c r="F8" s="27">
-        <v>14221000000</v>
+        <v>43379000000</v>
+      </c>
+      <c r="F8" s="22">
+        <v>40238000000</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -7765,16 +7794,16 @@
         <v>72</v>
       </c>
       <c r="C9" s="21">
-        <v>43009000000</v>
+        <v>119013000000</v>
       </c>
       <c r="D9" s="21">
-        <v>36440000000</v>
-      </c>
-      <c r="E9" s="26">
-        <v>30548000000</v>
+        <v>109120000000</v>
+      </c>
+      <c r="E9" s="21">
+        <v>107633000000</v>
       </c>
       <c r="F9" s="22">
-        <v>28469000000</v>
+        <v>97072000000</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -7798,16 +7827,16 @@
       <c r="B10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="22" t="s">
         <v>108</v>
       </c>
       <c r="G10" s="15"/>
@@ -7832,16 +7861,16 @@
       <c r="B11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="22" t="s">
         <v>108</v>
       </c>
       <c r="G11" s="15"/>
@@ -7867,16 +7896,16 @@
         <v>75</v>
       </c>
       <c r="C12" s="21">
-        <v>27882000000</v>
+        <v>211247000000</v>
       </c>
       <c r="D12" s="21">
-        <v>12885000000</v>
+        <v>195563000000</v>
       </c>
       <c r="E12" s="21">
-        <v>329000000</v>
+        <v>191484000000</v>
       </c>
       <c r="F12" s="22">
-        <v>-5399000000</v>
+        <v>163401000000</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -7901,16 +7930,16 @@
         <v>76</v>
       </c>
       <c r="C13" s="21">
-        <v>63609000000</v>
+        <v>283379000000</v>
       </c>
       <c r="D13" s="21">
-        <v>45898000000</v>
+        <v>256144000000</v>
       </c>
       <c r="E13" s="21">
-        <v>31583000000</v>
+        <v>251635000000</v>
       </c>
       <c r="F13" s="22">
-        <v>23679000000</v>
+        <v>222544000000</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -7931,13 +7960,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -7960,17 +7989,17 @@
       <c r="B15" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="26">
-        <v>3969000000</v>
-      </c>
-      <c r="D15" s="26">
-        <v>3075000000</v>
-      </c>
-      <c r="E15" s="26">
-        <v>2593000000</v>
-      </c>
-      <c r="F15" s="27">
-        <v>1491000000</v>
+      <c r="C15" s="21">
+        <v>45427000000</v>
+      </c>
+      <c r="D15" s="21">
+        <v>39500000000</v>
+      </c>
+      <c r="E15" s="21">
+        <v>31562000000</v>
+      </c>
+      <c r="F15" s="22">
+        <v>27573000000</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -7991,13 +8020,13 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -8017,20 +8046,20 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="32">
-        <v>13256000000</v>
-      </c>
-      <c r="D17" s="32">
-        <v>14724000000</v>
-      </c>
-      <c r="E17" s="32">
-        <v>11497000000</v>
-      </c>
-      <c r="F17" s="33">
-        <v>5943000000</v>
+      <c r="C17" s="28">
+        <v>101746000000</v>
+      </c>
+      <c r="D17" s="28">
+        <v>91495000000</v>
+      </c>
+      <c r="E17" s="28">
+        <v>91652000000</v>
+      </c>
+      <c r="F17" s="29">
+        <v>65124000000</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -8049,24 +8078,25 @@
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
     </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="32" t="s">
         <v>85</v>
       </c>
       <c r="H19" s="15"/>
@@ -8087,15 +8117,15 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
         <v>86</v>
       </c>
       <c r="I20" s="15"/>
@@ -8115,30 +8145,30 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="42" t="str">
+      <c r="C21" s="38" t="str">
         <f>IF(C3&gt;D3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D21" s="42" t="str">
+      <c r="D21" s="38" t="str">
         <f>IF(D3&gt;E3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E21" s="42" t="str">
+      <c r="E21" s="38" t="str">
         <f>IF(E3&gt;F3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44">
+      <c r="F21" s="39"/>
+      <c r="G21" s="40">
         <f>(((COUNTIF(C21:E21, "Pass") * 100) + (COUNTIF(C21:E21, "Fail") * 0)) * (400/300)) / 2</f>
         <v>0</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -8155,27 +8185,27 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="42" t="str">
+      <c r="C22" s="38" t="str">
         <f>IF(C17&gt;D17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D22" s="42" t="str">
+      <c r="D22" s="38" t="str">
         <f>IF(D17&gt;E17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E22" s="42" t="str">
+      <c r="E22" s="38" t="str">
         <f>IF(E17&gt;F17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="44">
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
         <f>(((COUNTIF(C22:F22, "Pass") * 100) + (COUNTIF(C22:F22, "Fail") * 0)) * (400/300)) / 2</f>
         <v>0</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="41" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="15"/>
@@ -8195,30 +8225,30 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="42" t="str">
+      <c r="C23" s="38" t="str">
         <f>IF(C17&gt;C7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D23" s="42" t="str">
+      <c r="D23" s="38" t="str">
         <f>IF(D17&gt;D7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E23" s="42" t="str">
+      <c r="E23" s="38" t="str">
         <f>IF(E17&gt;E7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F23" s="47" t="str">
+      <c r="F23" s="43" t="str">
         <f>IF(F17&gt;F7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="40">
         <f>(COUNTIF(C23:F23, "Pass") * 100) + (COUNTIF(C23:F23, "Fail") * 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="41" t="s">
         <v>91</v>
       </c>
       <c r="I23" s="15"/>
@@ -8238,33 +8268,33 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="48" t="e">
+      <c r="C24" s="44" t="e">
         <f>C17/(C4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="48" t="e">
+      <c r="D24" s="44" t="e">
         <f>D17/(D4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="48" t="e">
+      <c r="E24" s="44" t="e">
         <f>E17/(E4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="49" t="e">
+      <c r="F24" s="45" t="e">
         <f>F17/(F4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="44" t="e">
+      <c r="G24" s="40" t="e">
         <f> (IF(C24 &gt; 0.5, 100, IF(C24 &gt;= 0.2, 50, 0))) +
   (IF(D24 &gt; 0.5, 100, IF(D24 &gt;= 0.2, 50, 0))) +
   (IF(E24 &gt; 0.5, 100, IF(E24 &gt;= 0.2, 50, 0))) +
   (IF(F24 &gt; 0.5, 100, IF(F24 &gt;= 0.2, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="41" t="s">
         <v>92</v>
       </c>
       <c r="I24" s="15"/>
@@ -8284,33 +8314,33 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="48" t="e">
+      <c r="C25" s="44" t="e">
         <f>C17/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="48" t="e">
+      <c r="D25" s="44" t="e">
         <f>D17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="48" t="e">
+      <c r="E25" s="44" t="e">
         <f>E17/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="49" t="e">
+      <c r="F25" s="45" t="e">
         <f>F17/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="44" t="e">
+      <c r="G25" s="40" t="e">
         <f> (IF(C25 &gt; 0.17, 100, IF(C25 &gt;= 0.1, 50, 0))) +
   (IF(D25 &gt; 0.17, 100, IF(D25 &gt;= 0.1, 50, 0))) +
   (IF(E25 &gt; 0.17, 100, IF(E25 &gt;= 0.1, 50, 0))) +
   (IF(F25 &gt; 0.17, 100, IF(F25 &gt;= 0.1, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="41" t="s">
         <v>93</v>
       </c>
       <c r="I25" s="15"/>
@@ -8330,33 +8360,33 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="48" t="e">
+      <c r="C26" s="44" t="e">
         <f>C8/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="48" t="e">
+      <c r="D26" s="44" t="e">
         <f>D8/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="48" t="e">
+      <c r="E26" s="44" t="e">
         <f>E8/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="49" t="e">
+      <c r="F26" s="45" t="e">
         <f>F8/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="44" t="e">
+      <c r="G26" s="40" t="e">
         <f> (IF(C26 &lt; 0.5, 100, 0)) +
   (IF(D26 &lt; 0.5, 100, 0)) +
   (IF(E26 &lt; 0.5, 100, 0)) +
   (IF(F26 &lt; 0.5, 100, 0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="41" t="s">
         <v>94</v>
       </c>
       <c r="I26" s="15"/>
@@ -8376,33 +8406,33 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="48" t="e">
+      <c r="C27" s="44" t="e">
         <f>C9/(C13+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="48" t="e">
+      <c r="D27" s="44" t="e">
         <f>D9/(D13+D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="48" t="e">
+      <c r="E27" s="44" t="e">
         <f>E9/(E13+E10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="49" t="e">
+      <c r="F27" s="45" t="e">
         <f>F9/(F13+F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="44" t="e">
+      <c r="G27" s="40" t="e">
         <f> (IF(C27 &lt; 0.8, 100, IF(C27 &lt; 1, 50, 0))) +
   (IF(D27 &lt; 0.8, 100, IF(D27 &lt; 1, 50, 0))) +
   (IF(E27 &lt; 0.8, 100, IF(E27 &lt; 1, 50, 0))) +
   (IF(F27 &lt; 0.8, 100, IF(F27 &lt; 1, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="41" t="s">
         <v>96</v>
       </c>
       <c r="I27" s="15"/>
@@ -8422,30 +8452,30 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="42" t="str">
+      <c r="C28" s="38" t="str">
         <f>IF(C11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="D28" s="50" t="str">
+      <c r="D28" s="46" t="str">
         <f>IF(D11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="E28" s="50" t="str">
+      <c r="E28" s="46" t="str">
         <f>IF(E11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="F28" s="51" t="str">
+      <c r="F28" s="47" t="str">
         <f>IF(F11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="40">
         <f>(COUNTIF(C28:F28, "Pass") * 100) + (COUNTIF(C28:F28, "Fail") * 0)</f>
         <v>400</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="41" t="s">
         <v>98</v>
       </c>
       <c r="I28" s="15"/>
@@ -8465,21 +8495,21 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="49" t="e">
+      <c r="C29" s="45" t="e">
         <f>(((C12-D12)/D12)+((D12-E12)/E12)+((E12-F12)/F12))/3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="44" t="e">
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="40" t="e">
         <f>(IF(C29 &gt;= 0.17, 100, IF(C29 &gt;= 0, 50, 0))) * (400/100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="41" t="s">
         <v>99</v>
       </c>
       <c r="I29" s="15"/>
@@ -8499,30 +8529,30 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="42" t="str">
+      <c r="C30" s="38" t="str">
         <f>IF(C10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D30" s="55" t="str">
+      <c r="D30" s="51" t="str">
         <f>IF(D10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E30" s="55" t="str">
+      <c r="E30" s="51" t="str">
         <f>IF(E10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F30" s="56" t="str">
+      <c r="F30" s="52" t="str">
         <f>IF(F10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="40">
         <f>(COUNTIF(C30:F30, "Pass") * 100) + (COUNTIF(C30:F30, "Fail") * 0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="41" t="s">
         <v>100</v>
       </c>
       <c r="I30" s="15"/>
@@ -8542,33 +8572,33 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="48" t="e">
+      <c r="C31" s="44" t="e">
         <f>C17/(C13+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="48" t="e">
+      <c r="D31" s="44" t="e">
         <f>D17/(D13+D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="48" t="e">
+      <c r="E31" s="44" t="e">
         <f>E17/(E13+E10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="49" t="e">
+      <c r="F31" s="45" t="e">
         <f>F17/(F13+F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="44" t="e">
+      <c r="G31" s="40" t="e">
         <f> (IF(C31 &gt; 0.23, 100, 0)) +
   (IF(D31 &gt; 0.23, 100, 0)) +
   (IF(E31 &gt; 0.23, 100, 0)) +
   (IF(F31 &gt; 0.23, 100, 0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="41" t="s">
         <v>102</v>
       </c>
       <c r="I31" s="15"/>
@@ -8588,21 +8618,21 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="58" t="str">
+      <c r="C32" s="54" t="str">
         <f>IF(C5&gt;F5, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61">
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57">
         <f>((COUNTIF(C32, "Pass") * 100) + (COUNTIF(C32, "Fail") * 0)) * (400/100)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="58" t="s">
         <v>103</v>
       </c>
       <c r="I32" s="15"/>
@@ -8631,9 +8661,18 @@
   <sheetPr>
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
-  <dimension ref="A2:V32"/>
+  <dimension ref="A1:V32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="174" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="22" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
@@ -8712,16 +8751,16 @@
       <c r="B4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="21">
         <v>276690000000</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>252838000000</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>216363000000</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <v>150667000000</v>
       </c>
       <c r="G4" s="15"/>
@@ -8746,16 +8785,16 @@
       <c r="B5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="21">
         <v>22789000000</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="21">
         <v>20288000000</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="21">
         <v>15371000000</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="22">
         <v>15017000000</v>
       </c>
       <c r="G5" s="15"/>
@@ -8783,7 +8822,7 @@
       <c r="C6" s="21">
         <v>527854000000</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="21">
         <v>462675000000</v>
       </c>
       <c r="E6" s="21">
@@ -8857,7 +8896,7 @@
       <c r="E8" s="21">
         <v>140038000000</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="22">
         <v>101406000000</v>
       </c>
       <c r="G8" s="15"/>
@@ -8888,7 +8927,7 @@
       <c r="D9" s="21">
         <v>316632000000</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="21">
         <v>282304000000</v>
       </c>
       <c r="F9" s="22">
@@ -8916,16 +8955,16 @@
       <c r="B10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="21">
         <v>7837000000</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="21">
         <v>7837000000</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="21">
         <v>1837000000</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="22">
         <v>1837000000</v>
       </c>
       <c r="G10" s="15"/>
@@ -8950,16 +8989,16 @@
       <c r="B11" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="22" t="s">
         <v>108</v>
       </c>
       <c r="G11" s="15"/>
@@ -9049,13 +9088,13 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -9078,16 +9117,16 @@
       <c r="B15" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="22">
         <v>42740000000</v>
       </c>
       <c r="G15" s="15"/>
@@ -9109,13 +9148,13 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -9135,19 +9174,19 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="28">
         <v>84946000000</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="28">
         <v>46752000000</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="28">
         <v>46327000000</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="29">
         <v>66064000000</v>
       </c>
       <c r="G17" s="15"/>
@@ -9167,24 +9206,25 @@
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
     </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="32" t="s">
         <v>85</v>
       </c>
       <c r="H19" s="15"/>
@@ -9205,15 +9245,15 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="40" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
         <v>86</v>
       </c>
       <c r="I20" s="15"/>
@@ -9233,30 +9273,30 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="42" t="str">
+      <c r="C21" s="38" t="str">
         <f>IF(C3&gt;D3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D21" s="42" t="str">
+      <c r="D21" s="38" t="str">
         <f>IF(D3&gt;E3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E21" s="42" t="str">
+      <c r="E21" s="38" t="str">
         <f>IF(E3&gt;F3, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44">
+      <c r="F21" s="39"/>
+      <c r="G21" s="40">
         <f>(((COUNTIF(C21:E21, "Pass") * 100) + (COUNTIF(C21:E21, "Fail") * 0)) * (400/300)) / 2</f>
         <v>0</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="46"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -9273,27 +9313,27 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="42" t="str">
+      <c r="C22" s="38" t="str">
         <f>IF(C17&gt;D17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D22" s="42" t="str">
+      <c r="D22" s="38" t="str">
         <f>IF(D17&gt;E17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E22" s="42" t="str">
+      <c r="E22" s="38" t="str">
         <f>IF(E17&gt;F17, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="44">
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
         <f>(((COUNTIF(C22:F22, "Pass") * 100) + (COUNTIF(C22:F22, "Fail") * 0)) * (400/300)) / 2</f>
         <v>0</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="41" t="s">
         <v>90</v>
       </c>
       <c r="I22" s="15"/>
@@ -9313,30 +9353,30 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="42" t="str">
+      <c r="C23" s="38" t="str">
         <f>IF(C17&gt;C7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D23" s="42" t="str">
+      <c r="D23" s="38" t="str">
         <f>IF(D17&gt;D7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E23" s="42" t="str">
+      <c r="E23" s="38" t="str">
         <f>IF(E17&gt;E7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F23" s="47" t="str">
+      <c r="F23" s="43" t="str">
         <f>IF(F17&gt;F7, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="40">
         <f>(COUNTIF(C23:F23, "Pass") * 100) + (COUNTIF(C23:F23, "Fail") * 0)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="41" t="s">
         <v>91</v>
       </c>
       <c r="I23" s="15"/>
@@ -9356,33 +9396,33 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="48" t="e">
+      <c r="C24" s="44" t="e">
         <f>C17/(C4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="48" t="e">
+      <c r="D24" s="44" t="e">
         <f>D17/(D4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="48" t="e">
+      <c r="E24" s="44" t="e">
         <f>E17/(E4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="49" t="e">
+      <c r="F24" s="45" t="e">
         <f>F17/(F4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="44" t="e">
+      <c r="G24" s="40" t="e">
         <f> (IF(C24 &gt; 0.5, 100, IF(C24 &gt;= 0.2, 50, 0))) +
   (IF(D24 &gt; 0.5, 100, IF(D24 &gt;= 0.2, 50, 0))) +
   (IF(E24 &gt; 0.5, 100, IF(E24 &gt;= 0.2, 50, 0))) +
   (IF(F24 &gt; 0.5, 100, IF(F24 &gt;= 0.2, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="41" t="s">
         <v>92</v>
       </c>
       <c r="I24" s="15"/>
@@ -9402,33 +9442,33 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="48" t="e">
+      <c r="C25" s="44" t="e">
         <f>C17/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="48" t="e">
+      <c r="D25" s="44" t="e">
         <f>D17/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="48" t="e">
+      <c r="E25" s="44" t="e">
         <f>E17/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="49" t="e">
+      <c r="F25" s="45" t="e">
         <f>F17/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="44" t="e">
+      <c r="G25" s="40" t="e">
         <f> (IF(C25 &gt; 0.17, 100, IF(C25 &gt;= 0.1, 50, 0))) +
   (IF(D25 &gt; 0.17, 100, IF(D25 &gt;= 0.1, 50, 0))) +
   (IF(E25 &gt; 0.17, 100, IF(E25 &gt;= 0.1, 50, 0))) +
   (IF(F25 &gt; 0.17, 100, IF(F25 &gt;= 0.1, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="41" t="s">
         <v>93</v>
       </c>
       <c r="I25" s="15"/>
@@ -9448,33 +9488,33 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="48" t="e">
+      <c r="C26" s="44" t="e">
         <f>C8/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="48" t="e">
+      <c r="D26" s="44" t="e">
         <f>D8/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="48" t="e">
+      <c r="E26" s="44" t="e">
         <f>E8/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="49" t="e">
+      <c r="F26" s="45" t="e">
         <f>F8/F6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="44" t="e">
+      <c r="G26" s="40" t="e">
         <f> (IF(C26 &lt; 0.5, 100, 0)) +
   (IF(D26 &lt; 0.5, 100, 0)) +
   (IF(E26 &lt; 0.5, 100, 0)) +
   (IF(F26 &lt; 0.5, 100, 0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="41" t="s">
         <v>94</v>
       </c>
       <c r="I26" s="15"/>
@@ -9494,33 +9534,33 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="48" t="e">
+      <c r="C27" s="44" t="e">
         <f>C9/(C13+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="48" t="e">
+      <c r="D27" s="44" t="e">
         <f>D9/(D13+D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="48" t="e">
+      <c r="E27" s="44" t="e">
         <f>E9/(E13+E10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="49" t="e">
+      <c r="F27" s="45" t="e">
         <f>F9/(F13+F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="44" t="e">
+      <c r="G27" s="40" t="e">
         <f> (IF(C27 &lt; 0.8, 100, IF(C27 &lt; 1, 50, 0))) +
   (IF(D27 &lt; 0.8, 100, IF(D27 &lt; 1, 50, 0))) +
   (IF(E27 &lt; 0.8, 100, IF(E27 &lt; 1, 50, 0))) +
   (IF(F27 &lt; 0.8, 100, IF(F27 &lt; 1, 50, 0)))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="41" t="s">
         <v>96</v>
       </c>
       <c r="I27" s="15"/>
@@ -9540,30 +9580,30 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="42" t="str">
+      <c r="C28" s="38" t="str">
         <f>IF(C11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="D28" s="50" t="str">
+      <c r="D28" s="46" t="str">
         <f>IF(D11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="E28" s="50" t="str">
+      <c r="E28" s="46" t="str">
         <f>IF(E11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="F28" s="51" t="str">
+      <c r="F28" s="47" t="str">
         <f>IF(F11=0, "Pass", "Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="40">
         <f>(COUNTIF(C28:F28, "Pass") * 100) + (COUNTIF(C28:F28, "Fail") * 0)</f>
         <v>400</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="41" t="s">
         <v>98</v>
       </c>
       <c r="I28" s="15"/>
@@ -9583,21 +9623,21 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="49" t="e">
+      <c r="C29" s="45" t="e">
         <f>(((C12-D12)/D12)+((D12-E12)/E12)+((E12-F12)/F12))/3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="44" t="e">
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="40" t="e">
         <f>(IF(C29 &gt;= 0.17, 100, IF(C29 &gt;= 0, 50, 0))) * (400/100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="41" t="s">
         <v>99</v>
       </c>
       <c r="I29" s="15"/>
@@ -9617,30 +9657,30 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="42" t="str">
+      <c r="C30" s="38" t="str">
         <f>IF(C10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D30" s="55" t="str">
+      <c r="D30" s="51" t="str">
         <f>IF(D10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="E30" s="55" t="str">
+      <c r="E30" s="51" t="str">
         <f>IF(E10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="F30" s="56" t="str">
+      <c r="F30" s="52" t="str">
         <f>IF(F10&lt;&gt;0,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="40">
         <f>(COUNTIF(C30:F30, "Pass") * 100) + (COUNTIF(C30:F30, "Fail") * 0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="41" t="s">
         <v>100</v>
       </c>
       <c r="I30" s="15"/>
@@ -9660,33 +9700,33 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="48" t="e">
+      <c r="C31" s="44" t="e">
         <f>C17/(C13+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="48" t="e">
+      <c r="D31" s="44" t="e">
         <f>D17/(D13+D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="48" t="e">
+      <c r="E31" s="44" t="e">
         <f>E17/(E13+E10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="49" t="e">
+      <c r="F31" s="45" t="e">
         <f>F17/(F13+F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="44" t="e">
+      <c r="G31" s="40" t="e">
         <f> (IF(C31 &gt; 0.23, 100, 0)) +
   (IF(D31 &gt; 0.23, 100, 0)) +
   (IF(E31 &gt; 0.23, 100, 0)) +
   (IF(F31 &gt; 0.23, 100, 0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="41" t="s">
         <v>102</v>
       </c>
       <c r="I31" s="15"/>
@@ -9706,21 +9746,21 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="58" t="str">
+      <c r="C32" s="54" t="str">
         <f>IF(C5&gt;F5, "Pass", "Fail")</f>
         <v>Fail</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61">
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57">
         <f>((COUNTIF(C32, "Pass") * 100) + (COUNTIF(C32, "Fail") * 0)) * (400/100)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="58" t="s">
         <v>103</v>
       </c>
       <c r="I32" s="15"/>

--- a/output/TICKER_RESULTS.xlsx
+++ b/output/TICKER_RESULTS.xlsx
@@ -9,10 +9,10 @@
   <sheets>
     <sheet sheetId="4" name="scoring theory" state="visible" r:id="rId4"/>
     <sheet sheetId="12" name="&lt;TICKER&gt; Results" state="visible" r:id="rId5"/>
-    <sheet sheetId="1" name="TSLA Results" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="AAPL Results" state="visible" r:id="rId6"/>
     <sheet sheetId="2" name="NVDA Results" state="visible" r:id="rId7"/>
-    <sheet sheetId="3" name="AAPL Results" state="visible" r:id="rId8"/>
-    <sheet sheetId="5" name="GOOGL Results" state="visible" r:id="rId9"/>
+    <sheet sheetId="3" name="GOOGL Results" state="visible" r:id="rId8"/>
+    <sheet sheetId="5" name="TSLA Results" state="visible" r:id="rId9"/>
     <sheet sheetId="6" name="AMZN Results" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -438,6 +438,33 @@
     <t>increase indicates the company is making acquisitions for more than the entity's fair value meaning they paid a premium for strategic value or growth potential</t>
   </si>
   <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2024-01-31</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
     <t>2023-12-31</t>
   </si>
   <si>
@@ -448,42 +475,16 @@
   </si>
   <si>
     <t>2020-12-31</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2024-01-31</t>
-  </si>
-  <si>
-    <t>2023-01-31</t>
-  </si>
-  <si>
-    <t>2022-01-31</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>2023-09-30</t>
-  </si>
-  <si>
-    <t>2022-09-30</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>2020-09-30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1066,20 +1067,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1638,12 +1639,12 @@
   <dimension ref="A1:V32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="174" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="22" width="12" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="177" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="22" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
@@ -1692,16 +1693,16 @@
         <v>66</v>
       </c>
       <c r="C3" s="21">
-        <v>13626000000</v>
+        <v>6331000000</v>
       </c>
       <c r="D3" s="21">
-        <v>12839000000</v>
+        <v>4946000000</v>
       </c>
       <c r="E3" s="21">
-        <v>5757000000</v>
+        <v>6580000000</v>
       </c>
       <c r="F3" s="22">
-        <v>4101000000</v>
+        <v>4061000000</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -1726,16 +1727,16 @@
         <v>67</v>
       </c>
       <c r="C4" s="21">
-        <v>45123000000</v>
+        <v>54376000000</v>
       </c>
       <c r="D4" s="21">
-        <v>36635000000</v>
+        <v>52534000000</v>
       </c>
       <c r="E4" s="21">
-        <v>31172000000</v>
+        <v>49527000000</v>
       </c>
       <c r="F4" s="22">
-        <v>23378000000</v>
+        <v>45336000000</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1759,17 +1760,17 @@
       <c r="B5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="21">
-        <v>253000000</v>
-      </c>
-      <c r="D5" s="21">
-        <v>194000000</v>
-      </c>
-      <c r="E5" s="21">
-        <v>200000000</v>
-      </c>
-      <c r="F5" s="22">
-        <v>207000000</v>
+      <c r="C5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -1794,16 +1795,16 @@
         <v>69</v>
       </c>
       <c r="C6" s="21">
-        <v>106618000000</v>
+        <v>352583000000</v>
       </c>
       <c r="D6" s="21">
-        <v>82338000000</v>
+        <v>352755000000</v>
       </c>
       <c r="E6" s="21">
-        <v>62131000000</v>
+        <v>351002000000</v>
       </c>
       <c r="F6" s="22">
-        <v>52148000000</v>
+        <v>323888000000</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -1828,16 +1829,16 @@
         <v>70</v>
       </c>
       <c r="C7" s="21">
-        <v>28748000000</v>
+        <v>145308000000</v>
       </c>
       <c r="D7" s="21">
-        <v>26709000000</v>
+        <v>153982000000</v>
       </c>
       <c r="E7" s="21">
-        <v>19705000000</v>
+        <v>125481000000</v>
       </c>
       <c r="F7" s="22">
-        <v>14248000000</v>
+        <v>105392000000</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -1862,16 +1863,16 @@
         <v>71</v>
       </c>
       <c r="C8" s="21">
-        <v>14261000000</v>
+        <v>145129000000</v>
       </c>
       <c r="D8" s="21">
-        <v>9731000000</v>
+        <v>148101000000</v>
       </c>
       <c r="E8" s="21">
-        <v>10843000000</v>
+        <v>162431000000</v>
       </c>
       <c r="F8" s="22">
-        <v>14221000000</v>
+        <v>153157000000</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -1896,16 +1897,16 @@
         <v>72</v>
       </c>
       <c r="C9" s="21">
-        <v>43009000000</v>
+        <v>290437000000</v>
       </c>
       <c r="D9" s="21">
-        <v>36440000000</v>
+        <v>302083000000</v>
       </c>
       <c r="E9" s="21">
-        <v>30548000000</v>
+        <v>287912000000</v>
       </c>
       <c r="F9" s="22">
-        <v>28469000000</v>
+        <v>258549000000</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -1998,16 +1999,16 @@
         <v>75</v>
       </c>
       <c r="C12" s="21">
-        <v>27882000000</v>
+        <v>-214000000</v>
       </c>
       <c r="D12" s="21">
-        <v>12885000000</v>
+        <v>-3068000000</v>
       </c>
       <c r="E12" s="21">
-        <v>329000000</v>
+        <v>5562000000</v>
       </c>
       <c r="F12" s="22">
-        <v>-5399000000</v>
+        <v>14966000000</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -2032,16 +2033,16 @@
         <v>76</v>
       </c>
       <c r="C13" s="21">
-        <v>63609000000</v>
+        <v>62146000000</v>
       </c>
       <c r="D13" s="21">
-        <v>45898000000</v>
+        <v>50672000000</v>
       </c>
       <c r="E13" s="21">
-        <v>31583000000</v>
+        <v>63090000000</v>
       </c>
       <c r="F13" s="22">
-        <v>23679000000</v>
+        <v>65339000000</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -2092,16 +2093,16 @@
         <v>78</v>
       </c>
       <c r="C15" s="21">
-        <v>3969000000</v>
+        <v>29915000000</v>
       </c>
       <c r="D15" s="21">
-        <v>3075000000</v>
+        <v>26251000000</v>
       </c>
       <c r="E15" s="21">
-        <v>2593000000</v>
+        <v>21914000000</v>
       </c>
       <c r="F15" s="22">
-        <v>1491000000</v>
+        <v>18752000000</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2152,16 +2153,16 @@
         <v>80</v>
       </c>
       <c r="C17" s="28">
-        <v>13256000000</v>
+        <v>110543000000</v>
       </c>
       <c r="D17" s="28">
-        <v>14724000000</v>
+        <v>122151000000</v>
       </c>
       <c r="E17" s="28">
-        <v>11497000000</v>
+        <v>104038000000</v>
       </c>
       <c r="F17" s="29">
-        <v>5943000000</v>
+        <v>80674000000</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -4726,12 +4727,12 @@
   <dimension ref="A1:V32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="174" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="22" width="12" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="177" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="22" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
@@ -5854,12 +5855,12 @@
   <dimension ref="A1:V32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="174" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="22" width="12" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="177" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="22" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
@@ -5907,17 +5908,17 @@
       <c r="B3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="21">
-        <v>6331000000</v>
+      <c r="C3" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="D3" s="21">
-        <v>4946000000</v>
+        <v>2670000000</v>
       </c>
       <c r="E3" s="21">
-        <v>6580000000</v>
+        <v>1170000000</v>
       </c>
       <c r="F3" s="22">
-        <v>4061000000</v>
+        <v>728000000</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -5942,16 +5943,16 @@
         <v>67</v>
       </c>
       <c r="C4" s="21">
-        <v>54376000000</v>
+        <v>148436000000</v>
       </c>
       <c r="D4" s="21">
-        <v>52534000000</v>
+        <v>127049000000</v>
       </c>
       <c r="E4" s="21">
-        <v>49527000000</v>
+        <v>110558000000</v>
       </c>
       <c r="F4" s="22">
-        <v>45336000000</v>
+        <v>96960000000</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -5975,17 +5976,17 @@
       <c r="B5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>108</v>
+      <c r="C5" s="21">
+        <v>29198000000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>28960000000</v>
+      </c>
+      <c r="E5" s="21">
+        <v>22956000000</v>
+      </c>
+      <c r="F5" s="22">
+        <v>21175000000</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -6010,16 +6011,16 @@
         <v>69</v>
       </c>
       <c r="C6" s="21">
-        <v>352583000000</v>
+        <v>402392000000</v>
       </c>
       <c r="D6" s="21">
-        <v>352755000000</v>
+        <v>365264000000</v>
       </c>
       <c r="E6" s="21">
-        <v>351002000000</v>
+        <v>359268000000</v>
       </c>
       <c r="F6" s="22">
-        <v>323888000000</v>
+        <v>319616000000</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -6044,16 +6045,16 @@
         <v>70</v>
       </c>
       <c r="C7" s="21">
-        <v>145308000000</v>
+        <v>81814000000</v>
       </c>
       <c r="D7" s="21">
-        <v>153982000000</v>
+        <v>69300000000</v>
       </c>
       <c r="E7" s="21">
-        <v>125481000000</v>
+        <v>64254000000</v>
       </c>
       <c r="F7" s="22">
-        <v>105392000000</v>
+        <v>56834000000</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -6078,16 +6079,16 @@
         <v>71</v>
       </c>
       <c r="C8" s="21">
-        <v>145129000000</v>
+        <v>37199000000</v>
       </c>
       <c r="D8" s="21">
-        <v>148101000000</v>
+        <v>39820000000</v>
       </c>
       <c r="E8" s="21">
-        <v>162431000000</v>
+        <v>43379000000</v>
       </c>
       <c r="F8" s="22">
-        <v>153157000000</v>
+        <v>40238000000</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -6112,16 +6113,16 @@
         <v>72</v>
       </c>
       <c r="C9" s="21">
-        <v>290437000000</v>
+        <v>119013000000</v>
       </c>
       <c r="D9" s="21">
-        <v>302083000000</v>
+        <v>109120000000</v>
       </c>
       <c r="E9" s="21">
-        <v>287912000000</v>
+        <v>107633000000</v>
       </c>
       <c r="F9" s="22">
-        <v>258549000000</v>
+        <v>97072000000</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -6214,16 +6215,16 @@
         <v>75</v>
       </c>
       <c r="C12" s="21">
-        <v>-214000000</v>
+        <v>211247000000</v>
       </c>
       <c r="D12" s="21">
-        <v>-3068000000</v>
+        <v>195563000000</v>
       </c>
       <c r="E12" s="21">
-        <v>5562000000</v>
+        <v>191484000000</v>
       </c>
       <c r="F12" s="22">
-        <v>14966000000</v>
+        <v>163401000000</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -6248,16 +6249,16 @@
         <v>76</v>
       </c>
       <c r="C13" s="21">
-        <v>62146000000</v>
+        <v>283379000000</v>
       </c>
       <c r="D13" s="21">
-        <v>50672000000</v>
+        <v>256144000000</v>
       </c>
       <c r="E13" s="21">
-        <v>63090000000</v>
+        <v>251635000000</v>
       </c>
       <c r="F13" s="22">
-        <v>65339000000</v>
+        <v>222544000000</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -6308,16 +6309,16 @@
         <v>78</v>
       </c>
       <c r="C15" s="21">
-        <v>29915000000</v>
+        <v>45427000000</v>
       </c>
       <c r="D15" s="21">
-        <v>26251000000</v>
+        <v>39500000000</v>
       </c>
       <c r="E15" s="21">
-        <v>21914000000</v>
+        <v>31562000000</v>
       </c>
       <c r="F15" s="22">
-        <v>18752000000</v>
+        <v>27573000000</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -6368,16 +6369,16 @@
         <v>80</v>
       </c>
       <c r="C17" s="28">
-        <v>110543000000</v>
+        <v>101746000000</v>
       </c>
       <c r="D17" s="28">
-        <v>122151000000</v>
+        <v>91495000000</v>
       </c>
       <c r="E17" s="28">
-        <v>104038000000</v>
+        <v>91652000000</v>
       </c>
       <c r="F17" s="29">
-        <v>80674000000</v>
+        <v>65124000000</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -7536,12 +7537,12 @@
   <dimension ref="A1:V32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="174" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="22" width="12" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="177" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="22" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
@@ -7551,16 +7552,16 @@
         <v>60</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="18" t="s">
@@ -7589,17 +7590,17 @@
       <c r="B3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>108</v>
+      <c r="C3" s="21">
+        <v>13626000000</v>
       </c>
       <c r="D3" s="21">
-        <v>2670000000</v>
+        <v>12839000000</v>
       </c>
       <c r="E3" s="21">
-        <v>1170000000</v>
+        <v>5757000000</v>
       </c>
       <c r="F3" s="22">
-        <v>728000000</v>
+        <v>4101000000</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -7624,16 +7625,16 @@
         <v>67</v>
       </c>
       <c r="C4" s="21">
-        <v>148436000000</v>
+        <v>45123000000</v>
       </c>
       <c r="D4" s="21">
-        <v>127049000000</v>
+        <v>36635000000</v>
       </c>
       <c r="E4" s="21">
-        <v>110558000000</v>
+        <v>31172000000</v>
       </c>
       <c r="F4" s="22">
-        <v>96960000000</v>
+        <v>23378000000</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -7658,16 +7659,16 @@
         <v>68</v>
       </c>
       <c r="C5" s="21">
-        <v>29198000000</v>
+        <v>253000000</v>
       </c>
       <c r="D5" s="21">
-        <v>28960000000</v>
+        <v>194000000</v>
       </c>
       <c r="E5" s="21">
-        <v>22956000000</v>
+        <v>200000000</v>
       </c>
       <c r="F5" s="22">
-        <v>21175000000</v>
+        <v>207000000</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -7692,16 +7693,16 @@
         <v>69</v>
       </c>
       <c r="C6" s="21">
-        <v>402392000000</v>
+        <v>106618000000</v>
       </c>
       <c r="D6" s="21">
-        <v>365264000000</v>
+        <v>82338000000</v>
       </c>
       <c r="E6" s="21">
-        <v>359268000000</v>
+        <v>62131000000</v>
       </c>
       <c r="F6" s="22">
-        <v>319616000000</v>
+        <v>52148000000</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -7726,16 +7727,16 @@
         <v>70</v>
       </c>
       <c r="C7" s="21">
-        <v>81814000000</v>
+        <v>28748000000</v>
       </c>
       <c r="D7" s="21">
-        <v>69300000000</v>
+        <v>26709000000</v>
       </c>
       <c r="E7" s="21">
-        <v>64254000000</v>
+        <v>19705000000</v>
       </c>
       <c r="F7" s="22">
-        <v>56834000000</v>
+        <v>14248000000</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -7760,16 +7761,16 @@
         <v>71</v>
       </c>
       <c r="C8" s="21">
-        <v>37199000000</v>
+        <v>14261000000</v>
       </c>
       <c r="D8" s="21">
-        <v>39820000000</v>
+        <v>9731000000</v>
       </c>
       <c r="E8" s="21">
-        <v>43379000000</v>
+        <v>10843000000</v>
       </c>
       <c r="F8" s="22">
-        <v>40238000000</v>
+        <v>14221000000</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -7794,16 +7795,16 @@
         <v>72</v>
       </c>
       <c r="C9" s="21">
-        <v>119013000000</v>
+        <v>43009000000</v>
       </c>
       <c r="D9" s="21">
-        <v>109120000000</v>
+        <v>36440000000</v>
       </c>
       <c r="E9" s="21">
-        <v>107633000000</v>
+        <v>30548000000</v>
       </c>
       <c r="F9" s="22">
-        <v>97072000000</v>
+        <v>28469000000</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -7896,16 +7897,16 @@
         <v>75</v>
       </c>
       <c r="C12" s="21">
-        <v>211247000000</v>
+        <v>27882000000</v>
       </c>
       <c r="D12" s="21">
-        <v>195563000000</v>
+        <v>12885000000</v>
       </c>
       <c r="E12" s="21">
-        <v>191484000000</v>
+        <v>329000000</v>
       </c>
       <c r="F12" s="22">
-        <v>163401000000</v>
+        <v>-5399000000</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -7930,16 +7931,16 @@
         <v>76</v>
       </c>
       <c r="C13" s="21">
-        <v>283379000000</v>
+        <v>63609000000</v>
       </c>
       <c r="D13" s="21">
-        <v>256144000000</v>
+        <v>45898000000</v>
       </c>
       <c r="E13" s="21">
-        <v>251635000000</v>
+        <v>31583000000</v>
       </c>
       <c r="F13" s="22">
-        <v>222544000000</v>
+        <v>23679000000</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -7990,16 +7991,16 @@
         <v>78</v>
       </c>
       <c r="C15" s="21">
-        <v>45427000000</v>
+        <v>3969000000</v>
       </c>
       <c r="D15" s="21">
-        <v>39500000000</v>
+        <v>3075000000</v>
       </c>
       <c r="E15" s="21">
-        <v>31562000000</v>
+        <v>2593000000</v>
       </c>
       <c r="F15" s="22">
-        <v>27573000000</v>
+        <v>1491000000</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -8050,16 +8051,16 @@
         <v>80</v>
       </c>
       <c r="C17" s="28">
-        <v>101746000000</v>
+        <v>13256000000</v>
       </c>
       <c r="D17" s="28">
-        <v>91495000000</v>
+        <v>14724000000</v>
       </c>
       <c r="E17" s="28">
-        <v>91652000000</v>
+        <v>11497000000</v>
       </c>
       <c r="F17" s="29">
-        <v>65124000000</v>
+        <v>5943000000</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -8664,12 +8665,12 @@
   <dimension ref="A1:V32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="174" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="22" width="12" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="177" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="22" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
@@ -8679,16 +8680,16 @@
         <v>60</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="18" t="s">

--- a/output/TICKER_RESULTS.xlsx
+++ b/output/TICKER_RESULTS.xlsx
@@ -9,10 +9,10 @@
   <sheets>
     <sheet sheetId="4" name="scoring theory" state="visible" r:id="rId4"/>
     <sheet sheetId="12" name="&lt;TICKER&gt; Results" state="visible" r:id="rId5"/>
-    <sheet sheetId="1" name="AAPL Results" state="visible" r:id="rId6"/>
-    <sheet sheetId="2" name="NVDA Results" state="visible" r:id="rId7"/>
-    <sheet sheetId="3" name="GOOGL Results" state="visible" r:id="rId8"/>
-    <sheet sheetId="5" name="TSLA Results" state="visible" r:id="rId9"/>
+    <sheet sheetId="1" name="GOOGL Results" state="visible" r:id="rId6"/>
+    <sheet sheetId="2" name="AAPL Results" state="visible" r:id="rId7"/>
+    <sheet sheetId="3" name="TSLA Results" state="visible" r:id="rId8"/>
+    <sheet sheetId="5" name="NVDA Results" state="visible" r:id="rId9"/>
     <sheet sheetId="6" name="AMZN Results" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -438,6 +438,21 @@
     <t>increase indicates the company is making acquisitions for more than the entity's fair value meaning they paid a premium for strategic value or growth potential</t>
   </si>
   <si>
+    <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>2023-09-30</t>
   </si>
   <si>
@@ -450,9 +465,6 @@
     <t>2020-09-30</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2024-01-31</t>
   </si>
   <si>
@@ -463,18 +475,6 @@
   </si>
   <si>
     <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>2023-12-31</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
   </si>
 </sst>
 </file>
@@ -1637,6 +1637,9 @@
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="200"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
@@ -1692,17 +1695,17 @@
       <c r="B3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="21">
-        <v>6331000000</v>
+      <c r="C3" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="D3" s="21">
-        <v>4946000000</v>
+        <v>2670000000</v>
       </c>
       <c r="E3" s="21">
-        <v>6580000000</v>
+        <v>1170000000</v>
       </c>
       <c r="F3" s="22">
-        <v>4061000000</v>
+        <v>728000000</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -1727,16 +1730,16 @@
         <v>67</v>
       </c>
       <c r="C4" s="21">
-        <v>54376000000</v>
+        <v>148436000000</v>
       </c>
       <c r="D4" s="21">
-        <v>52534000000</v>
+        <v>127049000000</v>
       </c>
       <c r="E4" s="21">
-        <v>49527000000</v>
+        <v>110558000000</v>
       </c>
       <c r="F4" s="22">
-        <v>45336000000</v>
+        <v>96960000000</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1760,17 +1763,17 @@
       <c r="B5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>108</v>
+      <c r="C5" s="21">
+        <v>29198000000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>28960000000</v>
+      </c>
+      <c r="E5" s="21">
+        <v>22956000000</v>
+      </c>
+      <c r="F5" s="22">
+        <v>21175000000</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -1795,16 +1798,16 @@
         <v>69</v>
       </c>
       <c r="C6" s="21">
-        <v>352583000000</v>
+        <v>402392000000</v>
       </c>
       <c r="D6" s="21">
-        <v>352755000000</v>
+        <v>365264000000</v>
       </c>
       <c r="E6" s="21">
-        <v>351002000000</v>
+        <v>359268000000</v>
       </c>
       <c r="F6" s="22">
-        <v>323888000000</v>
+        <v>319616000000</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -1829,16 +1832,16 @@
         <v>70</v>
       </c>
       <c r="C7" s="21">
-        <v>145308000000</v>
+        <v>81814000000</v>
       </c>
       <c r="D7" s="21">
-        <v>153982000000</v>
+        <v>69300000000</v>
       </c>
       <c r="E7" s="21">
-        <v>125481000000</v>
+        <v>64254000000</v>
       </c>
       <c r="F7" s="22">
-        <v>105392000000</v>
+        <v>56834000000</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -1863,16 +1866,16 @@
         <v>71</v>
       </c>
       <c r="C8" s="21">
-        <v>145129000000</v>
+        <v>37199000000</v>
       </c>
       <c r="D8" s="21">
-        <v>148101000000</v>
+        <v>39820000000</v>
       </c>
       <c r="E8" s="21">
-        <v>162431000000</v>
+        <v>43379000000</v>
       </c>
       <c r="F8" s="22">
-        <v>153157000000</v>
+        <v>40238000000</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -1897,16 +1900,16 @@
         <v>72</v>
       </c>
       <c r="C9" s="21">
-        <v>290437000000</v>
+        <v>119013000000</v>
       </c>
       <c r="D9" s="21">
-        <v>302083000000</v>
+        <v>109120000000</v>
       </c>
       <c r="E9" s="21">
-        <v>287912000000</v>
+        <v>107633000000</v>
       </c>
       <c r="F9" s="22">
-        <v>258549000000</v>
+        <v>97072000000</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -1999,16 +2002,16 @@
         <v>75</v>
       </c>
       <c r="C12" s="21">
-        <v>-214000000</v>
+        <v>211247000000</v>
       </c>
       <c r="D12" s="21">
-        <v>-3068000000</v>
+        <v>195563000000</v>
       </c>
       <c r="E12" s="21">
-        <v>5562000000</v>
+        <v>191484000000</v>
       </c>
       <c r="F12" s="22">
-        <v>14966000000</v>
+        <v>163401000000</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -2033,16 +2036,16 @@
         <v>76</v>
       </c>
       <c r="C13" s="21">
-        <v>62146000000</v>
+        <v>283379000000</v>
       </c>
       <c r="D13" s="21">
-        <v>50672000000</v>
+        <v>256144000000</v>
       </c>
       <c r="E13" s="21">
-        <v>63090000000</v>
+        <v>251635000000</v>
       </c>
       <c r="F13" s="22">
-        <v>65339000000</v>
+        <v>222544000000</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -2093,16 +2096,16 @@
         <v>78</v>
       </c>
       <c r="C15" s="21">
-        <v>29915000000</v>
+        <v>45427000000</v>
       </c>
       <c r="D15" s="21">
-        <v>26251000000</v>
+        <v>39500000000</v>
       </c>
       <c r="E15" s="21">
-        <v>21914000000</v>
+        <v>31562000000</v>
       </c>
       <c r="F15" s="22">
-        <v>18752000000</v>
+        <v>27573000000</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -2153,16 +2156,16 @@
         <v>80</v>
       </c>
       <c r="C17" s="28">
-        <v>110543000000</v>
+        <v>101746000000</v>
       </c>
       <c r="D17" s="28">
-        <v>122151000000</v>
+        <v>91495000000</v>
       </c>
       <c r="E17" s="28">
-        <v>104038000000</v>
+        <v>91652000000</v>
       </c>
       <c r="F17" s="29">
-        <v>80674000000</v>
+        <v>65124000000</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -4725,6 +4728,9 @@
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="200"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
@@ -4781,16 +4787,16 @@
         <v>66</v>
       </c>
       <c r="C3" s="21">
-        <v>5282000000</v>
+        <v>6331000000</v>
       </c>
       <c r="D3" s="21">
-        <v>5159000000</v>
+        <v>4946000000</v>
       </c>
       <c r="E3" s="21">
-        <v>2605000000</v>
+        <v>6580000000</v>
       </c>
       <c r="F3" s="22">
-        <v>1826000000</v>
+        <v>4061000000</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -4815,16 +4821,16 @@
         <v>67</v>
       </c>
       <c r="C4" s="21">
-        <v>5260000000</v>
+        <v>54376000000</v>
       </c>
       <c r="D4" s="21">
-        <v>4845000000</v>
+        <v>52534000000</v>
       </c>
       <c r="E4" s="21">
-        <v>3607000000</v>
+        <v>49527000000</v>
       </c>
       <c r="F4" s="22">
-        <v>2856000000</v>
+        <v>45336000000</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -4848,17 +4854,17 @@
       <c r="B5" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="21">
-        <v>4430000000</v>
-      </c>
-      <c r="D5" s="21">
-        <v>4372000000</v>
-      </c>
-      <c r="E5" s="21">
-        <v>4349000000</v>
-      </c>
-      <c r="F5" s="22">
-        <v>4193000000</v>
+      <c r="C5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -4883,16 +4889,16 @@
         <v>69</v>
       </c>
       <c r="C6" s="21">
-        <v>65728000000</v>
+        <v>352583000000</v>
       </c>
       <c r="D6" s="21">
-        <v>41182000000</v>
+        <v>352755000000</v>
       </c>
       <c r="E6" s="21">
-        <v>44187000000</v>
+        <v>351002000000</v>
       </c>
       <c r="F6" s="22">
-        <v>28791000000</v>
+        <v>323888000000</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -4917,16 +4923,16 @@
         <v>70</v>
       </c>
       <c r="C7" s="21">
-        <v>10631000000</v>
+        <v>145308000000</v>
       </c>
       <c r="D7" s="21">
-        <v>6563000000</v>
+        <v>153982000000</v>
       </c>
       <c r="E7" s="21">
-        <v>4335000000</v>
+        <v>125481000000</v>
       </c>
       <c r="F7" s="22">
-        <v>3925000000</v>
+        <v>105392000000</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -4951,16 +4957,16 @@
         <v>71</v>
       </c>
       <c r="C8" s="21">
-        <v>12119000000</v>
+        <v>145129000000</v>
       </c>
       <c r="D8" s="21">
-        <v>12518000000</v>
+        <v>148101000000</v>
       </c>
       <c r="E8" s="21">
-        <v>13240000000</v>
+        <v>162431000000</v>
       </c>
       <c r="F8" s="22">
-        <v>7973000000</v>
+        <v>153157000000</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -4985,16 +4991,16 @@
         <v>72</v>
       </c>
       <c r="C9" s="21">
-        <v>22750000000</v>
+        <v>290437000000</v>
       </c>
       <c r="D9" s="21">
-        <v>19081000000</v>
+        <v>302083000000</v>
       </c>
       <c r="E9" s="21">
-        <v>17575000000</v>
+        <v>287912000000</v>
       </c>
       <c r="F9" s="22">
-        <v>11898000000</v>
+        <v>258549000000</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -5027,8 +5033,8 @@
       <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="22">
-        <v>10756000000</v>
+      <c r="F10" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -5087,16 +5093,16 @@
         <v>75</v>
       </c>
       <c r="C12" s="21">
-        <v>29817000000</v>
+        <v>-214000000</v>
       </c>
       <c r="D12" s="21">
-        <v>10171000000</v>
+        <v>-3068000000</v>
       </c>
       <c r="E12" s="21">
-        <v>16235000000</v>
+        <v>5562000000</v>
       </c>
       <c r="F12" s="22">
-        <v>18908000000</v>
+        <v>14966000000</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -5121,16 +5127,16 @@
         <v>76</v>
       </c>
       <c r="C13" s="21">
-        <v>42978000000</v>
+        <v>62146000000</v>
       </c>
       <c r="D13" s="21">
-        <v>22101000000</v>
+        <v>50672000000</v>
       </c>
       <c r="E13" s="21">
-        <v>26612000000</v>
+        <v>63090000000</v>
       </c>
       <c r="F13" s="22">
-        <v>16893000000</v>
+        <v>65339000000</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -5181,16 +5187,16 @@
         <v>78</v>
       </c>
       <c r="C15" s="21">
-        <v>8675000000</v>
+        <v>29915000000</v>
       </c>
       <c r="D15" s="21">
-        <v>7339000000</v>
+        <v>26251000000</v>
       </c>
       <c r="E15" s="21">
-        <v>5268000000</v>
+        <v>21914000000</v>
       </c>
       <c r="F15" s="22">
-        <v>3924000000</v>
+        <v>18752000000</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -5241,16 +5247,16 @@
         <v>80</v>
       </c>
       <c r="C17" s="28">
-        <v>28090000000</v>
+        <v>110543000000</v>
       </c>
       <c r="D17" s="28">
-        <v>5641000000</v>
+        <v>122151000000</v>
       </c>
       <c r="E17" s="28">
-        <v>9108000000</v>
+        <v>104038000000</v>
       </c>
       <c r="F17" s="29">
-        <v>5822000000</v>
+        <v>80674000000</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -5853,6 +5859,9 @@
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="200"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
@@ -5870,16 +5879,16 @@
         <v>60</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="18" t="s">
@@ -5908,17 +5917,17 @@
       <c r="B3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>108</v>
+      <c r="C3" s="21">
+        <v>13626000000</v>
       </c>
       <c r="D3" s="21">
-        <v>2670000000</v>
+        <v>12839000000</v>
       </c>
       <c r="E3" s="21">
-        <v>1170000000</v>
+        <v>5757000000</v>
       </c>
       <c r="F3" s="22">
-        <v>728000000</v>
+        <v>4101000000</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -5943,16 +5952,16 @@
         <v>67</v>
       </c>
       <c r="C4" s="21">
-        <v>148436000000</v>
+        <v>45123000000</v>
       </c>
       <c r="D4" s="21">
-        <v>127049000000</v>
+        <v>36635000000</v>
       </c>
       <c r="E4" s="21">
-        <v>110558000000</v>
+        <v>31172000000</v>
       </c>
       <c r="F4" s="22">
-        <v>96960000000</v>
+        <v>23378000000</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -5977,16 +5986,16 @@
         <v>68</v>
       </c>
       <c r="C5" s="21">
-        <v>29198000000</v>
+        <v>253000000</v>
       </c>
       <c r="D5" s="21">
-        <v>28960000000</v>
+        <v>194000000</v>
       </c>
       <c r="E5" s="21">
-        <v>22956000000</v>
+        <v>200000000</v>
       </c>
       <c r="F5" s="22">
-        <v>21175000000</v>
+        <v>207000000</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -6011,16 +6020,16 @@
         <v>69</v>
       </c>
       <c r="C6" s="21">
-        <v>402392000000</v>
+        <v>106618000000</v>
       </c>
       <c r="D6" s="21">
-        <v>365264000000</v>
+        <v>82338000000</v>
       </c>
       <c r="E6" s="21">
-        <v>359268000000</v>
+        <v>62131000000</v>
       </c>
       <c r="F6" s="22">
-        <v>319616000000</v>
+        <v>52148000000</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -6045,16 +6054,16 @@
         <v>70</v>
       </c>
       <c r="C7" s="21">
-        <v>81814000000</v>
+        <v>28748000000</v>
       </c>
       <c r="D7" s="21">
-        <v>69300000000</v>
+        <v>26709000000</v>
       </c>
       <c r="E7" s="21">
-        <v>64254000000</v>
+        <v>19705000000</v>
       </c>
       <c r="F7" s="22">
-        <v>56834000000</v>
+        <v>14248000000</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -6079,16 +6088,16 @@
         <v>71</v>
       </c>
       <c r="C8" s="21">
-        <v>37199000000</v>
+        <v>14261000000</v>
       </c>
       <c r="D8" s="21">
-        <v>39820000000</v>
+        <v>9731000000</v>
       </c>
       <c r="E8" s="21">
-        <v>43379000000</v>
+        <v>10843000000</v>
       </c>
       <c r="F8" s="22">
-        <v>40238000000</v>
+        <v>14221000000</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -6113,16 +6122,16 @@
         <v>72</v>
       </c>
       <c r="C9" s="21">
-        <v>119013000000</v>
+        <v>43009000000</v>
       </c>
       <c r="D9" s="21">
-        <v>109120000000</v>
+        <v>36440000000</v>
       </c>
       <c r="E9" s="21">
-        <v>107633000000</v>
+        <v>30548000000</v>
       </c>
       <c r="F9" s="22">
-        <v>97072000000</v>
+        <v>28469000000</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -6215,16 +6224,16 @@
         <v>75</v>
       </c>
       <c r="C12" s="21">
-        <v>211247000000</v>
+        <v>27882000000</v>
       </c>
       <c r="D12" s="21">
-        <v>195563000000</v>
+        <v>12885000000</v>
       </c>
       <c r="E12" s="21">
-        <v>191484000000</v>
+        <v>329000000</v>
       </c>
       <c r="F12" s="22">
-        <v>163401000000</v>
+        <v>-5399000000</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -6249,16 +6258,16 @@
         <v>76</v>
       </c>
       <c r="C13" s="21">
-        <v>283379000000</v>
+        <v>63609000000</v>
       </c>
       <c r="D13" s="21">
-        <v>256144000000</v>
+        <v>45898000000</v>
       </c>
       <c r="E13" s="21">
-        <v>251635000000</v>
+        <v>31583000000</v>
       </c>
       <c r="F13" s="22">
-        <v>222544000000</v>
+        <v>23679000000</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -6309,16 +6318,16 @@
         <v>78</v>
       </c>
       <c r="C15" s="21">
-        <v>45427000000</v>
+        <v>3969000000</v>
       </c>
       <c r="D15" s="21">
-        <v>39500000000</v>
+        <v>3075000000</v>
       </c>
       <c r="E15" s="21">
-        <v>31562000000</v>
+        <v>2593000000</v>
       </c>
       <c r="F15" s="22">
-        <v>27573000000</v>
+        <v>1491000000</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -6369,16 +6378,16 @@
         <v>80</v>
       </c>
       <c r="C17" s="28">
-        <v>101746000000</v>
+        <v>13256000000</v>
       </c>
       <c r="D17" s="28">
-        <v>91495000000</v>
+        <v>14724000000</v>
       </c>
       <c r="E17" s="28">
-        <v>91652000000</v>
+        <v>11497000000</v>
       </c>
       <c r="F17" s="29">
-        <v>65124000000</v>
+        <v>5943000000</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -7535,6 +7544,9 @@
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="200"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
@@ -7591,16 +7603,16 @@
         <v>66</v>
       </c>
       <c r="C3" s="21">
-        <v>13626000000</v>
+        <v>5282000000</v>
       </c>
       <c r="D3" s="21">
-        <v>12839000000</v>
+        <v>5159000000</v>
       </c>
       <c r="E3" s="21">
-        <v>5757000000</v>
+        <v>2605000000</v>
       </c>
       <c r="F3" s="22">
-        <v>4101000000</v>
+        <v>1826000000</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -7625,16 +7637,16 @@
         <v>67</v>
       </c>
       <c r="C4" s="21">
-        <v>45123000000</v>
+        <v>5260000000</v>
       </c>
       <c r="D4" s="21">
-        <v>36635000000</v>
+        <v>4845000000</v>
       </c>
       <c r="E4" s="21">
-        <v>31172000000</v>
+        <v>3607000000</v>
       </c>
       <c r="F4" s="22">
-        <v>23378000000</v>
+        <v>2856000000</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -7659,16 +7671,16 @@
         <v>68</v>
       </c>
       <c r="C5" s="21">
-        <v>253000000</v>
+        <v>4430000000</v>
       </c>
       <c r="D5" s="21">
-        <v>194000000</v>
+        <v>4372000000</v>
       </c>
       <c r="E5" s="21">
-        <v>200000000</v>
+        <v>4349000000</v>
       </c>
       <c r="F5" s="22">
-        <v>207000000</v>
+        <v>4193000000</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -7693,16 +7705,16 @@
         <v>69</v>
       </c>
       <c r="C6" s="21">
-        <v>106618000000</v>
+        <v>65728000000</v>
       </c>
       <c r="D6" s="21">
-        <v>82338000000</v>
+        <v>41182000000</v>
       </c>
       <c r="E6" s="21">
-        <v>62131000000</v>
+        <v>44187000000</v>
       </c>
       <c r="F6" s="22">
-        <v>52148000000</v>
+        <v>28791000000</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -7727,16 +7739,16 @@
         <v>70</v>
       </c>
       <c r="C7" s="21">
-        <v>28748000000</v>
+        <v>10631000000</v>
       </c>
       <c r="D7" s="21">
-        <v>26709000000</v>
+        <v>6563000000</v>
       </c>
       <c r="E7" s="21">
-        <v>19705000000</v>
+        <v>4335000000</v>
       </c>
       <c r="F7" s="22">
-        <v>14248000000</v>
+        <v>3925000000</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -7761,16 +7773,16 @@
         <v>71</v>
       </c>
       <c r="C8" s="21">
-        <v>14261000000</v>
+        <v>12119000000</v>
       </c>
       <c r="D8" s="21">
-        <v>9731000000</v>
+        <v>12518000000</v>
       </c>
       <c r="E8" s="21">
-        <v>10843000000</v>
+        <v>13240000000</v>
       </c>
       <c r="F8" s="22">
-        <v>14221000000</v>
+        <v>7973000000</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -7795,16 +7807,16 @@
         <v>72</v>
       </c>
       <c r="C9" s="21">
-        <v>43009000000</v>
+        <v>22750000000</v>
       </c>
       <c r="D9" s="21">
-        <v>36440000000</v>
+        <v>19081000000</v>
       </c>
       <c r="E9" s="21">
-        <v>30548000000</v>
+        <v>17575000000</v>
       </c>
       <c r="F9" s="22">
-        <v>28469000000</v>
+        <v>11898000000</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -7837,8 +7849,8 @@
       <c r="E10" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>108</v>
+      <c r="F10" s="22">
+        <v>10756000000</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -7897,16 +7909,16 @@
         <v>75</v>
       </c>
       <c r="C12" s="21">
-        <v>27882000000</v>
+        <v>29817000000</v>
       </c>
       <c r="D12" s="21">
-        <v>12885000000</v>
+        <v>10171000000</v>
       </c>
       <c r="E12" s="21">
-        <v>329000000</v>
+        <v>16235000000</v>
       </c>
       <c r="F12" s="22">
-        <v>-5399000000</v>
+        <v>18908000000</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -7931,16 +7943,16 @@
         <v>76</v>
       </c>
       <c r="C13" s="21">
-        <v>63609000000</v>
+        <v>42978000000</v>
       </c>
       <c r="D13" s="21">
-        <v>45898000000</v>
+        <v>22101000000</v>
       </c>
       <c r="E13" s="21">
-        <v>31583000000</v>
+        <v>26612000000</v>
       </c>
       <c r="F13" s="22">
-        <v>23679000000</v>
+        <v>16893000000</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -7991,16 +8003,16 @@
         <v>78</v>
       </c>
       <c r="C15" s="21">
-        <v>3969000000</v>
+        <v>8675000000</v>
       </c>
       <c r="D15" s="21">
-        <v>3075000000</v>
+        <v>7339000000</v>
       </c>
       <c r="E15" s="21">
-        <v>2593000000</v>
+        <v>5268000000</v>
       </c>
       <c r="F15" s="22">
-        <v>1491000000</v>
+        <v>3924000000</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -8051,16 +8063,16 @@
         <v>80</v>
       </c>
       <c r="C17" s="28">
-        <v>13256000000</v>
+        <v>28090000000</v>
       </c>
       <c r="D17" s="28">
-        <v>14724000000</v>
+        <v>5641000000</v>
       </c>
       <c r="E17" s="28">
-        <v>11497000000</v>
+        <v>9108000000</v>
       </c>
       <c r="F17" s="29">
-        <v>5943000000</v>
+        <v>5822000000</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -8663,6 +8675,9 @@
     <tabColor rgb="FF00FF00"/>
   </sheetPr>
   <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="200"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
@@ -8680,16 +8695,16 @@
         <v>60</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="18" t="s">

--- a/output/TICKER_RESULTS.xlsx
+++ b/output/TICKER_RESULTS.xlsx
@@ -9,13 +9,19 @@
   <sheets>
     <sheet sheetId="4" name="scoring theory" state="visible" r:id="rId4"/>
     <sheet sheetId="12" name="&lt;TICKER&gt; Results" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="AAPL Results" state="visible" r:id="rId6"/>
+    <sheet sheetId="2" name="GOOGL Results" state="visible" r:id="rId7"/>
+    <sheet sheetId="3" name="GOOG Results" state="visible" r:id="rId8"/>
+    <sheet sheetId="5" name="NVDA Results" state="visible" r:id="rId9"/>
+    <sheet sheetId="6" name="MSFT Results" state="visible" r:id="rId10"/>
+    <sheet sheetId="7" name="AMZN Results" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="121">
   <si>
     <t>Parameter</t>
   </si>
@@ -431,6 +437,57 @@
   </si>
   <si>
     <t>increase indicates the company is making acquisitions for more than the entity's fair value meaning they paid a premium for strategic value or growth potential</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2024-01-31</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2024-06-30</t>
+  </si>
+  <si>
+    <t>2023-06-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
   </si>
 </sst>
 </file>
@@ -1587,6 +1644,1137 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="200"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="177" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="22" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="19" t="e">
+        <f>((G21 * ('scoring theory'!B8)) + (G22 * ('scoring theory'!B8)) + (G23 * 'scoring theory'!B2) + (G24 * 'scoring theory'!B11) + (G25 * 'scoring theory'!B5) + (G26 * 'scoring theory'!B6) + (G27 * 'scoring theory'!B4) + (G28 * 'scoring theory'!B10) + (G29 * 'scoring theory'!B7) + (G30 * 'scoring theory'!B9) + (G31 * 'scoring theory'!B3) + (G32 * 'scoring theory'!B12)) / 400</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="21">
+        <v>6331000000</v>
+      </c>
+      <c r="D3" s="21">
+        <v>4946000000</v>
+      </c>
+      <c r="E3" s="21">
+        <v>6580000000</v>
+      </c>
+      <c r="F3" s="22">
+        <v>4061000000</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="21">
+        <v>54376000000</v>
+      </c>
+      <c r="D4" s="21">
+        <v>52534000000</v>
+      </c>
+      <c r="E4" s="21">
+        <v>49527000000</v>
+      </c>
+      <c r="F4" s="22">
+        <v>45336000000</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="21">
+        <v>352583000000</v>
+      </c>
+      <c r="D6" s="21">
+        <v>352755000000</v>
+      </c>
+      <c r="E6" s="21">
+        <v>351002000000</v>
+      </c>
+      <c r="F6" s="22">
+        <v>323888000000</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="21">
+        <v>145308000000</v>
+      </c>
+      <c r="D7" s="21">
+        <v>153982000000</v>
+      </c>
+      <c r="E7" s="21">
+        <v>125481000000</v>
+      </c>
+      <c r="F7" s="22">
+        <v>105392000000</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="21">
+        <v>145129000000</v>
+      </c>
+      <c r="D8" s="21">
+        <v>148101000000</v>
+      </c>
+      <c r="E8" s="21">
+        <v>162431000000</v>
+      </c>
+      <c r="F8" s="22">
+        <v>153157000000</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="21">
+        <v>290437000000</v>
+      </c>
+      <c r="D9" s="21">
+        <v>302083000000</v>
+      </c>
+      <c r="E9" s="21">
+        <v>287912000000</v>
+      </c>
+      <c r="F9" s="22">
+        <v>258549000000</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="21">
+        <v>-214000000</v>
+      </c>
+      <c r="D12" s="21">
+        <v>-3068000000</v>
+      </c>
+      <c r="E12" s="21">
+        <v>5562000000</v>
+      </c>
+      <c r="F12" s="22">
+        <v>14966000000</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="21">
+        <v>62146000000</v>
+      </c>
+      <c r="D13" s="21">
+        <v>50672000000</v>
+      </c>
+      <c r="E13" s="21">
+        <v>63090000000</v>
+      </c>
+      <c r="F13" s="22">
+        <v>65339000000</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="21">
+        <v>29915000000</v>
+      </c>
+      <c r="D15" s="21">
+        <v>26251000000</v>
+      </c>
+      <c r="E15" s="21">
+        <v>21914000000</v>
+      </c>
+      <c r="F15" s="22">
+        <v>18752000000</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="28">
+        <v>110543000000</v>
+      </c>
+      <c r="D17" s="28">
+        <v>122151000000</v>
+      </c>
+      <c r="E17" s="28">
+        <v>104038000000</v>
+      </c>
+      <c r="F17" s="29">
+        <v>80674000000</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="38" t="str">
+        <f>IF(C3&gt;D3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D21" s="38" t="str">
+        <f>IF(D3&gt;E3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E21" s="38" t="str">
+        <f>IF(E3&gt;F3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40">
+        <f>(((COUNTIF(C21:E21, "Pass") * 100) + (COUNTIF(C21:E21, "Fail") * 0)) * (400/300)) / 2</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="42"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="38" t="str">
+        <f>IF(C17&gt;D17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D22" s="38" t="str">
+        <f>IF(D17&gt;E17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E22" s="38" t="str">
+        <f>IF(E17&gt;F17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
+        <f>(((COUNTIF(C22:F22, "Pass") * 100) + (COUNTIF(C22:F22, "Fail") * 0)) * (400/300)) / 2</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="38" t="str">
+        <f>IF(C17&gt;C7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D23" s="38" t="str">
+        <f>IF(D17&gt;D7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E23" s="38" t="str">
+        <f>IF(E17&gt;E7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F23" s="43" t="str">
+        <f>IF(F17&gt;F7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G23" s="40">
+        <f>(COUNTIF(C23:F23, "Pass") * 100) + (COUNTIF(C23:F23, "Fail") * 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="44" t="e">
+        <f>C17/(C4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="44" t="e">
+        <f>D17/(D4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="44" t="e">
+        <f>E17/(E4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="45" t="e">
+        <f>F17/(F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="40" t="e">
+        <f> (IF(C24 &gt; 0.5, 100, IF(C24 &gt;= 0.2, 50, 0))) +
+  (IF(D24 &gt; 0.5, 100, IF(D24 &gt;= 0.2, 50, 0))) +
+  (IF(E24 &gt; 0.5, 100, IF(E24 &gt;= 0.2, 50, 0))) +
+  (IF(F24 &gt; 0.5, 100, IF(F24 &gt;= 0.2, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="44" t="e">
+        <f>C17/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="44" t="e">
+        <f>D17/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="44" t="e">
+        <f>E17/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="45" t="e">
+        <f>F17/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="40" t="e">
+        <f> (IF(C25 &gt; 0.17, 100, IF(C25 &gt;= 0.1, 50, 0))) +
+  (IF(D25 &gt; 0.17, 100, IF(D25 &gt;= 0.1, 50, 0))) +
+  (IF(E25 &gt; 0.17, 100, IF(E25 &gt;= 0.1, 50, 0))) +
+  (IF(F25 &gt; 0.17, 100, IF(F25 &gt;= 0.1, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="44" t="e">
+        <f>C8/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="44" t="e">
+        <f>D8/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="44" t="e">
+        <f>E8/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="45" t="e">
+        <f>F8/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="40" t="e">
+        <f> (IF(C26 &lt; 0.5, 100, 0)) +
+  (IF(D26 &lt; 0.5, 100, 0)) +
+  (IF(E26 &lt; 0.5, 100, 0)) +
+  (IF(F26 &lt; 0.5, 100, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="44" t="e">
+        <f>C9/(C13+C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="44" t="e">
+        <f>D9/(D13+D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="44" t="e">
+        <f>E9/(E13+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="45" t="e">
+        <f>F9/(F13+F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="40" t="e">
+        <f> (IF(C27 &lt; 0.8, 100, IF(C27 &lt; 1, 50, 0))) +
+  (IF(D27 &lt; 0.8, 100, IF(D27 &lt; 1, 50, 0))) +
+  (IF(E27 &lt; 0.8, 100, IF(E27 &lt; 1, 50, 0))) +
+  (IF(F27 &lt; 0.8, 100, IF(F27 &lt; 1, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="38" t="str">
+        <f>IF(C11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D28" s="46" t="str">
+        <f>IF(D11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="E28" s="46" t="str">
+        <f>IF(E11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="F28" s="47" t="str">
+        <f>IF(F11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="G28" s="40">
+        <f>(COUNTIF(C28:F28, "Pass") * 100) + (COUNTIF(C28:F28, "Fail") * 0)</f>
+        <v>400</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="45" t="e">
+        <f>(((C12-D12)/D12)+((D12-E12)/E12)+((E12-F12)/F12))/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="40" t="e">
+        <f>(IF(C29 &gt;= 0.17, 100, IF(C29 &gt;= 0, 50, 0))) * (400/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="38" t="str">
+        <f>IF(C10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D30" s="51" t="str">
+        <f>IF(D10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E30" s="51" t="str">
+        <f>IF(E10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F30" s="52" t="str">
+        <f>IF(F10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G30" s="40">
+        <f>(COUNTIF(C30:F30, "Pass") * 100) + (COUNTIF(C30:F30, "Fail") * 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="44" t="e">
+        <f>C17/(C13+C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="44" t="e">
+        <f>D17/(D13+D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="44" t="e">
+        <f>E17/(E13+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="45" t="e">
+        <f>F17/(F13+F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="40" t="e">
+        <f> (IF(C31 &gt; 0.23, 100, 0)) +
+  (IF(D31 &gt; 0.23, 100, 0)) +
+  (IF(E31 &gt; 0.23, 100, 0)) +
+  (IF(F31 &gt; 0.23, 100, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="54" t="str">
+        <f>IF(C5&gt;F5, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57">
+        <f>((COUNTIF(C32, "Pass") * 100) + (COUNTIF(C32, "Fail") * 0)) * (400/100)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V59"/>
@@ -3547,6 +4735,2268 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="200"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="177" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="22" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="19" t="e">
+        <f>((G21 * ('scoring theory'!B8)) + (G22 * ('scoring theory'!B8)) + (G23 * 'scoring theory'!B2) + (G24 * 'scoring theory'!B11) + (G25 * 'scoring theory'!B5) + (G26 * 'scoring theory'!B6) + (G27 * 'scoring theory'!B4) + (G28 * 'scoring theory'!B10) + (G29 * 'scoring theory'!B7) + (G30 * 'scoring theory'!B9) + (G31 * 'scoring theory'!B3) + (G32 * 'scoring theory'!B12)) / 400</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2670000000</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1170000000</v>
+      </c>
+      <c r="F3" s="22">
+        <v>728000000</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="21">
+        <v>148436000000</v>
+      </c>
+      <c r="D4" s="21">
+        <v>127049000000</v>
+      </c>
+      <c r="E4" s="21">
+        <v>110558000000</v>
+      </c>
+      <c r="F4" s="22">
+        <v>96960000000</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="21">
+        <v>29198000000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>28960000000</v>
+      </c>
+      <c r="E5" s="21">
+        <v>22956000000</v>
+      </c>
+      <c r="F5" s="22">
+        <v>21175000000</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="21">
+        <v>402392000000</v>
+      </c>
+      <c r="D6" s="21">
+        <v>365264000000</v>
+      </c>
+      <c r="E6" s="21">
+        <v>359268000000</v>
+      </c>
+      <c r="F6" s="22">
+        <v>319616000000</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="21">
+        <v>81814000000</v>
+      </c>
+      <c r="D7" s="21">
+        <v>69300000000</v>
+      </c>
+      <c r="E7" s="21">
+        <v>64254000000</v>
+      </c>
+      <c r="F7" s="22">
+        <v>56834000000</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="21">
+        <v>37199000000</v>
+      </c>
+      <c r="D8" s="21">
+        <v>39820000000</v>
+      </c>
+      <c r="E8" s="21">
+        <v>43379000000</v>
+      </c>
+      <c r="F8" s="22">
+        <v>40238000000</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="21">
+        <v>119013000000</v>
+      </c>
+      <c r="D9" s="21">
+        <v>109120000000</v>
+      </c>
+      <c r="E9" s="21">
+        <v>107633000000</v>
+      </c>
+      <c r="F9" s="22">
+        <v>97072000000</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="21">
+        <v>211247000000</v>
+      </c>
+      <c r="D12" s="21">
+        <v>195563000000</v>
+      </c>
+      <c r="E12" s="21">
+        <v>191484000000</v>
+      </c>
+      <c r="F12" s="22">
+        <v>163401000000</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="21">
+        <v>283379000000</v>
+      </c>
+      <c r="D13" s="21">
+        <v>256144000000</v>
+      </c>
+      <c r="E13" s="21">
+        <v>251635000000</v>
+      </c>
+      <c r="F13" s="22">
+        <v>222544000000</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="21">
+        <v>45427000000</v>
+      </c>
+      <c r="D15" s="21">
+        <v>39500000000</v>
+      </c>
+      <c r="E15" s="21">
+        <v>31562000000</v>
+      </c>
+      <c r="F15" s="22">
+        <v>27573000000</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="28">
+        <v>101746000000</v>
+      </c>
+      <c r="D17" s="28">
+        <v>91495000000</v>
+      </c>
+      <c r="E17" s="28">
+        <v>91652000000</v>
+      </c>
+      <c r="F17" s="29">
+        <v>65124000000</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="38" t="str">
+        <f>IF(C3&gt;D3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D21" s="38" t="str">
+        <f>IF(D3&gt;E3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E21" s="38" t="str">
+        <f>IF(E3&gt;F3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40">
+        <f>(((COUNTIF(C21:E21, "Pass") * 100) + (COUNTIF(C21:E21, "Fail") * 0)) * (400/300)) / 2</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="42"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="38" t="str">
+        <f>IF(C17&gt;D17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D22" s="38" t="str">
+        <f>IF(D17&gt;E17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E22" s="38" t="str">
+        <f>IF(E17&gt;F17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
+        <f>(((COUNTIF(C22:F22, "Pass") * 100) + (COUNTIF(C22:F22, "Fail") * 0)) * (400/300)) / 2</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="38" t="str">
+        <f>IF(C17&gt;C7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D23" s="38" t="str">
+        <f>IF(D17&gt;D7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E23" s="38" t="str">
+        <f>IF(E17&gt;E7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F23" s="43" t="str">
+        <f>IF(F17&gt;F7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G23" s="40">
+        <f>(COUNTIF(C23:F23, "Pass") * 100) + (COUNTIF(C23:F23, "Fail") * 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="44" t="e">
+        <f>C17/(C4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="44" t="e">
+        <f>D17/(D4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="44" t="e">
+        <f>E17/(E4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="45" t="e">
+        <f>F17/(F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="40" t="e">
+        <f> (IF(C24 &gt; 0.5, 100, IF(C24 &gt;= 0.2, 50, 0))) +
+  (IF(D24 &gt; 0.5, 100, IF(D24 &gt;= 0.2, 50, 0))) +
+  (IF(E24 &gt; 0.5, 100, IF(E24 &gt;= 0.2, 50, 0))) +
+  (IF(F24 &gt; 0.5, 100, IF(F24 &gt;= 0.2, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="44" t="e">
+        <f>C17/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="44" t="e">
+        <f>D17/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="44" t="e">
+        <f>E17/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="45" t="e">
+        <f>F17/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="40" t="e">
+        <f> (IF(C25 &gt; 0.17, 100, IF(C25 &gt;= 0.1, 50, 0))) +
+  (IF(D25 &gt; 0.17, 100, IF(D25 &gt;= 0.1, 50, 0))) +
+  (IF(E25 &gt; 0.17, 100, IF(E25 &gt;= 0.1, 50, 0))) +
+  (IF(F25 &gt; 0.17, 100, IF(F25 &gt;= 0.1, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="44" t="e">
+        <f>C8/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="44" t="e">
+        <f>D8/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="44" t="e">
+        <f>E8/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="45" t="e">
+        <f>F8/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="40" t="e">
+        <f> (IF(C26 &lt; 0.5, 100, 0)) +
+  (IF(D26 &lt; 0.5, 100, 0)) +
+  (IF(E26 &lt; 0.5, 100, 0)) +
+  (IF(F26 &lt; 0.5, 100, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="44" t="e">
+        <f>C9/(C13+C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="44" t="e">
+        <f>D9/(D13+D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="44" t="e">
+        <f>E9/(E13+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="45" t="e">
+        <f>F9/(F13+F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="40" t="e">
+        <f> (IF(C27 &lt; 0.8, 100, IF(C27 &lt; 1, 50, 0))) +
+  (IF(D27 &lt; 0.8, 100, IF(D27 &lt; 1, 50, 0))) +
+  (IF(E27 &lt; 0.8, 100, IF(E27 &lt; 1, 50, 0))) +
+  (IF(F27 &lt; 0.8, 100, IF(F27 &lt; 1, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="38" t="str">
+        <f>IF(C11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D28" s="46" t="str">
+        <f>IF(D11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="E28" s="46" t="str">
+        <f>IF(E11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="F28" s="47" t="str">
+        <f>IF(F11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="G28" s="40">
+        <f>(COUNTIF(C28:F28, "Pass") * 100) + (COUNTIF(C28:F28, "Fail") * 0)</f>
+        <v>400</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="45" t="e">
+        <f>(((C12-D12)/D12)+((D12-E12)/E12)+((E12-F12)/F12))/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="40" t="e">
+        <f>(IF(C29 &gt;= 0.17, 100, IF(C29 &gt;= 0, 50, 0))) * (400/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="38" t="str">
+        <f>IF(C10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D30" s="51" t="str">
+        <f>IF(D10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E30" s="51" t="str">
+        <f>IF(E10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F30" s="52" t="str">
+        <f>IF(F10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G30" s="40">
+        <f>(COUNTIF(C30:F30, "Pass") * 100) + (COUNTIF(C30:F30, "Fail") * 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="44" t="e">
+        <f>C17/(C13+C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="44" t="e">
+        <f>D17/(D13+D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="44" t="e">
+        <f>E17/(E13+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="45" t="e">
+        <f>F17/(F13+F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="40" t="e">
+        <f> (IF(C31 &gt; 0.23, 100, 0)) +
+  (IF(D31 &gt; 0.23, 100, 0)) +
+  (IF(E31 &gt; 0.23, 100, 0)) +
+  (IF(F31 &gt; 0.23, 100, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="54" t="str">
+        <f>IF(C5&gt;F5, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57">
+        <f>((COUNTIF(C32, "Pass") * 100) + (COUNTIF(C32, "Fail") * 0)) * (400/100)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="200"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="177" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="22" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="19" t="e">
+        <f>((G21 * ('scoring theory'!B8)) + (G22 * ('scoring theory'!B8)) + (G23 * 'scoring theory'!B2) + (G24 * 'scoring theory'!B11) + (G25 * 'scoring theory'!B5) + (G26 * 'scoring theory'!B6) + (G27 * 'scoring theory'!B4) + (G28 * 'scoring theory'!B10) + (G29 * 'scoring theory'!B7) + (G30 * 'scoring theory'!B9) + (G31 * 'scoring theory'!B3) + (G32 * 'scoring theory'!B12)) / 400</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2670000000</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1170000000</v>
+      </c>
+      <c r="F3" s="22">
+        <v>728000000</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="21">
+        <v>148436000000</v>
+      </c>
+      <c r="D4" s="21">
+        <v>127049000000</v>
+      </c>
+      <c r="E4" s="21">
+        <v>110558000000</v>
+      </c>
+      <c r="F4" s="22">
+        <v>96960000000</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="21">
+        <v>29198000000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>28960000000</v>
+      </c>
+      <c r="E5" s="21">
+        <v>22956000000</v>
+      </c>
+      <c r="F5" s="22">
+        <v>21175000000</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="21">
+        <v>402392000000</v>
+      </c>
+      <c r="D6" s="21">
+        <v>365264000000</v>
+      </c>
+      <c r="E6" s="21">
+        <v>359268000000</v>
+      </c>
+      <c r="F6" s="22">
+        <v>319616000000</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="21">
+        <v>81814000000</v>
+      </c>
+      <c r="D7" s="21">
+        <v>69300000000</v>
+      </c>
+      <c r="E7" s="21">
+        <v>64254000000</v>
+      </c>
+      <c r="F7" s="22">
+        <v>56834000000</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="21">
+        <v>37199000000</v>
+      </c>
+      <c r="D8" s="21">
+        <v>39820000000</v>
+      </c>
+      <c r="E8" s="21">
+        <v>43379000000</v>
+      </c>
+      <c r="F8" s="22">
+        <v>40238000000</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="21">
+        <v>119013000000</v>
+      </c>
+      <c r="D9" s="21">
+        <v>109120000000</v>
+      </c>
+      <c r="E9" s="21">
+        <v>107633000000</v>
+      </c>
+      <c r="F9" s="22">
+        <v>97072000000</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="21">
+        <v>211247000000</v>
+      </c>
+      <c r="D12" s="21">
+        <v>195563000000</v>
+      </c>
+      <c r="E12" s="21">
+        <v>191484000000</v>
+      </c>
+      <c r="F12" s="22">
+        <v>163401000000</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="21">
+        <v>283379000000</v>
+      </c>
+      <c r="D13" s="21">
+        <v>256144000000</v>
+      </c>
+      <c r="E13" s="21">
+        <v>251635000000</v>
+      </c>
+      <c r="F13" s="22">
+        <v>222544000000</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="21">
+        <v>45427000000</v>
+      </c>
+      <c r="D15" s="21">
+        <v>39500000000</v>
+      </c>
+      <c r="E15" s="21">
+        <v>31562000000</v>
+      </c>
+      <c r="F15" s="22">
+        <v>27573000000</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="28">
+        <v>101746000000</v>
+      </c>
+      <c r="D17" s="28">
+        <v>91495000000</v>
+      </c>
+      <c r="E17" s="28">
+        <v>91652000000</v>
+      </c>
+      <c r="F17" s="29">
+        <v>65124000000</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="38" t="str">
+        <f>IF(C3&gt;D3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D21" s="38" t="str">
+        <f>IF(D3&gt;E3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E21" s="38" t="str">
+        <f>IF(E3&gt;F3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40">
+        <f>(((COUNTIF(C21:E21, "Pass") * 100) + (COUNTIF(C21:E21, "Fail") * 0)) * (400/300)) / 2</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="42"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="38" t="str">
+        <f>IF(C17&gt;D17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D22" s="38" t="str">
+        <f>IF(D17&gt;E17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E22" s="38" t="str">
+        <f>IF(E17&gt;F17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
+        <f>(((COUNTIF(C22:F22, "Pass") * 100) + (COUNTIF(C22:F22, "Fail") * 0)) * (400/300)) / 2</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="38" t="str">
+        <f>IF(C17&gt;C7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D23" s="38" t="str">
+        <f>IF(D17&gt;D7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E23" s="38" t="str">
+        <f>IF(E17&gt;E7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F23" s="43" t="str">
+        <f>IF(F17&gt;F7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G23" s="40">
+        <f>(COUNTIF(C23:F23, "Pass") * 100) + (COUNTIF(C23:F23, "Fail") * 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="44" t="e">
+        <f>C17/(C4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="44" t="e">
+        <f>D17/(D4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="44" t="e">
+        <f>E17/(E4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="45" t="e">
+        <f>F17/(F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="40" t="e">
+        <f> (IF(C24 &gt; 0.5, 100, IF(C24 &gt;= 0.2, 50, 0))) +
+  (IF(D24 &gt; 0.5, 100, IF(D24 &gt;= 0.2, 50, 0))) +
+  (IF(E24 &gt; 0.5, 100, IF(E24 &gt;= 0.2, 50, 0))) +
+  (IF(F24 &gt; 0.5, 100, IF(F24 &gt;= 0.2, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="44" t="e">
+        <f>C17/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="44" t="e">
+        <f>D17/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="44" t="e">
+        <f>E17/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="45" t="e">
+        <f>F17/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="40" t="e">
+        <f> (IF(C25 &gt; 0.17, 100, IF(C25 &gt;= 0.1, 50, 0))) +
+  (IF(D25 &gt; 0.17, 100, IF(D25 &gt;= 0.1, 50, 0))) +
+  (IF(E25 &gt; 0.17, 100, IF(E25 &gt;= 0.1, 50, 0))) +
+  (IF(F25 &gt; 0.17, 100, IF(F25 &gt;= 0.1, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="44" t="e">
+        <f>C8/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="44" t="e">
+        <f>D8/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="44" t="e">
+        <f>E8/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="45" t="e">
+        <f>F8/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="40" t="e">
+        <f> (IF(C26 &lt; 0.5, 100, 0)) +
+  (IF(D26 &lt; 0.5, 100, 0)) +
+  (IF(E26 &lt; 0.5, 100, 0)) +
+  (IF(F26 &lt; 0.5, 100, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="44" t="e">
+        <f>C9/(C13+C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="44" t="e">
+        <f>D9/(D13+D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="44" t="e">
+        <f>E9/(E13+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="45" t="e">
+        <f>F9/(F13+F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="40" t="e">
+        <f> (IF(C27 &lt; 0.8, 100, IF(C27 &lt; 1, 50, 0))) +
+  (IF(D27 &lt; 0.8, 100, IF(D27 &lt; 1, 50, 0))) +
+  (IF(E27 &lt; 0.8, 100, IF(E27 &lt; 1, 50, 0))) +
+  (IF(F27 &lt; 0.8, 100, IF(F27 &lt; 1, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="38" t="str">
+        <f>IF(C11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D28" s="46" t="str">
+        <f>IF(D11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="E28" s="46" t="str">
+        <f>IF(E11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="F28" s="47" t="str">
+        <f>IF(F11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="G28" s="40">
+        <f>(COUNTIF(C28:F28, "Pass") * 100) + (COUNTIF(C28:F28, "Fail") * 0)</f>
+        <v>400</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="45" t="e">
+        <f>(((C12-D12)/D12)+((D12-E12)/E12)+((E12-F12)/F12))/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="40" t="e">
+        <f>(IF(C29 &gt;= 0.17, 100, IF(C29 &gt;= 0, 50, 0))) * (400/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="38" t="str">
+        <f>IF(C10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D30" s="51" t="str">
+        <f>IF(D10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E30" s="51" t="str">
+        <f>IF(E10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F30" s="52" t="str">
+        <f>IF(F10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G30" s="40">
+        <f>(COUNTIF(C30:F30, "Pass") * 100) + (COUNTIF(C30:F30, "Fail") * 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="44" t="e">
+        <f>C17/(C13+C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="44" t="e">
+        <f>D17/(D13+D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="44" t="e">
+        <f>E17/(E13+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="45" t="e">
+        <f>F17/(F13+F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="40" t="e">
+        <f> (IF(C31 &gt; 0.23, 100, 0)) +
+  (IF(D31 &gt; 0.23, 100, 0)) +
+  (IF(E31 &gt; 0.23, 100, 0)) +
+  (IF(F31 &gt; 0.23, 100, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="54" t="str">
+        <f>IF(C5&gt;F5, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57">
+        <f>((COUNTIF(C32, "Pass") * 100) + (COUNTIF(C32, "Fail") * 0)) * (400/100)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
@@ -4099,4 +7549,3397 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="200"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="177" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="22" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="19" t="e">
+        <f>((G21 * ('scoring theory'!B8)) + (G22 * ('scoring theory'!B8)) + (G23 * 'scoring theory'!B2) + (G24 * 'scoring theory'!B11) + (G25 * 'scoring theory'!B5) + (G26 * 'scoring theory'!B6) + (G27 * 'scoring theory'!B4) + (G28 * 'scoring theory'!B10) + (G29 * 'scoring theory'!B7) + (G30 * 'scoring theory'!B9) + (G31 * 'scoring theory'!B3) + (G32 * 'scoring theory'!B12)) / 400</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="21">
+        <v>5282000000</v>
+      </c>
+      <c r="D3" s="21">
+        <v>5159000000</v>
+      </c>
+      <c r="E3" s="21">
+        <v>2605000000</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1826000000</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="21">
+        <v>5260000000</v>
+      </c>
+      <c r="D4" s="21">
+        <v>4845000000</v>
+      </c>
+      <c r="E4" s="21">
+        <v>3607000000</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2856000000</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="21">
+        <v>4430000000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>4372000000</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4349000000</v>
+      </c>
+      <c r="F5" s="22">
+        <v>4193000000</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="21">
+        <v>65728000000</v>
+      </c>
+      <c r="D6" s="21">
+        <v>41182000000</v>
+      </c>
+      <c r="E6" s="21">
+        <v>44187000000</v>
+      </c>
+      <c r="F6" s="22">
+        <v>28791000000</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="21">
+        <v>10631000000</v>
+      </c>
+      <c r="D7" s="21">
+        <v>6563000000</v>
+      </c>
+      <c r="E7" s="21">
+        <v>4335000000</v>
+      </c>
+      <c r="F7" s="22">
+        <v>3925000000</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="21">
+        <v>12119000000</v>
+      </c>
+      <c r="D8" s="21">
+        <v>12518000000</v>
+      </c>
+      <c r="E8" s="21">
+        <v>13240000000</v>
+      </c>
+      <c r="F8" s="22">
+        <v>7973000000</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="21">
+        <v>22750000000</v>
+      </c>
+      <c r="D9" s="21">
+        <v>19081000000</v>
+      </c>
+      <c r="E9" s="21">
+        <v>17575000000</v>
+      </c>
+      <c r="F9" s="22">
+        <v>11898000000</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="22">
+        <v>10756000000</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="21">
+        <v>29817000000</v>
+      </c>
+      <c r="D12" s="21">
+        <v>10171000000</v>
+      </c>
+      <c r="E12" s="21">
+        <v>16235000000</v>
+      </c>
+      <c r="F12" s="22">
+        <v>18908000000</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="21">
+        <v>42978000000</v>
+      </c>
+      <c r="D13" s="21">
+        <v>22101000000</v>
+      </c>
+      <c r="E13" s="21">
+        <v>26612000000</v>
+      </c>
+      <c r="F13" s="22">
+        <v>16893000000</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="21">
+        <v>8675000000</v>
+      </c>
+      <c r="D15" s="21">
+        <v>7339000000</v>
+      </c>
+      <c r="E15" s="21">
+        <v>5268000000</v>
+      </c>
+      <c r="F15" s="22">
+        <v>3924000000</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="28">
+        <v>28090000000</v>
+      </c>
+      <c r="D17" s="28">
+        <v>5641000000</v>
+      </c>
+      <c r="E17" s="28">
+        <v>9108000000</v>
+      </c>
+      <c r="F17" s="29">
+        <v>5822000000</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="38" t="str">
+        <f>IF(C3&gt;D3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D21" s="38" t="str">
+        <f>IF(D3&gt;E3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E21" s="38" t="str">
+        <f>IF(E3&gt;F3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40">
+        <f>(((COUNTIF(C21:E21, "Pass") * 100) + (COUNTIF(C21:E21, "Fail") * 0)) * (400/300)) / 2</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="42"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="38" t="str">
+        <f>IF(C17&gt;D17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D22" s="38" t="str">
+        <f>IF(D17&gt;E17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E22" s="38" t="str">
+        <f>IF(E17&gt;F17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
+        <f>(((COUNTIF(C22:F22, "Pass") * 100) + (COUNTIF(C22:F22, "Fail") * 0)) * (400/300)) / 2</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="38" t="str">
+        <f>IF(C17&gt;C7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D23" s="38" t="str">
+        <f>IF(D17&gt;D7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E23" s="38" t="str">
+        <f>IF(E17&gt;E7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F23" s="43" t="str">
+        <f>IF(F17&gt;F7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G23" s="40">
+        <f>(COUNTIF(C23:F23, "Pass") * 100) + (COUNTIF(C23:F23, "Fail") * 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="44" t="e">
+        <f>C17/(C4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="44" t="e">
+        <f>D17/(D4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="44" t="e">
+        <f>E17/(E4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="45" t="e">
+        <f>F17/(F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="40" t="e">
+        <f> (IF(C24 &gt; 0.5, 100, IF(C24 &gt;= 0.2, 50, 0))) +
+  (IF(D24 &gt; 0.5, 100, IF(D24 &gt;= 0.2, 50, 0))) +
+  (IF(E24 &gt; 0.5, 100, IF(E24 &gt;= 0.2, 50, 0))) +
+  (IF(F24 &gt; 0.5, 100, IF(F24 &gt;= 0.2, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="44" t="e">
+        <f>C17/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="44" t="e">
+        <f>D17/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="44" t="e">
+        <f>E17/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="45" t="e">
+        <f>F17/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="40" t="e">
+        <f> (IF(C25 &gt; 0.17, 100, IF(C25 &gt;= 0.1, 50, 0))) +
+  (IF(D25 &gt; 0.17, 100, IF(D25 &gt;= 0.1, 50, 0))) +
+  (IF(E25 &gt; 0.17, 100, IF(E25 &gt;= 0.1, 50, 0))) +
+  (IF(F25 &gt; 0.17, 100, IF(F25 &gt;= 0.1, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="44" t="e">
+        <f>C8/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="44" t="e">
+        <f>D8/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="44" t="e">
+        <f>E8/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="45" t="e">
+        <f>F8/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="40" t="e">
+        <f> (IF(C26 &lt; 0.5, 100, 0)) +
+  (IF(D26 &lt; 0.5, 100, 0)) +
+  (IF(E26 &lt; 0.5, 100, 0)) +
+  (IF(F26 &lt; 0.5, 100, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="44" t="e">
+        <f>C9/(C13+C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="44" t="e">
+        <f>D9/(D13+D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="44" t="e">
+        <f>E9/(E13+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="45" t="e">
+        <f>F9/(F13+F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="40" t="e">
+        <f> (IF(C27 &lt; 0.8, 100, IF(C27 &lt; 1, 50, 0))) +
+  (IF(D27 &lt; 0.8, 100, IF(D27 &lt; 1, 50, 0))) +
+  (IF(E27 &lt; 0.8, 100, IF(E27 &lt; 1, 50, 0))) +
+  (IF(F27 &lt; 0.8, 100, IF(F27 &lt; 1, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="38" t="str">
+        <f>IF(C11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D28" s="46" t="str">
+        <f>IF(D11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="E28" s="46" t="str">
+        <f>IF(E11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="F28" s="47" t="str">
+        <f>IF(F11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="G28" s="40">
+        <f>(COUNTIF(C28:F28, "Pass") * 100) + (COUNTIF(C28:F28, "Fail") * 0)</f>
+        <v>400</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="45" t="e">
+        <f>(((C12-D12)/D12)+((D12-E12)/E12)+((E12-F12)/F12))/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="40" t="e">
+        <f>(IF(C29 &gt;= 0.17, 100, IF(C29 &gt;= 0, 50, 0))) * (400/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="38" t="str">
+        <f>IF(C10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D30" s="51" t="str">
+        <f>IF(D10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E30" s="51" t="str">
+        <f>IF(E10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F30" s="52" t="str">
+        <f>IF(F10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G30" s="40">
+        <f>(COUNTIF(C30:F30, "Pass") * 100) + (COUNTIF(C30:F30, "Fail") * 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="44" t="e">
+        <f>C17/(C13+C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="44" t="e">
+        <f>D17/(D13+D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="44" t="e">
+        <f>E17/(E13+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="45" t="e">
+        <f>F17/(F13+F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="40" t="e">
+        <f> (IF(C31 &gt; 0.23, 100, 0)) +
+  (IF(D31 &gt; 0.23, 100, 0)) +
+  (IF(E31 &gt; 0.23, 100, 0)) +
+  (IF(F31 &gt; 0.23, 100, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="54" t="str">
+        <f>IF(C5&gt;F5, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57">
+        <f>((COUNTIF(C32, "Pass") * 100) + (COUNTIF(C32, "Fail") * 0)) * (400/100)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="200"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="177" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="22" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="19" t="e">
+        <f>((G21 * ('scoring theory'!B8)) + (G22 * ('scoring theory'!B8)) + (G23 * 'scoring theory'!B2) + (G24 * 'scoring theory'!B11) + (G25 * 'scoring theory'!B5) + (G26 * 'scoring theory'!B6) + (G27 * 'scoring theory'!B4) + (G28 * 'scoring theory'!B10) + (G29 * 'scoring theory'!B7) + (G30 * 'scoring theory'!B9) + (G31 * 'scoring theory'!B3) + (G32 * 'scoring theory'!B12)) / 400</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1246000000</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2500000000</v>
+      </c>
+      <c r="E3" s="21">
+        <v>3742000000</v>
+      </c>
+      <c r="F3" s="22">
+        <v>2636000000</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="21">
+        <v>154552000000</v>
+      </c>
+      <c r="D4" s="21">
+        <v>109987000000</v>
+      </c>
+      <c r="E4" s="21">
+        <v>87546000000</v>
+      </c>
+      <c r="F4" s="22">
+        <v>70803000000</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="21">
+        <v>119220000000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>67886000000</v>
+      </c>
+      <c r="E5" s="21">
+        <v>67524000000</v>
+      </c>
+      <c r="F5" s="22">
+        <v>49711000000</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="21">
+        <v>512163000000</v>
+      </c>
+      <c r="D6" s="21">
+        <v>411976000000</v>
+      </c>
+      <c r="E6" s="21">
+        <v>364840000000</v>
+      </c>
+      <c r="F6" s="22">
+        <v>333779000000</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="21">
+        <v>125286000000</v>
+      </c>
+      <c r="D7" s="21">
+        <v>104149000000</v>
+      </c>
+      <c r="E7" s="21">
+        <v>95082000000</v>
+      </c>
+      <c r="F7" s="22">
+        <v>88657000000</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="21">
+        <v>118400000000</v>
+      </c>
+      <c r="D8" s="21">
+        <v>101604000000</v>
+      </c>
+      <c r="E8" s="21">
+        <v>103216000000</v>
+      </c>
+      <c r="F8" s="22">
+        <v>103134000000</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="21">
+        <v>243686000000</v>
+      </c>
+      <c r="D9" s="21">
+        <v>205753000000</v>
+      </c>
+      <c r="E9" s="21">
+        <v>198298000000</v>
+      </c>
+      <c r="F9" s="22">
+        <v>191791000000</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="21">
+        <v>173144000000</v>
+      </c>
+      <c r="D12" s="21">
+        <v>118848000000</v>
+      </c>
+      <c r="E12" s="21">
+        <v>84281000000</v>
+      </c>
+      <c r="F12" s="22">
+        <v>57055000000</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="21">
+        <v>268477000000</v>
+      </c>
+      <c r="D13" s="21">
+        <v>206223000000</v>
+      </c>
+      <c r="E13" s="21">
+        <v>166542000000</v>
+      </c>
+      <c r="F13" s="22">
+        <v>141988000000</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="21">
+        <v>29510000000</v>
+      </c>
+      <c r="D15" s="21">
+        <v>27195000000</v>
+      </c>
+      <c r="E15" s="21">
+        <v>24512000000</v>
+      </c>
+      <c r="F15" s="22">
+        <v>20716000000</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="28">
+        <v>118548000000</v>
+      </c>
+      <c r="D17" s="28">
+        <v>87582000000</v>
+      </c>
+      <c r="E17" s="28">
+        <v>89035000000</v>
+      </c>
+      <c r="F17" s="29">
+        <v>76740000000</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="38" t="str">
+        <f>IF(C3&gt;D3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D21" s="38" t="str">
+        <f>IF(D3&gt;E3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E21" s="38" t="str">
+        <f>IF(E3&gt;F3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40">
+        <f>(((COUNTIF(C21:E21, "Pass") * 100) + (COUNTIF(C21:E21, "Fail") * 0)) * (400/300)) / 2</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="42"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="38" t="str">
+        <f>IF(C17&gt;D17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D22" s="38" t="str">
+        <f>IF(D17&gt;E17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E22" s="38" t="str">
+        <f>IF(E17&gt;F17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
+        <f>(((COUNTIF(C22:F22, "Pass") * 100) + (COUNTIF(C22:F22, "Fail") * 0)) * (400/300)) / 2</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="38" t="str">
+        <f>IF(C17&gt;C7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D23" s="38" t="str">
+        <f>IF(D17&gt;D7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E23" s="38" t="str">
+        <f>IF(E17&gt;E7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F23" s="43" t="str">
+        <f>IF(F17&gt;F7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G23" s="40">
+        <f>(COUNTIF(C23:F23, "Pass") * 100) + (COUNTIF(C23:F23, "Fail") * 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="44" t="e">
+        <f>C17/(C4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="44" t="e">
+        <f>D17/(D4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="44" t="e">
+        <f>E17/(E4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="45" t="e">
+        <f>F17/(F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="40" t="e">
+        <f> (IF(C24 &gt; 0.5, 100, IF(C24 &gt;= 0.2, 50, 0))) +
+  (IF(D24 &gt; 0.5, 100, IF(D24 &gt;= 0.2, 50, 0))) +
+  (IF(E24 &gt; 0.5, 100, IF(E24 &gt;= 0.2, 50, 0))) +
+  (IF(F24 &gt; 0.5, 100, IF(F24 &gt;= 0.2, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="44" t="e">
+        <f>C17/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="44" t="e">
+        <f>D17/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="44" t="e">
+        <f>E17/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="45" t="e">
+        <f>F17/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="40" t="e">
+        <f> (IF(C25 &gt; 0.17, 100, IF(C25 &gt;= 0.1, 50, 0))) +
+  (IF(D25 &gt; 0.17, 100, IF(D25 &gt;= 0.1, 50, 0))) +
+  (IF(E25 &gt; 0.17, 100, IF(E25 &gt;= 0.1, 50, 0))) +
+  (IF(F25 &gt; 0.17, 100, IF(F25 &gt;= 0.1, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="44" t="e">
+        <f>C8/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="44" t="e">
+        <f>D8/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="44" t="e">
+        <f>E8/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="45" t="e">
+        <f>F8/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="40" t="e">
+        <f> (IF(C26 &lt; 0.5, 100, 0)) +
+  (IF(D26 &lt; 0.5, 100, 0)) +
+  (IF(E26 &lt; 0.5, 100, 0)) +
+  (IF(F26 &lt; 0.5, 100, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="44" t="e">
+        <f>C9/(C13+C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="44" t="e">
+        <f>D9/(D13+D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="44" t="e">
+        <f>E9/(E13+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="45" t="e">
+        <f>F9/(F13+F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="40" t="e">
+        <f> (IF(C27 &lt; 0.8, 100, IF(C27 &lt; 1, 50, 0))) +
+  (IF(D27 &lt; 0.8, 100, IF(D27 &lt; 1, 50, 0))) +
+  (IF(E27 &lt; 0.8, 100, IF(E27 &lt; 1, 50, 0))) +
+  (IF(F27 &lt; 0.8, 100, IF(F27 &lt; 1, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="38" t="str">
+        <f>IF(C11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D28" s="46" t="str">
+        <f>IF(D11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="E28" s="46" t="str">
+        <f>IF(E11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="F28" s="47" t="str">
+        <f>IF(F11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="G28" s="40">
+        <f>(COUNTIF(C28:F28, "Pass") * 100) + (COUNTIF(C28:F28, "Fail") * 0)</f>
+        <v>400</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="45" t="e">
+        <f>(((C12-D12)/D12)+((D12-E12)/E12)+((E12-F12)/F12))/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="40" t="e">
+        <f>(IF(C29 &gt;= 0.17, 100, IF(C29 &gt;= 0, 50, 0))) * (400/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="38" t="str">
+        <f>IF(C10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D30" s="51" t="str">
+        <f>IF(D10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E30" s="51" t="str">
+        <f>IF(E10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F30" s="52" t="str">
+        <f>IF(F10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G30" s="40">
+        <f>(COUNTIF(C30:F30, "Pass") * 100) + (COUNTIF(C30:F30, "Fail") * 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="44" t="e">
+        <f>C17/(C13+C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="44" t="e">
+        <f>D17/(D13+D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="44" t="e">
+        <f>E17/(E13+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="45" t="e">
+        <f>F17/(F13+F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="40" t="e">
+        <f> (IF(C31 &gt; 0.23, 100, 0)) +
+  (IF(D31 &gt; 0.23, 100, 0)) +
+  (IF(E31 &gt; 0.23, 100, 0)) +
+  (IF(F31 &gt; 0.23, 100, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="54" t="str">
+        <f>IF(C5&gt;F5, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57">
+        <f>((COUNTIF(C32, "Pass") * 100) + (COUNTIF(C32, "Fail") * 0)) * (400/100)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="200"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="177" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="22" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="19" t="e">
+        <f>((G21 * ('scoring theory'!B8)) + (G22 * ('scoring theory'!B8)) + (G23 * 'scoring theory'!B2) + (G24 * 'scoring theory'!B11) + (G25 * 'scoring theory'!B5) + (G26 * 'scoring theory'!B6) + (G27 * 'scoring theory'!B4) + (G28 * 'scoring theory'!B10) + (G29 * 'scoring theory'!B7) + (G30 * 'scoring theory'!B9) + (G31 * 'scoring theory'!B3) + (G32 * 'scoring theory'!B12)) / 400</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="21">
+        <v>33318000000</v>
+      </c>
+      <c r="D3" s="21">
+        <v>34405000000</v>
+      </c>
+      <c r="E3" s="21">
+        <v>32640000000</v>
+      </c>
+      <c r="F3" s="22">
+        <v>23795000000</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="21">
+        <v>276690000000</v>
+      </c>
+      <c r="D4" s="21">
+        <v>252838000000</v>
+      </c>
+      <c r="E4" s="21">
+        <v>216363000000</v>
+      </c>
+      <c r="F4" s="22">
+        <v>150667000000</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="21">
+        <v>22789000000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>20288000000</v>
+      </c>
+      <c r="E5" s="21">
+        <v>15371000000</v>
+      </c>
+      <c r="F5" s="22">
+        <v>15017000000</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="21">
+        <v>527854000000</v>
+      </c>
+      <c r="D6" s="21">
+        <v>462675000000</v>
+      </c>
+      <c r="E6" s="21">
+        <v>420549000000</v>
+      </c>
+      <c r="F6" s="22">
+        <v>321195000000</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="21">
+        <v>164917000000</v>
+      </c>
+      <c r="D7" s="21">
+        <v>155393000000</v>
+      </c>
+      <c r="E7" s="21">
+        <v>142266000000</v>
+      </c>
+      <c r="F7" s="22">
+        <v>126385000000</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="21">
+        <v>161062000000</v>
+      </c>
+      <c r="D8" s="21">
+        <v>161239000000</v>
+      </c>
+      <c r="E8" s="21">
+        <v>140038000000</v>
+      </c>
+      <c r="F8" s="22">
+        <v>101406000000</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="21">
+        <v>325979000000</v>
+      </c>
+      <c r="D9" s="21">
+        <v>316632000000</v>
+      </c>
+      <c r="E9" s="21">
+        <v>282304000000</v>
+      </c>
+      <c r="F9" s="22">
+        <v>227791000000</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="21">
+        <v>7837000000</v>
+      </c>
+      <c r="D10" s="21">
+        <v>7837000000</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1837000000</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1837000000</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="21">
+        <v>113618000000</v>
+      </c>
+      <c r="D12" s="21">
+        <v>83193000000</v>
+      </c>
+      <c r="E12" s="21">
+        <v>85915000000</v>
+      </c>
+      <c r="F12" s="22">
+        <v>52551000000</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="21">
+        <v>201875000000</v>
+      </c>
+      <c r="D13" s="21">
+        <v>146043000000</v>
+      </c>
+      <c r="E13" s="21">
+        <v>138245000000</v>
+      </c>
+      <c r="F13" s="22">
+        <v>93404000000</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="22">
+        <v>42740000000</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="28">
+        <v>84946000000</v>
+      </c>
+      <c r="D17" s="28">
+        <v>46752000000</v>
+      </c>
+      <c r="E17" s="28">
+        <v>46327000000</v>
+      </c>
+      <c r="F17" s="29">
+        <v>66064000000</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="38" t="str">
+        <f>IF(C3&gt;D3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D21" s="38" t="str">
+        <f>IF(D3&gt;E3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E21" s="38" t="str">
+        <f>IF(E3&gt;F3, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40">
+        <f>(((COUNTIF(C21:E21, "Pass") * 100) + (COUNTIF(C21:E21, "Fail") * 0)) * (400/300)) / 2</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="42"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="38" t="str">
+        <f>IF(C17&gt;D17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D22" s="38" t="str">
+        <f>IF(D17&gt;E17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E22" s="38" t="str">
+        <f>IF(E17&gt;F17, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="40">
+        <f>(((COUNTIF(C22:F22, "Pass") * 100) + (COUNTIF(C22:F22, "Fail") * 0)) * (400/300)) / 2</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="38" t="str">
+        <f>IF(C17&gt;C7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D23" s="38" t="str">
+        <f>IF(D17&gt;D7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E23" s="38" t="str">
+        <f>IF(E17&gt;E7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F23" s="43" t="str">
+        <f>IF(F17&gt;F7, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G23" s="40">
+        <f>(COUNTIF(C23:F23, "Pass") * 100) + (COUNTIF(C23:F23, "Fail") * 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="44" t="e">
+        <f>C17/(C4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="44" t="e">
+        <f>D17/(D4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="44" t="e">
+        <f>E17/(E4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="45" t="e">
+        <f>F17/(F4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="40" t="e">
+        <f> (IF(C24 &gt; 0.5, 100, IF(C24 &gt;= 0.2, 50, 0))) +
+  (IF(D24 &gt; 0.5, 100, IF(D24 &gt;= 0.2, 50, 0))) +
+  (IF(E24 &gt; 0.5, 100, IF(E24 &gt;= 0.2, 50, 0))) +
+  (IF(F24 &gt; 0.5, 100, IF(F24 &gt;= 0.2, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="44" t="e">
+        <f>C17/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="44" t="e">
+        <f>D17/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="44" t="e">
+        <f>E17/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="45" t="e">
+        <f>F17/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="40" t="e">
+        <f> (IF(C25 &gt; 0.17, 100, IF(C25 &gt;= 0.1, 50, 0))) +
+  (IF(D25 &gt; 0.17, 100, IF(D25 &gt;= 0.1, 50, 0))) +
+  (IF(E25 &gt; 0.17, 100, IF(E25 &gt;= 0.1, 50, 0))) +
+  (IF(F25 &gt; 0.17, 100, IF(F25 &gt;= 0.1, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="44" t="e">
+        <f>C8/C6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="44" t="e">
+        <f>D8/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="44" t="e">
+        <f>E8/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="45" t="e">
+        <f>F8/F6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="40" t="e">
+        <f> (IF(C26 &lt; 0.5, 100, 0)) +
+  (IF(D26 &lt; 0.5, 100, 0)) +
+  (IF(E26 &lt; 0.5, 100, 0)) +
+  (IF(F26 &lt; 0.5, 100, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="44" t="e">
+        <f>C9/(C13+C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="44" t="e">
+        <f>D9/(D13+D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="44" t="e">
+        <f>E9/(E13+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="45" t="e">
+        <f>F9/(F13+F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="40" t="e">
+        <f> (IF(C27 &lt; 0.8, 100, IF(C27 &lt; 1, 50, 0))) +
+  (IF(D27 &lt; 0.8, 100, IF(D27 &lt; 1, 50, 0))) +
+  (IF(E27 &lt; 0.8, 100, IF(E27 &lt; 1, 50, 0))) +
+  (IF(F27 &lt; 0.8, 100, IF(F27 &lt; 1, 50, 0)))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="38" t="str">
+        <f>IF(C11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="D28" s="46" t="str">
+        <f>IF(D11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="E28" s="46" t="str">
+        <f>IF(E11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="F28" s="47" t="str">
+        <f>IF(F11=0, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="G28" s="40">
+        <f>(COUNTIF(C28:F28, "Pass") * 100) + (COUNTIF(C28:F28, "Fail") * 0)</f>
+        <v>400</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="45" t="e">
+        <f>(((C12-D12)/D12)+((D12-E12)/E12)+((E12-F12)/F12))/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="40" t="e">
+        <f>(IF(C29 &gt;= 0.17, 100, IF(C29 &gt;= 0, 50, 0))) * (400/100)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="38" t="str">
+        <f>IF(C10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D30" s="51" t="str">
+        <f>IF(D10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="E30" s="51" t="str">
+        <f>IF(E10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="F30" s="52" t="str">
+        <f>IF(F10&lt;&gt;0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G30" s="40">
+        <f>(COUNTIF(C30:F30, "Pass") * 100) + (COUNTIF(C30:F30, "Fail") * 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="44" t="e">
+        <f>C17/(C13+C10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="44" t="e">
+        <f>D17/(D13+D10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="44" t="e">
+        <f>E17/(E13+E10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="45" t="e">
+        <f>F17/(F13+F10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="40" t="e">
+        <f> (IF(C31 &gt; 0.23, 100, 0)) +
+  (IF(D31 &gt; 0.23, 100, 0)) +
+  (IF(E31 &gt; 0.23, 100, 0)) +
+  (IF(F31 &gt; 0.23, 100, 0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="54" t="str">
+        <f>IF(C5&gt;F5, "Pass", "Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57">
+        <f>((COUNTIF(C32, "Pass") * 100) + (COUNTIF(C32, "Fail") * 0)) * (400/100)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/output/TICKER_RESULTS.xlsx
+++ b/output/TICKER_RESULTS.xlsx
@@ -10,12 +10,12 @@
     <sheet sheetId="13" name="Summary" state="visible" r:id="rId4"/>
     <sheet sheetId="4" name="scoring theory" state="visible" r:id="rId5"/>
     <sheet sheetId="12" name="&lt;TICKER&gt; Results" state="visible" r:id="rId6"/>
-    <sheet sheetId="1" name="NVDA Results" state="visible" r:id="rId7"/>
-    <sheet sheetId="2" name="GOOG Results" state="visible" r:id="rId8"/>
+    <sheet sheetId="1" name="GOOG Results" state="visible" r:id="rId7"/>
+    <sheet sheetId="2" name="NVDA Results" state="visible" r:id="rId8"/>
     <sheet sheetId="3" name="GOOGL Results" state="visible" r:id="rId9"/>
-    <sheet sheetId="5" name="MSFT Results" state="visible" r:id="rId10"/>
+    <sheet sheetId="5" name="AAPL Results" state="visible" r:id="rId10"/>
     <sheet sheetId="6" name="AMZN Results" state="visible" r:id="rId11"/>
-    <sheet sheetId="7" name="AAPL Results" state="visible" r:id="rId12"/>
+    <sheet sheetId="7" name="MSFT Results" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -27,25 +27,25 @@
     <t>Ticker</t>
   </si>
   <si>
+    <t>Score (%)</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
     <t>NVDA</t>
   </si>
   <si>
-    <t>GOOG</t>
-  </si>
-  <si>
     <t>GOOGL</t>
   </si>
   <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
     <t>MSFT</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>Score Percent</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -464,6 +464,18 @@
     <t>increase indicates the company is making acquisitions for more than the entity's fair value meaning they paid a premium for strategic value or growth potential</t>
   </si>
   <si>
+    <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
     <t>2024-01-31</t>
   </si>
   <si>
@@ -476,16 +488,16 @@
     <t>2021-01-31</t>
   </si>
   <si>
-    <t>2023-12-31</t>
-  </si>
-  <si>
-    <t>2022-12-31</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
   </si>
   <si>
     <t>2024-06-30</t>
@@ -498,18 +510,6 @@
   </si>
   <si>
     <t>2021-06-30</t>
-  </si>
-  <si>
-    <t>2023-09-30</t>
-  </si>
-  <si>
-    <t>2022-09-30</t>
-  </si>
-  <si>
-    <t>2021-09-30</t>
-  </si>
-  <si>
-    <t>2020-09-30</t>
   </si>
 </sst>
 </file>
@@ -1015,12 +1015,27 @@
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1035,6 +1050,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1045,12 +1061,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1736,16 +1746,16 @@
         <v>74</v>
       </c>
       <c r="C3" s="26">
-        <v>5282000000</v>
+        <v>0</v>
       </c>
       <c r="D3" s="26">
-        <v>5159000000</v>
+        <v>2670000000</v>
       </c>
       <c r="E3" s="26">
-        <v>2605000000</v>
+        <v>1170000000</v>
       </c>
       <c r="F3" s="27">
-        <v>1826000000</v>
+        <v>728000000</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -1770,16 +1780,16 @@
         <v>75</v>
       </c>
       <c r="C4" s="26">
-        <v>5260000000</v>
+        <v>148436000000</v>
       </c>
       <c r="D4" s="26">
-        <v>4845000000</v>
+        <v>127049000000</v>
       </c>
       <c r="E4" s="26">
-        <v>3607000000</v>
+        <v>110558000000</v>
       </c>
       <c r="F4" s="27">
-        <v>2856000000</v>
+        <v>96960000000</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
@@ -1804,16 +1814,16 @@
         <v>76</v>
       </c>
       <c r="C5" s="26">
-        <v>4430000000</v>
+        <v>29198000000</v>
       </c>
       <c r="D5" s="26">
-        <v>4372000000</v>
+        <v>28960000000</v>
       </c>
       <c r="E5" s="26">
-        <v>4349000000</v>
+        <v>22956000000</v>
       </c>
       <c r="F5" s="27">
-        <v>4193000000</v>
+        <v>21175000000</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -1838,16 +1848,16 @@
         <v>77</v>
       </c>
       <c r="C6" s="26">
-        <v>65728000000</v>
+        <v>402392000000</v>
       </c>
       <c r="D6" s="26">
-        <v>41182000000</v>
+        <v>365264000000</v>
       </c>
       <c r="E6" s="26">
-        <v>44187000000</v>
+        <v>359268000000</v>
       </c>
       <c r="F6" s="27">
-        <v>28791000000</v>
+        <v>319616000000</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
@@ -1872,16 +1882,16 @@
         <v>78</v>
       </c>
       <c r="C7" s="26">
-        <v>10631000000</v>
+        <v>81814000000</v>
       </c>
       <c r="D7" s="26">
-        <v>6563000000</v>
+        <v>69300000000</v>
       </c>
       <c r="E7" s="26">
-        <v>4335000000</v>
+        <v>64254000000</v>
       </c>
       <c r="F7" s="27">
-        <v>3925000000</v>
+        <v>56834000000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -1906,16 +1916,16 @@
         <v>79</v>
       </c>
       <c r="C8" s="26">
-        <v>12119000000</v>
+        <v>37199000000</v>
       </c>
       <c r="D8" s="26">
-        <v>12518000000</v>
+        <v>39820000000</v>
       </c>
       <c r="E8" s="26">
-        <v>13240000000</v>
+        <v>43379000000</v>
       </c>
       <c r="F8" s="27">
-        <v>7973000000</v>
+        <v>40238000000</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -1940,16 +1950,16 @@
         <v>80</v>
       </c>
       <c r="C9" s="26">
-        <v>22750000000</v>
+        <v>119013000000</v>
       </c>
       <c r="D9" s="26">
-        <v>19081000000</v>
+        <v>109120000000</v>
       </c>
       <c r="E9" s="26">
-        <v>17575000000</v>
+        <v>107633000000</v>
       </c>
       <c r="F9" s="27">
-        <v>11898000000</v>
+        <v>97072000000</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -1983,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="27">
-        <v>10756000000</v>
+        <v>0</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -2042,16 +2052,16 @@
         <v>83</v>
       </c>
       <c r="C12" s="26">
-        <v>29817000000</v>
+        <v>211247000000</v>
       </c>
       <c r="D12" s="26">
-        <v>10171000000</v>
+        <v>195563000000</v>
       </c>
       <c r="E12" s="26">
-        <v>16235000000</v>
+        <v>191484000000</v>
       </c>
       <c r="F12" s="27">
-        <v>18908000000</v>
+        <v>163401000000</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -2076,16 +2086,16 @@
         <v>84</v>
       </c>
       <c r="C13" s="26">
-        <v>42978000000</v>
+        <v>283379000000</v>
       </c>
       <c r="D13" s="26">
-        <v>22101000000</v>
+        <v>256144000000</v>
       </c>
       <c r="E13" s="26">
-        <v>26612000000</v>
+        <v>251635000000</v>
       </c>
       <c r="F13" s="27">
-        <v>16893000000</v>
+        <v>222544000000</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -2136,16 +2146,16 @@
         <v>86</v>
       </c>
       <c r="C15" s="26">
-        <v>8675000000</v>
+        <v>45427000000</v>
       </c>
       <c r="D15" s="26">
-        <v>7339000000</v>
+        <v>39500000000</v>
       </c>
       <c r="E15" s="26">
-        <v>5268000000</v>
+        <v>31562000000</v>
       </c>
       <c r="F15" s="27">
-        <v>3924000000</v>
+        <v>27573000000</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -2196,16 +2206,16 @@
         <v>88</v>
       </c>
       <c r="C17" s="33">
-        <v>28090000000</v>
+        <v>101746000000</v>
       </c>
       <c r="D17" s="33">
-        <v>5641000000</v>
+        <v>91495000000</v>
       </c>
       <c r="E17" s="33">
-        <v>9108000000</v>
+        <v>91652000000</v>
       </c>
       <c r="F17" s="34">
-        <v>5822000000</v>
+        <v>65124000000</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -4764,87 +4774,77 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="265" zoomScaleNormal="100">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="7" width="15" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="6">
+        <f>'GOOG Results'!I2</f>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="6">
+        <f>'NVDA Results'!I2</f>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" s="6">
+        <f>'GOOGL Results'!I2</f>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B5" s="6">
+        <f>'AAPL Results'!I2</f>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B6" s="6">
+        <f>'AMZN Results'!I2</f>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
-        <f>'NVDA Results'!I2</f>
-      </c>
-      <c r="C2" s="3">
-        <f>'GOOG Results'!I2</f>
-      </c>
-      <c r="D2" s="3">
-        <f>'GOOGL Results'!I2</f>
-      </c>
-      <c r="E2" s="3">
+      <c r="B7" s="6">
         <f>'MSFT Results'!I2</f>
       </c>
-      <c r="F2" s="3">
-        <f>'AMZN Results'!I2</f>
-      </c>
-      <c r="G2" s="3">
-        <f>'AAPL Results'!I2</f>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
@@ -4913,16 +4913,16 @@
         <v>74</v>
       </c>
       <c r="C3" s="26">
-        <v>0</v>
+        <v>5282000000</v>
       </c>
       <c r="D3" s="26">
-        <v>2670000000</v>
+        <v>5159000000</v>
       </c>
       <c r="E3" s="26">
-        <v>1170000000</v>
+        <v>2605000000</v>
       </c>
       <c r="F3" s="27">
-        <v>728000000</v>
+        <v>1826000000</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -4947,16 +4947,16 @@
         <v>75</v>
       </c>
       <c r="C4" s="26">
-        <v>148436000000</v>
+        <v>5260000000</v>
       </c>
       <c r="D4" s="26">
-        <v>127049000000</v>
+        <v>4845000000</v>
       </c>
       <c r="E4" s="26">
-        <v>110558000000</v>
+        <v>3607000000</v>
       </c>
       <c r="F4" s="27">
-        <v>96960000000</v>
+        <v>2856000000</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
@@ -4981,16 +4981,16 @@
         <v>76</v>
       </c>
       <c r="C5" s="26">
-        <v>29198000000</v>
+        <v>4430000000</v>
       </c>
       <c r="D5" s="26">
-        <v>28960000000</v>
+        <v>4372000000</v>
       </c>
       <c r="E5" s="26">
-        <v>22956000000</v>
+        <v>4349000000</v>
       </c>
       <c r="F5" s="27">
-        <v>21175000000</v>
+        <v>4193000000</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -5015,16 +5015,16 @@
         <v>77</v>
       </c>
       <c r="C6" s="26">
-        <v>402392000000</v>
+        <v>65728000000</v>
       </c>
       <c r="D6" s="26">
-        <v>365264000000</v>
+        <v>41182000000</v>
       </c>
       <c r="E6" s="26">
-        <v>359268000000</v>
+        <v>44187000000</v>
       </c>
       <c r="F6" s="27">
-        <v>319616000000</v>
+        <v>28791000000</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
@@ -5049,16 +5049,16 @@
         <v>78</v>
       </c>
       <c r="C7" s="26">
-        <v>81814000000</v>
+        <v>10631000000</v>
       </c>
       <c r="D7" s="26">
-        <v>69300000000</v>
+        <v>6563000000</v>
       </c>
       <c r="E7" s="26">
-        <v>64254000000</v>
+        <v>4335000000</v>
       </c>
       <c r="F7" s="27">
-        <v>56834000000</v>
+        <v>3925000000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -5083,16 +5083,16 @@
         <v>79</v>
       </c>
       <c r="C8" s="26">
-        <v>37199000000</v>
+        <v>12119000000</v>
       </c>
       <c r="D8" s="26">
-        <v>39820000000</v>
+        <v>12518000000</v>
       </c>
       <c r="E8" s="26">
-        <v>43379000000</v>
+        <v>13240000000</v>
       </c>
       <c r="F8" s="27">
-        <v>40238000000</v>
+        <v>7973000000</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -5117,16 +5117,16 @@
         <v>80</v>
       </c>
       <c r="C9" s="26">
-        <v>119013000000</v>
+        <v>22750000000</v>
       </c>
       <c r="D9" s="26">
-        <v>109120000000</v>
+        <v>19081000000</v>
       </c>
       <c r="E9" s="26">
-        <v>107633000000</v>
+        <v>17575000000</v>
       </c>
       <c r="F9" s="27">
-        <v>97072000000</v>
+        <v>11898000000</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="27">
-        <v>0</v>
+        <v>10756000000</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -5219,16 +5219,16 @@
         <v>83</v>
       </c>
       <c r="C12" s="26">
-        <v>211247000000</v>
+        <v>29817000000</v>
       </c>
       <c r="D12" s="26">
-        <v>195563000000</v>
+        <v>10171000000</v>
       </c>
       <c r="E12" s="26">
-        <v>191484000000</v>
+        <v>16235000000</v>
       </c>
       <c r="F12" s="27">
-        <v>163401000000</v>
+        <v>18908000000</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -5253,16 +5253,16 @@
         <v>84</v>
       </c>
       <c r="C13" s="26">
-        <v>283379000000</v>
+        <v>42978000000</v>
       </c>
       <c r="D13" s="26">
-        <v>256144000000</v>
+        <v>22101000000</v>
       </c>
       <c r="E13" s="26">
-        <v>251635000000</v>
+        <v>26612000000</v>
       </c>
       <c r="F13" s="27">
-        <v>222544000000</v>
+        <v>16893000000</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -5313,16 +5313,16 @@
         <v>86</v>
       </c>
       <c r="C15" s="26">
-        <v>45427000000</v>
+        <v>8675000000</v>
       </c>
       <c r="D15" s="26">
-        <v>39500000000</v>
+        <v>7339000000</v>
       </c>
       <c r="E15" s="26">
-        <v>31562000000</v>
+        <v>5268000000</v>
       </c>
       <c r="F15" s="27">
-        <v>27573000000</v>
+        <v>3924000000</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -5373,16 +5373,16 @@
         <v>88</v>
       </c>
       <c r="C17" s="33">
-        <v>101746000000</v>
+        <v>28090000000</v>
       </c>
       <c r="D17" s="33">
-        <v>91495000000</v>
+        <v>5641000000</v>
       </c>
       <c r="E17" s="33">
-        <v>91652000000</v>
+        <v>9108000000</v>
       </c>
       <c r="F17" s="34">
-        <v>65124000000</v>
+        <v>5822000000</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -6005,16 +6005,16 @@
         <v>68</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="23" t="s">
@@ -7121,18 +7121,18 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125"/>
   <cols>
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7140,7 +7140,7 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="11">
         <v>0.2</v>
       </c>
       <c r="C2" t="s">
@@ -7151,7 +7151,7 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>0.15</v>
       </c>
       <c r="C3" t="s">
@@ -7162,7 +7162,7 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="11">
         <v>0.15</v>
       </c>
       <c r="C4" t="s">
@@ -7173,7 +7173,7 @@
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>0.1</v>
       </c>
       <c r="C5" t="s">
@@ -7184,7 +7184,7 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>0.1</v>
       </c>
       <c r="C6" t="s">
@@ -7195,7 +7195,7 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="11">
         <v>0.08</v>
       </c>
       <c r="C7" t="s">
@@ -7206,7 +7206,7 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>0.07</v>
       </c>
       <c r="C8" t="s">
@@ -7217,7 +7217,7 @@
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>0.05</v>
       </c>
       <c r="C9" t="s">
@@ -7228,7 +7228,7 @@
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="11">
         <v>0.05</v>
       </c>
       <c r="C10" t="s">
@@ -7239,7 +7239,7 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>0.03</v>
       </c>
       <c r="C11" t="s">
@@ -7250,7 +7250,7 @@
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>0.02</v>
       </c>
       <c r="C12" t="s">
@@ -7258,25 +7258,25 @@
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <f>SUM(B2:B12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="15" t="s">
         <v>39</v>
       </c>
       <c r="H15">
@@ -7294,16 +7294,16 @@
         <f>H15*'scoring theory'!B8</f>
         <v>14.000000000000002</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="16">
         <f>'scoring theory'!B8</f>
         <v>0.07</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H16">
@@ -7313,16 +7313,16 @@
         <f>H16*'scoring theory'!B8</f>
         <v>14.000000000000002</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="16">
         <f>'scoring theory'!B8</f>
         <v>0.07</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="15">
         <v>2</v>
       </c>
       <c r="H17">
@@ -7332,13 +7332,13 @@
         <f>H17*'scoring theory'!B2</f>
         <v>80</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="16">
         <f>'scoring theory'!B2</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G18" s="13">
+      <c r="G18" s="15">
         <v>3</v>
       </c>
       <c r="H18">
@@ -7348,16 +7348,16 @@
         <f>H18*'scoring theory'!B11</f>
         <v>12</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="16">
         <f>'scoring theory'!B11</f>
         <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="15">
         <v>4</v>
       </c>
       <c r="H19">
@@ -7367,16 +7367,16 @@
         <f>H19*'scoring theory'!B5</f>
         <v>40</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="16">
         <f>'scoring theory'!B5</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="15">
         <v>5</v>
       </c>
       <c r="H20">
@@ -7386,19 +7386,19 @@
         <f>H20*'scoring theory'!B6</f>
         <v>40</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="16">
         <f>'scoring theory'!B6</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="15">
         <v>6</v>
       </c>
       <c r="H21">
@@ -7408,19 +7408,19 @@
         <f>H21*'scoring theory'!B4</f>
         <v>60</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="16">
         <f>'scoring theory'!B4</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="15">
         <v>7</v>
       </c>
       <c r="H22">
@@ -7430,19 +7430,19 @@
         <f>H22*'scoring theory'!B10</f>
         <v>20</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="16">
         <f>'scoring theory'!B10</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="15">
         <v>8</v>
       </c>
       <c r="H23">
@@ -7452,17 +7452,17 @@
         <f>H23*'scoring theory'!B7</f>
         <v>32</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="16">
         <f>'scoring theory'!B7</f>
         <v>0.08</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="G24" s="13">
+      <c r="B24" s="1"/>
+      <c r="G24" s="15">
         <v>9</v>
       </c>
       <c r="H24">
@@ -7472,19 +7472,19 @@
         <f>H24*'scoring theory'!B9</f>
         <v>20</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="16">
         <f>'scoring theory'!B9</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="15">
         <v>10</v>
       </c>
       <c r="H25">
@@ -7494,19 +7494,19 @@
         <f>H25*'scoring theory'!B3</f>
         <v>60</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="16">
         <f>'scoring theory'!B3</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="15">
         <v>11</v>
       </c>
       <c r="H26">
@@ -7516,19 +7516,19 @@
         <f>H26*'scoring theory'!B12</f>
         <v>8</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="16">
         <f>'scoring theory'!B12</f>
         <v>0.02</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="3"/>
       <c r="H27">
         <f>SUM(H15:H26)</f>
         <v>4400</v>
@@ -7537,126 +7537,126 @@
         <f>SUM(I15:I26)</f>
         <v>400</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="16">
         <f>SUM(J15:J26)</f>
         <v>1.07</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="18"/>
+      <c r="B31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="1"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="18"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="18"/>
+      <c r="B41" s="1"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="18"/>
+      <c r="B42" s="1"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7729,16 +7729,16 @@
         <v>74</v>
       </c>
       <c r="C3" s="26">
-        <v>1246000000</v>
+        <v>6331000000</v>
       </c>
       <c r="D3" s="26">
-        <v>2500000000</v>
+        <v>4946000000</v>
       </c>
       <c r="E3" s="26">
-        <v>3742000000</v>
+        <v>6580000000</v>
       </c>
       <c r="F3" s="27">
-        <v>2636000000</v>
+        <v>4061000000</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -7763,16 +7763,16 @@
         <v>75</v>
       </c>
       <c r="C4" s="26">
-        <v>154552000000</v>
+        <v>54376000000</v>
       </c>
       <c r="D4" s="26">
-        <v>109987000000</v>
+        <v>52534000000</v>
       </c>
       <c r="E4" s="26">
-        <v>87546000000</v>
+        <v>49527000000</v>
       </c>
       <c r="F4" s="27">
-        <v>70803000000</v>
+        <v>45336000000</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
@@ -7797,16 +7797,16 @@
         <v>76</v>
       </c>
       <c r="C5" s="26">
-        <v>119220000000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="26">
-        <v>67886000000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="26">
-        <v>67524000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="27">
-        <v>49711000000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -7831,16 +7831,16 @@
         <v>77</v>
       </c>
       <c r="C6" s="26">
-        <v>512163000000</v>
+        <v>352583000000</v>
       </c>
       <c r="D6" s="26">
-        <v>411976000000</v>
+        <v>352755000000</v>
       </c>
       <c r="E6" s="26">
-        <v>364840000000</v>
+        <v>351002000000</v>
       </c>
       <c r="F6" s="27">
-        <v>333779000000</v>
+        <v>323888000000</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
@@ -7865,16 +7865,16 @@
         <v>78</v>
       </c>
       <c r="C7" s="26">
-        <v>125286000000</v>
+        <v>145308000000</v>
       </c>
       <c r="D7" s="26">
-        <v>104149000000</v>
+        <v>153982000000</v>
       </c>
       <c r="E7" s="26">
-        <v>95082000000</v>
+        <v>125481000000</v>
       </c>
       <c r="F7" s="27">
-        <v>88657000000</v>
+        <v>105392000000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -7899,16 +7899,16 @@
         <v>79</v>
       </c>
       <c r="C8" s="26">
-        <v>118400000000</v>
+        <v>145129000000</v>
       </c>
       <c r="D8" s="26">
-        <v>101604000000</v>
+        <v>148101000000</v>
       </c>
       <c r="E8" s="26">
-        <v>103216000000</v>
+        <v>162431000000</v>
       </c>
       <c r="F8" s="27">
-        <v>103134000000</v>
+        <v>153157000000</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -7933,16 +7933,16 @@
         <v>80</v>
       </c>
       <c r="C9" s="26">
-        <v>243686000000</v>
+        <v>290437000000</v>
       </c>
       <c r="D9" s="26">
-        <v>205753000000</v>
+        <v>302083000000</v>
       </c>
       <c r="E9" s="26">
-        <v>198298000000</v>
+        <v>287912000000</v>
       </c>
       <c r="F9" s="27">
-        <v>191791000000</v>
+        <v>258549000000</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -8035,16 +8035,16 @@
         <v>83</v>
       </c>
       <c r="C12" s="26">
-        <v>173144000000</v>
+        <v>-214000000</v>
       </c>
       <c r="D12" s="26">
-        <v>118848000000</v>
+        <v>-3068000000</v>
       </c>
       <c r="E12" s="26">
-        <v>84281000000</v>
+        <v>5562000000</v>
       </c>
       <c r="F12" s="27">
-        <v>57055000000</v>
+        <v>14966000000</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -8069,16 +8069,16 @@
         <v>84</v>
       </c>
       <c r="C13" s="26">
-        <v>268477000000</v>
+        <v>62146000000</v>
       </c>
       <c r="D13" s="26">
-        <v>206223000000</v>
+        <v>50672000000</v>
       </c>
       <c r="E13" s="26">
-        <v>166542000000</v>
+        <v>63090000000</v>
       </c>
       <c r="F13" s="27">
-        <v>141988000000</v>
+        <v>65339000000</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -8129,16 +8129,16 @@
         <v>86</v>
       </c>
       <c r="C15" s="26">
-        <v>29510000000</v>
+        <v>29915000000</v>
       </c>
       <c r="D15" s="26">
-        <v>27195000000</v>
+        <v>26251000000</v>
       </c>
       <c r="E15" s="26">
-        <v>24512000000</v>
+        <v>21914000000</v>
       </c>
       <c r="F15" s="27">
-        <v>20716000000</v>
+        <v>18752000000</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -8189,16 +8189,16 @@
         <v>88</v>
       </c>
       <c r="C17" s="33">
-        <v>118548000000</v>
+        <v>110543000000</v>
       </c>
       <c r="D17" s="33">
-        <v>87582000000</v>
+        <v>122151000000</v>
       </c>
       <c r="E17" s="33">
-        <v>89035000000</v>
+        <v>104038000000</v>
       </c>
       <c r="F17" s="34">
-        <v>76740000000</v>
+        <v>80674000000</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -8821,16 +8821,16 @@
         <v>68</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="23" t="s">
@@ -9991,16 +9991,16 @@
         <v>74</v>
       </c>
       <c r="C3" s="26">
-        <v>6331000000</v>
+        <v>1246000000</v>
       </c>
       <c r="D3" s="26">
-        <v>4946000000</v>
+        <v>2500000000</v>
       </c>
       <c r="E3" s="26">
-        <v>6580000000</v>
+        <v>3742000000</v>
       </c>
       <c r="F3" s="27">
-        <v>4061000000</v>
+        <v>2636000000</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -10025,16 +10025,16 @@
         <v>75</v>
       </c>
       <c r="C4" s="26">
-        <v>54376000000</v>
+        <v>154552000000</v>
       </c>
       <c r="D4" s="26">
-        <v>52534000000</v>
+        <v>109987000000</v>
       </c>
       <c r="E4" s="26">
-        <v>49527000000</v>
+        <v>87546000000</v>
       </c>
       <c r="F4" s="27">
-        <v>45336000000</v>
+        <v>70803000000</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
@@ -10059,16 +10059,16 @@
         <v>76</v>
       </c>
       <c r="C5" s="26">
-        <v>0</v>
+        <v>119220000000</v>
       </c>
       <c r="D5" s="26">
-        <v>0</v>
+        <v>67886000000</v>
       </c>
       <c r="E5" s="26">
-        <v>0</v>
+        <v>67524000000</v>
       </c>
       <c r="F5" s="27">
-        <v>0</v>
+        <v>49711000000</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -10093,16 +10093,16 @@
         <v>77</v>
       </c>
       <c r="C6" s="26">
-        <v>352583000000</v>
+        <v>512163000000</v>
       </c>
       <c r="D6" s="26">
-        <v>352755000000</v>
+        <v>411976000000</v>
       </c>
       <c r="E6" s="26">
-        <v>351002000000</v>
+        <v>364840000000</v>
       </c>
       <c r="F6" s="27">
-        <v>323888000000</v>
+        <v>333779000000</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
@@ -10127,16 +10127,16 @@
         <v>78</v>
       </c>
       <c r="C7" s="26">
-        <v>145308000000</v>
+        <v>125286000000</v>
       </c>
       <c r="D7" s="26">
-        <v>153982000000</v>
+        <v>104149000000</v>
       </c>
       <c r="E7" s="26">
-        <v>125481000000</v>
+        <v>95082000000</v>
       </c>
       <c r="F7" s="27">
-        <v>105392000000</v>
+        <v>88657000000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -10161,16 +10161,16 @@
         <v>79</v>
       </c>
       <c r="C8" s="26">
-        <v>145129000000</v>
+        <v>118400000000</v>
       </c>
       <c r="D8" s="26">
-        <v>148101000000</v>
+        <v>101604000000</v>
       </c>
       <c r="E8" s="26">
-        <v>162431000000</v>
+        <v>103216000000</v>
       </c>
       <c r="F8" s="27">
-        <v>153157000000</v>
+        <v>103134000000</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -10195,16 +10195,16 @@
         <v>80</v>
       </c>
       <c r="C9" s="26">
-        <v>290437000000</v>
+        <v>243686000000</v>
       </c>
       <c r="D9" s="26">
-        <v>302083000000</v>
+        <v>205753000000</v>
       </c>
       <c r="E9" s="26">
-        <v>287912000000</v>
+        <v>198298000000</v>
       </c>
       <c r="F9" s="27">
-        <v>258549000000</v>
+        <v>191791000000</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
@@ -10297,16 +10297,16 @@
         <v>83</v>
       </c>
       <c r="C12" s="26">
-        <v>-214000000</v>
+        <v>173144000000</v>
       </c>
       <c r="D12" s="26">
-        <v>-3068000000</v>
+        <v>118848000000</v>
       </c>
       <c r="E12" s="26">
-        <v>5562000000</v>
+        <v>84281000000</v>
       </c>
       <c r="F12" s="27">
-        <v>14966000000</v>
+        <v>57055000000</v>
       </c>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -10331,16 +10331,16 @@
         <v>84</v>
       </c>
       <c r="C13" s="26">
-        <v>62146000000</v>
+        <v>268477000000</v>
       </c>
       <c r="D13" s="26">
-        <v>50672000000</v>
+        <v>206223000000</v>
       </c>
       <c r="E13" s="26">
-        <v>63090000000</v>
+        <v>166542000000</v>
       </c>
       <c r="F13" s="27">
-        <v>65339000000</v>
+        <v>141988000000</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
@@ -10391,16 +10391,16 @@
         <v>86</v>
       </c>
       <c r="C15" s="26">
-        <v>29915000000</v>
+        <v>29510000000</v>
       </c>
       <c r="D15" s="26">
-        <v>26251000000</v>
+        <v>27195000000</v>
       </c>
       <c r="E15" s="26">
-        <v>21914000000</v>
+        <v>24512000000</v>
       </c>
       <c r="F15" s="27">
-        <v>18752000000</v>
+        <v>20716000000</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
@@ -10451,16 +10451,16 @@
         <v>88</v>
       </c>
       <c r="C17" s="33">
-        <v>110543000000</v>
+        <v>118548000000</v>
       </c>
       <c r="D17" s="33">
-        <v>122151000000</v>
+        <v>87582000000</v>
       </c>
       <c r="E17" s="33">
-        <v>104038000000</v>
+        <v>89035000000</v>
       </c>
       <c r="F17" s="34">
-        <v>80674000000</v>
+        <v>76740000000</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
